--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R25_Pentropia_I0.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_wdbc_D75_R25_Pentropia_I0.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[1.6344785919627771, 1.7498819676919577, 1.811673638171613, 1.9984401975199575, 2.053980830153221, 2.0743703469004657, 2.129156796697329]</t>
+          <t>[1.6020222028860338, 1.7371051505744004, 1.7876944248241793, 1.9753375269026365, 2.0514437101322276, 2.062436884882596, 2.094850796902078]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -643,14 +643,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[1.6344785919627771, 1.7498819676919577, 1.811673638171613, 2.053980830153221, 2.129156796697329, 2.1861843715807256, 2.2383979899536257]</t>
+          <t>[1.6020222028860338, 1.7371051505744004, 1.7876944248241793, 2.0514437101322276, 2.094850796902078, 2.1368413985568835, 2.2149840943589574]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.064175588526844</v>
+        <v>2.056940297507413</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.542382</t>
         </is>
       </c>
     </row>
@@ -715,7 +715,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[387, 444, 314, 373, 393, 96, 235]</t>
+          <t>[387, 444, 373, 314, 235, 393, 96]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -725,24 +725,24 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[3.332091419225388, 3.552455646429639, 3.56904810828735, 3.610796201059299, 3.8460649967251483, 3.883932755114659, 3.886853187140267]</t>
+          <t>[3.2910378456039164, 3.536474226707234, 3.599180297589507, 3.602811954047152, 3.806517999246313, 3.8637273702683914, 3.9341449168265443]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[387, 444, 314, 373, 393, 96, 235]</t>
+          <t>[387, 444, 373, 314, 235, 393, 96]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[3.332091419225388, 3.552455646429639, 3.56904810828735, 3.610796201059299, 3.8460649967251483, 3.883932755114659, 3.886853187140267]</t>
+          <t>[3.2910378456039164, 3.536474226707234, 3.599180297589507, 3.602811954047152, 3.806517999246313, 3.8637273702683914, 3.9341449168265443]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>5</v>
       </c>
       <c r="V3" t="n">
-        <v>3.864998875919905</v>
+        <v>3.835122684757354</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -751,7 +751,7 @@
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.542587</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[2.3374854797465576, 2.4096620826019093, 2.5912818920290106, 2.6238708176815737, 2.814996752395408, 2.8805285726866683, 2.8821285084067565]</t>
+          <t>[2.3316603325152525, 2.3912638222094187, 2.583415344195387, 2.643304446766448, 2.808928829443582, 2.8586283015973093, 2.8704455901951738]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -823,14 +823,14 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[2.3374854797465576, 2.4096620826019093, 2.5912818920290106, 2.6238708176815737, 2.814996752395408, 2.8805285726866683, 2.8821285084067565]</t>
+          <t>[2.3316603325152525, 2.3912638222094187, 2.583415344195387, 2.643304446766448, 2.808928829443582, 2.8586283015973093, 2.8704455901951738]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>5</v>
       </c>
       <c r="V4" t="n">
-        <v>2.847762662541037</v>
+        <v>2.833778565520444</v>
       </c>
       <c r="W4" t="n">
         <v>3</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.542812</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[24, 95, 268, 229, 382, 102, 170]</t>
+          <t>[24, 95, 268, 229, 102, 382, 170]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
@@ -905,24 +905,24 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[7.560988349543469, 16.629481195636426, 17.002509521049884, 18.262048037438955, 18.27231899869599, 18.31062216302991, 18.343144004860804]</t>
+          <t>[7.5418371172498135, 16.520073085971756, 16.876791519422884, 18.11172714482376, 18.119081706453013, 18.1342533502982, 18.20293899341647]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[24, 95, 268, 229, 382, 102, 170]</t>
+          <t>[24, 95, 268, 229, 102, 382, 170]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[7.560988349543469, 16.629481195636426, 17.002509521049884, 18.262048037438955, 18.27231899869599, 18.31062216302991, 18.343144004860804]</t>
+          <t>[7.5418371172498135, 16.520073085971756, 16.876791519422884, 18.11172714482376, 18.119081706453013, 18.1342533502982, 18.20293899341647]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>5</v>
       </c>
       <c r="V5" t="n">
-        <v>18.29147058086295</v>
+        <v>18.12666752837561</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -931,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.542812</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[295, 56, 257, 26, 290, 99, 36]</t>
+          <t>[295, 56, 257, 26, 290, 36, 99]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -993,24 +993,24 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[1.894508469480242, 1.919477030632425, 1.946797018006952, 1.9784008648566906, 2.1933358048781213, 2.229708393918337, 2.2648402283443043]</t>
+          <t>[1.9016486405023327, 1.9117972816321436, 1.9440862987204108, 1.990198261663097, 2.178873539739254, 2.2059688967690567, 2.226631480895583]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[56, 257, 26, 290, 310, 281, 212]</t>
+          <t>[56, 257, 26, 290, 281, 310, 212]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[1.919477030632425, 1.946797018006952, 1.9784008648566906, 2.1933358048781213, 2.332365171639115, 2.347563282350883, 2.4669156697589725]</t>
+          <t>[1.9117972816321436, 1.9440862987204108, 1.990198261663097, 2.178873539739254, 2.306163824044718, 2.3602939881336575, 2.4472369790052775]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>5</v>
       </c>
       <c r="V6" t="n">
-        <v>2.211522099398229</v>
+        <v>2.192421218254156</v>
       </c>
       <c r="W6" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.542812</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[1.2322926686770683, 1.6583903243202223, 1.698529618200424, 1.9636492836853032, 2.006807340888282, 2.0364594078329317, 2.129156796697329]</t>
+          <t>[1.2051033948023886, 1.6417897914190827, 1.6937331146490724, 1.9290114798932771, 1.9721435489990657, 2.0162003993453443, 2.094850796902078]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1095,14 +1095,14 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[1.2322926686770683, 1.6583903243202223, 1.698529618200424, 2.129156796697329, 2.264542520854602, 2.275078412038328, 2.3563292171853045]</t>
+          <t>[1.2051033948023886, 1.6417897914190827, 1.6937331146490724, 2.094850796902078, 2.2243959370243576, 2.2530785421826485, 2.308882629797307]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.021633374360607</v>
+        <v>1.994171974172205</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.542812</t>
         </is>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[286, 329, 152, 33, 196, 4, 419]</t>
+          <t>[286, 329, 152, 33, 4, 196, 419]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1173,24 +1173,24 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[2.070162952778432, 2.6977400333011268, 2.7093103953730244, 2.8233033176319373, 2.8645404304505258, 2.8821285084067565, 2.8989900401654958]</t>
+          <t>[2.0775838272439113, 2.6705338371204133, 2.7111537317423613, 2.7919866145669587, 2.8704455901951738, 2.8826899983136136, 2.8993897353077673]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[286, 329, 152, 33, 196, 4, 419]</t>
+          <t>[286, 329, 152, 33, 4, 196, 419]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[2.070162952778432, 2.6977400333011268, 2.7093103953730244, 2.8233033176319373, 2.8645404304505258, 2.8821285084067565, 2.8989900401654958]</t>
+          <t>[2.0775838272439113, 2.6705338371204133, 2.7111537317423613, 2.7919866145669587, 2.8704455901951738, 2.8826899983136136, 2.8993897353077673]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.873334469428642</v>
+        <v>2.876567794254393</v>
       </c>
       <c r="W8" t="n">
         <v>1</v>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543405</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[435, 270, 61, 191, 454, 109, 212]</t>
+          <t>[435, 270, 191, 61, 109, 454, 4]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1265,24 +1265,24 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[2.929039241107291, 3.0617286038231537, 3.0693117765700637, 3.083140772720531, 3.221273691442067, 3.2428707258632246, 3.3759864668178423]</t>
+          <t>[2.9146950294965257, 3.0126310594350825, 3.0715802230052693, 3.0787625216082377, 3.180348219105253, 3.1871681557006983, 3.30562208007159]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[435, 270, 61, 191, 454, 109, 212]</t>
+          <t>[435, 270, 191, 61, 109, 454, 4]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[2.929039241107291, 3.0617286038231537, 3.0693117765700637, 3.083140772720531, 3.221273691442067, 3.2428707258632246, 3.3759864668178423]</t>
+          <t>[2.9146950294965257, 3.0126310594350825, 3.0715802230052693, 3.0787625216082377, 3.180348219105253, 3.1871681557006983, 3.30562208007159]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>3.232072208652645</v>
+        <v>3.183758187402975</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543405</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[3.3111901526029572, 3.3633184169579966, 3.415897905794119, 3.7171997723693413, 4.172070973746485, 4.387181881053332, 4.819808919980325]</t>
+          <t>[3.2474561829917516, 3.3091444898460995, 3.4235685936300424, 3.6623804896668823, 4.045235235635085, 4.374031652073877, 4.704895671421873]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -1363,14 +1363,14 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[3.3111901526029572, 3.3633184169579966, 3.415897905794119, 3.7171997723693413, 4.172070973746485, 4.387181881053332, 4.819808919980325]</t>
+          <t>[3.2474561829917516, 3.3091444898460995, 3.4235685936300424, 3.6623804896668823, 4.045235235635085, 4.374031652073877, 4.704895671421873]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>5</v>
       </c>
       <c r="V10" t="n">
-        <v>4.27962642739991</v>
+        <v>4.209633443854472</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543405</t>
         </is>
       </c>
     </row>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[106, 435, 414, 226, 406, 380, 179]</t>
+          <t>[106, 435, 414, 226, 406, 380, 184]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1441,24 +1441,24 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[2.3320928130091376, 2.882244642438678, 2.890516592120071, 3.195253303299013, 3.2357953302304536, 3.2646251451393833, 3.2961215175512737]</t>
+          <t>[2.323640708805968, 2.862776178299, 2.8872214333538895, 3.200180165931296, 3.212946550883042, 3.2607195836704466, 3.281936830575658]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[106, 435, 414, 226, 406, 380, 179]</t>
+          <t>[106, 435, 414, 226, 406, 380, 184]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[2.3320928130091376, 2.882244642438678, 2.890516592120071, 3.195253303299013, 3.2357953302304536, 3.2646251451393833, 3.2961215175512737]</t>
+          <t>[2.323640708805968, 2.862776178299, 2.8872214333538895, 3.200180165931296, 3.212946550883042, 3.2607195836704466, 3.281936830575658]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>5</v>
       </c>
       <c r="V11" t="n">
-        <v>3.250210237684914</v>
+        <v>3.236833067276746</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543952</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[2.5694857961436006, 2.9552109263836535, 3.1113769478280875, 3.1427320800664207, 3.2059405858646457, 3.2891028613484163, 3.4059198447279986]</t>
+          <t>[2.5738416897770966, 2.922403153971119, 3.0926080249499845, 3.1192808699598404, 3.22004259121789, 3.322965475922121, 3.4239012672549083]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
@@ -1543,14 +1543,14 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[2.5694857961436006, 2.9552109263836535, 3.1113769478280875, 3.1427320800664207, 3.2059405858646457, 3.2891028613484163, 3.4059198447279986]</t>
+          <t>[2.5738416897770966, 2.922403153971119, 3.0926080249499845, 3.1192808699598404, 3.22004259121789, 3.322965475922121, 3.4239012672549083]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>5</v>
       </c>
       <c r="V12" t="n">
-        <v>3.247521723606528</v>
+        <v>3.271504033570007</v>
       </c>
       <c r="W12" t="n">
         <v>4</v>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543952</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[5, 268, 95, 382, 315, 229, 221]</t>
+          <t>[5, 268, 95, 382, 315, 229, 29]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -1625,24 +1625,24 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[7.560988349543469, 16.087976137379087, 16.59019823822402, 16.723690945275482, 17.037898699006014, 17.27059996776747, 17.475478073480687]</t>
+          <t>[7.5418371172498135, 15.947971087206342, 16.46324867619978, 16.579710987902548, 16.84494153752953, 17.065719818414582, 17.306559252888675]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[5, 268, 95, 382, 315, 229, 221]</t>
+          <t>[5, 268, 95, 382, 315, 229, 29]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[7.560988349543469, 16.087976137379087, 16.59019823822402, 16.723690945275482, 17.037898699006014, 17.27059996776747, 17.475478073480687]</t>
+          <t>[7.5418371172498135, 15.947971087206342, 16.46324867619978, 16.579710987902548, 16.84494153752953, 17.065719818414582, 17.306559252888675]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>5</v>
       </c>
       <c r="V13" t="n">
-        <v>17.15424933338674</v>
+        <v>16.95533067797205</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1651,7 +1651,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543952</t>
         </is>
       </c>
     </row>
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K14" t="n">
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="b">
@@ -1703,34 +1703,34 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[257, 290, 281, 310, 56, 142, 7]</t>
+          <t>[257, 290, 281, 310, 142, 56, 218]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[1.535617937656059, 1.6658171946004932, 1.674485108981822, 1.8841345067835156, 1.9210853930010796, 1.9750377981712108, 1.9784008648566906]</t>
+          <t>[1.4971499947101103, 1.6428696638620455, 1.6669902419188405, 1.8833452828746837, 1.930188333191758, 1.941407213662234, 1.9792731210082355]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[257, 290, 281, 310, 56, 142, 7]</t>
+          <t>[257, 290, 281, 310, 142, 56, 7]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[1.535617937656059, 1.6658171946004932, 1.674485108981822, 1.8841345067835156, 1.9210853930010796, 1.9750377981712108, 1.9784008648566906]</t>
+          <t>[1.4971499947101103, 1.6428696638620455, 1.6669902419188405, 1.8833452828746837, 1.930188333191758, 1.941407213662234, 1.990198261663097]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>5</v>
       </c>
       <c r="V14" t="n">
-        <v>1.948061595586145</v>
+        <v>1.935797773426995</v>
       </c>
       <c r="W14" t="n">
         <v>1</v>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543952</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[2.2206399488644264, 2.297944482234128, 2.41600873534404, 2.5862557251452194, 2.9435863408007834, 3.0163912588780155, 3.121095035419461]</t>
+          <t>[2.1858707569341678, 2.2940865306424123, 2.4065642135011847, 2.5598788465909093, 2.8845827486286524, 2.9877982568351285, 3.074065098764063]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
@@ -1815,14 +1815,14 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[2.2206399488644264, 2.297944482234128, 2.41600873534404, 2.5862557251452194, 2.9435863408007834, 3.0163912588780155, 3.121095035419461]</t>
+          <t>[2.1858707569341678, 2.2940865306424123, 2.4065642135011847, 2.5598788465909093, 2.8845827486286524, 2.9877982568351285, 3.074065098764063]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>5</v>
       </c>
       <c r="V15" t="n">
-        <v>2.979988799839402</v>
+        <v>2.93619050273189</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.543952</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[2.302425281281973, 2.4333799886379515, 2.8945152247338095, 3.0265313252148056, 3.7171997723693413, 3.7462268877149527, 3.8733952788046055]</t>
+          <t>[2.2843410289769843, 2.4156505904912073, 2.836378175587199, 3.0063135003162067, 3.6623804896668823, 3.664688287991253, 3.813575184843592]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -1903,14 +1903,14 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[2.302425281281973, 2.4333799886379515, 2.8945152247338095, 3.0265313252148056, 3.7171997723693413, 3.7462268877149527, 3.8733952788046055]</t>
+          <t>[2.2843410289769843, 2.4156505904912073, 2.836378175587199, 3.0063135003162067, 3.6623804896668823, 3.664688287991253, 3.813575184843592]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>5</v>
       </c>
       <c r="V16" t="n">
-        <v>3.731713330042141</v>
+        <v>3.663534388829067</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1919,7 +1919,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[421, 294, 368, 237, 362, 411, 312]</t>
+          <t>[421, 294, 368, 237, 362, 411, 146]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -1981,24 +1981,24 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[6.957139071532164, 7.239569504456395, 7.646256041603397, 7.878180028915161, 7.917329829148115, 8.564739386372931, 8.755754759448536]</t>
+          <t>[6.880843940049777, 7.126521006800923, 7.760329938189138, 7.922215225568251, 8.032344068506802, 8.629626381955704, 8.68008090212784]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[421, 294, 368, 237, 362, 411, 312]</t>
+          <t>[421, 294, 368, 237, 362, 411, 146]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[6.957139071532164, 7.239569504456395, 7.646256041603397, 7.878180028915161, 7.917329829148115, 8.564739386372931, 8.755754759448536]</t>
+          <t>[6.880843940049777, 7.126521006800923, 7.760329938189138, 7.922215225568251, 8.032344068506802, 8.629626381955704, 8.68008090212784]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>8.241034607760522</v>
+        <v>8.330985225231252</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[1.708175435285469, 1.9243839234839204, 2.08700840358509, 2.3682238019405895, 2.399215773544278, 2.5126208275203985, 2.5618449105827437]</t>
+          <t>[1.6820617250783465, 1.913658698925176, 2.075202970855305, 2.3367433168506113, 2.3573552359580523, 2.4741922504224, 2.512646620750986]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2079,14 +2079,14 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[1.708175435285469, 1.9243839234839204, 2.08700840358509, 2.3682238019405895, 2.399215773544278, 2.5126208275203985, 2.5618449105827437]</t>
+          <t>[1.6820617250783465, 1.913658698925176, 2.075202970855305, 2.3367433168506113, 2.3573552359580523, 2.4741922504224, 2.512646620750986]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>5</v>
       </c>
       <c r="V18" t="n">
-        <v>2.455918300532338</v>
+        <v>2.415773743190226</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2151,34 +2151,34 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[270, 453, 383, 65, 166, 53, 36]</t>
+          <t>[270, 453, 383, 166, 65, 53, 36]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 1, 0, 1, 0]</t>
+          <t>[1, 0, 1, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[2.162739195290538, 2.697716868743556, 2.7620369417407606, 2.82369504488113, 2.853884351581796, 2.953603231482358, 3.000364418715081]</t>
+          <t>[2.130650230615123, 2.6975710031279045, 2.7930257051441787, 2.8257029907501856, 2.831848588534187, 2.9813604538956526, 3.008753531967254]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[270, 383, 65, 53, 318, 429, 410]</t>
+          <t>[270, 383, 65, 53, 429, 318, 410]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[2.162739195290538, 2.7620369417407606, 2.82369504488113, 2.953603231482358, 3.0063410403043522, 3.0640546939406708, 3.129387482160214]</t>
+          <t>[2.130650230615123, 2.7930257051441787, 2.831848588534187, 2.9813604538956526, 3.0249422486251647, 3.0512881087338264, 3.1229260477499916]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>5</v>
       </c>
       <c r="V19" t="n">
-        <v>2.903743791532077</v>
+        <v>2.90660452121492</v>
       </c>
       <c r="W19" t="n">
         <v>1</v>
@@ -2191,7 +2191,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2243,7 +2243,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[99, 65, 96, 43, 265, 217, 407]</t>
+          <t>[99, 96, 65, 43, 217, 265, 407]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -2253,24 +2253,24 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.8893805271065873, 2.041974208553702, 2.0595777589125084, 2.133563482479474, 2.184418148681345, 2.194576707133189, 2.231648637639479]</t>
+          <t>[1.860267761946697, 2.0338156690452918, 2.034798800245908, 2.1397579656389887, 2.1696157523707833, 2.1729298611181034, 2.201941791237817]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[65, 96, 43, 265, 217, 354, 184]</t>
+          <t>[96, 65, 43, 217, 265, 354, 184]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.041974208553702, 2.0595777589125084, 2.133563482479474, 2.184418148681345, 2.194576707133189, 2.25235340741433, 2.398000683869676]</t>
+          <t>[2.0338156690452918, 2.034798800245908, 2.1397579656389887, 2.1696157523707833, 2.1729298611181034, 2.2368349094677984, 2.3973995622991464]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>5</v>
       </c>
       <c r="V20" t="n">
-        <v>2.189497427907267</v>
+        <v>2.171272806744444</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2279,7 +2279,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[52, 354, 54, 65, 127, 395, 180]</t>
+          <t>[52, 354, 54, 127, 65, 395, 180]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -2341,24 +2341,24 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.3521922883297484, 1.477044471046879, 1.7299510420686817, 1.74423084655554, 1.779903505008677, 1.7951075182895444, 2.0767452077186963]</t>
+          <t>[1.3314988313470162, 1.4513183296469023, 1.718593835508828, 1.7390410137413674, 1.744871544150654, 1.7663076815325351, 2.0709106013083574]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[52, 354, 54, 65, 127, 395, 180]</t>
+          <t>[52, 354, 54, 127, 65, 395, 180]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[1.3521922883297484, 1.477044471046879, 1.7299510420686817, 1.74423084655554, 1.779903505008677, 1.7951075182895444, 2.0767452077186963]</t>
+          <t>[1.3314988313470162, 1.4513183296469023, 1.718593835508828, 1.7390410137413674, 1.744871544150654, 1.7663076815325351, 2.0709106013083574]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>5</v>
       </c>
       <c r="V21" t="n">
-        <v>1.78750551164911</v>
+        <v>1.755589612841595</v>
       </c>
       <c r="W21" t="n">
         <v>3</v>
@@ -2371,7 +2371,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[2.5276815841562486, 2.9927014395648266, 3.0127944641205096, 3.0732228112691957, 3.0845418750119427, 3.134812510164871, 3.1639601939024575]</t>
+          <t>[2.5115202977481905, 2.9461652084011467, 2.9799672181032806, 3.0276921033211526, 3.0562034361068338, 3.100675962960985, 3.105322025263764]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -2443,14 +2443,14 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[2.5276815841562486, 2.9927014395648266, 3.0127944641205096, 3.0732228112691957, 3.0845418750119427, 3.134812510164871, 3.1639601939024575]</t>
+          <t>[2.5115202977481905, 2.9461652084011467, 2.9799672181032806, 3.0276921033211526, 3.0562034361068338, 3.100675962960985, 3.105322025263764]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>5</v>
       </c>
       <c r="V22" t="n">
-        <v>3.109677192588406</v>
+        <v>3.078439699533911</v>
       </c>
       <c r="W22" t="n">
         <v>1</v>
@@ -2463,7 +2463,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[0.9723422043635904, 1.3521922883297484, 1.4168868984212089, 1.4736186140651695, 1.6317175648612094, 1.6687594684598144, 1.8002119431098504]</t>
+          <t>[0.9633061518468646, 1.3314988313470162, 1.3816367933710194, 1.4653613765592886, 1.6291297094125112, 1.6570583234495286, 1.802196329996907]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -2535,14 +2535,14 @@
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[0.9723422043635904, 1.3521922883297484, 1.4168868984212089, 1.4736186140651695, 1.6317175648612094, 1.6687594684598144, 1.8002119431098504]</t>
+          <t>[0.9633061518468646, 1.3314988313470162, 1.3816367933710194, 1.4653613765592886, 1.6291297094125112, 1.6570583234495286, 1.802196329996907]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>5</v>
       </c>
       <c r="V23" t="n">
-        <v>1.650238516660511</v>
+        <v>1.643094016431021</v>
       </c>
       <c r="W23" t="n">
         <v>2</v>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2607,17 +2607,17 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[346, 424, 8, 453, 423, 58, 143]</t>
+          <t>[346, 8, 424, 453, 58, 423, 143]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[1.6315741965896122, 1.654977433402672, 1.6583903243202223, 1.8519496950778676, 1.89559536144779, 1.9281793818006807, 1.9512688656897397]</t>
+          <t>[1.6277526211727256, 1.6417897914190827, 1.6586241742011063, 1.8606112860777553, 1.898594634454204, 1.9088896361975953, 1.9236753577033285]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2627,14 +2627,14 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[1.6315741965896122, 1.6583903243202223, 1.9281793818006807, 2.139386587082235, 2.228270621142095, 2.2883144157793045, 2.41014299253512]</t>
+          <t>[1.6277526211727256, 1.6417897914190827, 1.898594634454204, 2.122507382938432, 2.2078122872059205, 2.2938497030241334, 2.3808166414193184]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.911887371624235</v>
+        <v>1.9037421353259</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[1.2607969710081375, 1.4736186140651695, 1.7299510420686817, 1.9976752468141468, 2.011816264460342, 2.026782422980298, 2.0831810648263547]</t>
+          <t>[1.237737421459724, 1.4653613765592886, 1.718593835508828, 1.9667457025371717, 2.0026348821941675, 2.0132179689273477, 2.0629223410606765]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
@@ -2715,14 +2715,14 @@
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[1.2607969710081375, 1.4736186140651695, 1.7299510420686817, 1.9976752468141468, 2.011816264460342, 2.026782422980298, 2.0831810648263547]</t>
+          <t>[1.237737421459724, 1.4653613765592886, 1.718593835508828, 1.9667457025371717, 2.0026348821941675, 2.0132179689273477, 2.0629223410606765]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>5</v>
       </c>
       <c r="V25" t="n">
-        <v>2.019299343720321</v>
+        <v>2.007926425560757</v>
       </c>
       <c r="W25" t="n">
         <v>2</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.544494</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[404, 371, 293, 116, 22, 4, 377]</t>
+          <t>[404, 371, 293, 116, 22, 4, 307]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2797,24 +2797,24 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[4.857205615832795, 4.952133315856674, 5.045240037559233, 5.184924755134925, 5.249695481751518, 5.509518620245928, 5.713905638374983]</t>
+          <t>[4.8089145047062845, 4.921055016940214, 5.075478503399738, 5.120574364597612, 5.276259012347652, 5.557512503986758, 5.772674756188083]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[404, 371, 293, 116, 22, 4, 377]</t>
+          <t>[404, 371, 293, 116, 22, 4, 307]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[4.857205615832795, 4.952133315856674, 5.045240037559233, 5.184924755134925, 5.249695481751518, 5.509518620245928, 5.713905638374983]</t>
+          <t>[4.8089145047062845, 4.921055016940214, 5.075478503399738, 5.120574364597612, 5.276259012347652, 5.557512503986758, 5.772674756188083]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>5</v>
       </c>
       <c r="V26" t="n">
-        <v>5.379607050998722</v>
+        <v>5.416885758167206</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2823,7 +2823,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[416, 281, 7, 26, 142, 290, 218]</t>
+          <t>[416, 281, 7, 26, 142, 290, 99]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.1830535443981494, 1.8990962173314132, 1.919477030632425, 1.9210853930010796, 2.0150947264693073, 2.1486323978147066, 2.3223665535027567]</t>
+          <t>[1.1732980374676283, 1.8841727803082975, 1.9117972816321436, 1.941407213662234, 1.9618688324714997, 2.135367710344745, 2.324088691686866]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2895,14 +2895,14 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[1.8990962173314132, 1.919477030632425, 1.9210853930010796, 2.0150947264693073, 2.1486323978147066, 2.3904305084190476, 2.4626753564596813]</t>
+          <t>[1.8841727803082975, 1.9117972816321436, 1.941407213662234, 1.9618688324714997, 2.135367710344745, 2.3547760202436314, 2.4408039489360824]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>5</v>
       </c>
       <c r="V27" t="n">
-        <v>2.081863562142006</v>
+        <v>2.048618271408123</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2911,7 +2911,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[8, 180, 346, 53, 395, 54, 0]</t>
+          <t>[8, 180, 346, 53, 395, 0, 54]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -2973,24 +2973,24 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[1.2322926686770683, 1.667438754636939, 1.7361737406084488, 1.9281793818006807, 2.0669986380916936, 2.173482730702583, 2.1861843715807256]</t>
+          <t>[1.2051033948023886, 1.659748939575825, 1.7237475343115642, 1.898594634454204, 2.057550469069169, 2.1368413985568835, 2.1457436838825963]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[8, 180, 346, 53, 395, 54, 0]</t>
+          <t>[8, 180, 346, 53, 395, 0, 54]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[1.2322926686770683, 1.667438754636939, 1.7361737406084488, 1.9281793818006807, 2.0669986380916936, 2.173482730702583, 2.1861843715807256]</t>
+          <t>[1.2051033948023886, 1.659748939575825, 1.7237475343115642, 1.898594634454204, 2.057550469069169, 2.1368413985568835, 2.1457436838825963]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>5</v>
       </c>
       <c r="V28" t="n">
-        <v>2.120240684397138</v>
+        <v>2.097195933813027</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2999,7 +2999,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[2.898946457139684, 3.3840603014467443, 3.4008950627487313, 3.429798219721075, 3.4684119195601264, 3.544186365191703, 3.734738728449521]</t>
+          <t>[2.86770827061685, 3.3326404740264817, 3.375001060893945, 3.3940386298490006, 3.4539199130791123, 3.5385389239613123, 3.668804815291076]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3071,14 +3071,14 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[2.898946457139684, 3.3840603014467443, 3.4008950627487313, 3.429798219721075, 3.4684119195601264, 3.544186365191703, 3.8509561838586404]</t>
+          <t>[2.86770827061685, 3.3326404740264817, 3.375001060893945, 3.3940386298490006, 3.4539199130791123, 3.5385389239613123, 3.8089690063031094]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>5</v>
       </c>
       <c r="V29" t="n">
-        <v>3.506299142375915</v>
+        <v>3.496229418520211</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -3087,7 +3087,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.277929</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[1.4618866466804645, 1.6718731394141257, 1.7450545804750537, 1.9698901590662081, 2.0127573447611042, 2.2730396697541653, 2.3009270347620885]</t>
+          <t>[1.453487278631919, 1.6584586195299866, 1.7107383784380887, 1.940644063352931, 1.964931538171606, 2.238768785519508, 2.272833636113052]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -3159,14 +3159,14 @@
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[1.4618866466804645, 1.6718731394141257, 1.7450545804750537, 1.9698901590662081, 2.0127573447611042, 2.2730396697541653, 2.3009270347620885]</t>
+          <t>[1.453487278631919, 1.6584586195299866, 1.7107383784380887, 1.940644063352931, 1.964931538171606, 2.238768785519508, 2.272833636113052]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>5</v>
       </c>
       <c r="V30" t="n">
-        <v>2.142898507257635</v>
+        <v>2.101850161845557</v>
       </c>
       <c r="W30" t="n">
         <v>2</v>
@@ -3179,7 +3179,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[1.6317175648612094, 1.74423084655554, 1.868570134970659, 1.8860815976480336, 2.030969064059249, 2.041974208553702, 2.0540449274113177]</t>
+          <t>[1.6291297094125112, 1.744871544150654, 1.8538456792352458, 1.8853561659186515, 2.0202726738329906, 2.034798800245908, 2.0399433857260436]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3251,14 +3251,14 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[1.6317175648612094, 1.74423084655554, 1.868570134970659, 1.8860815976480336, 2.030969064059249, 2.041974208553702, 2.0540449274113177]</t>
+          <t>[1.6291297094125112, 1.744871544150654, 1.8538456792352458, 1.8853561659186515, 2.0202726738329906, 2.034798800245908, 2.0399433857260436]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>5</v>
       </c>
       <c r="V31" t="n">
-        <v>2.036471636306475</v>
+        <v>2.02753573703945</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3267,7 +3267,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[326, 127, 179, 322, 52, 265, 286]</t>
+          <t>[326, 127, 179, 52, 322, 265, 286]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3329,24 +3329,24 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[1.764209992329337, 1.8875360703107102, 1.8978892818894413, 1.919141429763599, 1.9230596982021897, 2.0621344566082764, 2.3078775111179026]</t>
+          <t>[1.7507726902234724, 1.8736375543366934, 1.8747551665825926, 1.8954452919806337, 1.9087359940122899, 2.0374791424123933, 2.2928743540670107]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[326, 127, 179, 322, 52, 265, 286]</t>
+          <t>[326, 127, 179, 52, 322, 265, 286]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[1.764209992329337, 1.8875360703107102, 1.8978892818894413, 1.919141429763599, 1.9230596982021897, 2.0621344566082764, 2.3078775111179026]</t>
+          <t>[1.7507726902234724, 1.8736375543366934, 1.8747551665825926, 1.8954452919806337, 1.9087359940122899, 2.0374791424123933, 2.2928743540670107]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>5</v>
       </c>
       <c r="V32" t="n">
-        <v>1.992597077405234</v>
+        <v>1.973107568212343</v>
       </c>
       <c r="W32" t="n">
         <v>1</v>
@@ -3355,11 +3355,11 @@
         <v>0.5079682182603347</v>
       </c>
       <c r="Y32" t="n">
-        <v>52</v>
+        <v>322</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3411,7 +3411,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[208, 92, 75, 184, 165, 312, 435]</t>
+          <t>[208, 75, 92, 184, 312, 165, 435]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3421,24 +3421,24 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[2.597533854023624, 3.3905188278604803, 3.3955569255752236, 3.5161567635397803, 3.5666722348055204, 3.5726262999057496, 3.5932640825437177]</t>
+          <t>[2.5933775359630986, 3.3868859905585587, 3.3924358658560476, 3.5037784469488673, 3.5057360825030575, 3.557982848018722, 3.5996208225629935]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[208, 92, 75, 184, 165, 312, 435]</t>
+          <t>[208, 75, 92, 184, 312, 165, 435]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[2.597533854023624, 3.3905188278604803, 3.3955569255752236, 3.5161567635397803, 3.5666722348055204, 3.5726262999057496, 3.5932640825437177]</t>
+          <t>[2.5933775359630986, 3.3868859905585587, 3.3924358658560476, 3.5037784469488673, 3.5057360825030575, 3.557982848018722, 3.5996208225629935]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>5</v>
       </c>
       <c r="V33" t="n">
-        <v>3.569649267355635</v>
+        <v>3.531859465260892</v>
       </c>
       <c r="W33" t="n">
         <v>1</v>
@@ -3447,11 +3447,11 @@
         <v>0.4163188360800481</v>
       </c>
       <c r="Y33" t="n">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[257, 165, 290, 184, 234, 281, 130]</t>
+          <t>[257, 165, 290, 184, 234, 281, 208]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3513,24 +3513,24 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[2.5171981721715055, 2.6225946539615212, 2.67052603844975, 2.7538642632604504, 2.8032929983018056, 2.893163173519288, 2.8973858242739063]</t>
+          <t>[2.5088156497682537, 2.60574986988603, 2.6332504287770693, 2.7376300038100236, 2.7996542082826696, 2.8548336077486702, 2.858809287497672]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[257, 165, 290, 184, 234, 281, 130]</t>
+          <t>[257, 165, 290, 184, 234, 281, 208]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[2.5171981721715055, 2.6225946539615212, 2.67052603844975, 2.7538642632604504, 2.8032929983018056, 2.893163173519288, 2.8973858242739063]</t>
+          <t>[2.5088156497682537, 2.60574986988603, 2.6332504287770693, 2.7376300038100236, 2.7996542082826696, 2.8548336077486702, 2.858809287497672]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>2.848228085910546</v>
+        <v>2.82724390801567</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[158, 143, 251, 227, 350, 177, 365]</t>
+          <t>[158, 143, 251, 227, 177, 350, 365]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3601,7 +3601,7 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[1.3914000941824032, 1.5020889422587924, 1.6154574269230801, 1.6582811433749665, 1.8159931689836626, 1.8291525452170931, 1.9195727691044455]</t>
+          <t>[1.3796807901097032, 1.4809857329474156, 1.6007341186336639, 1.6234443445800644, 1.8054483357549227, 1.8280364200676276, 1.8891751924030058]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
@@ -3611,14 +3611,14 @@
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[1.6154574269230801, 1.9620286457585652, 2.053980830153221, 2.228270621142095, 2.2947406095613156, 2.550595263708687, 2.709511714243043]</t>
+          <t>[1.6007341186336639, 1.9077942585112764, 2.0514437101322276, 2.2078122872059205, 2.2712391689354843, 2.4941190635670174, 2.659906532722386]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>5</v>
       </c>
       <c r="V35" t="n">
-        <v>1.822572857100378</v>
+        <v>1.816742377911276</v>
       </c>
       <c r="W35" t="n">
         <v>1</v>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3683,7 +3683,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[72, 13, 248, 322, 252, 106, 435]</t>
+          <t>[72, 13, 248, 252, 322, 106, 435]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
@@ -3693,24 +3693,24 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[3.3905188278604803, 3.841405061599684, 4.044456135434838, 4.048312707985659, 4.070650573827291, 4.098474931844227, 4.163506467020926]</t>
+          <t>[3.3924358658560476, 3.8477205549223013, 4.022812323733481, 4.058041157793069, 4.059573281534842, 4.10780881169701, 4.132914200074276]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[72, 13, 248, 322, 252, 106, 435]</t>
+          <t>[72, 13, 248, 252, 322, 106, 435]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[3.3905188278604803, 3.841405061599684, 4.044456135434838, 4.048312707985659, 4.070650573827291, 4.098474931844227, 4.163506467020926]</t>
+          <t>[3.3924358658560476, 3.8477205549223013, 4.022812323733481, 4.058041157793069, 4.059573281534842, 4.10780881169701, 4.132914200074276]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>5</v>
       </c>
       <c r="V36" t="n">
-        <v>4.084562752835762</v>
+        <v>4.083691046615927</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3719,7 +3719,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3771,7 +3771,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[315, 183, 307, 376, 144, 120, 301]</t>
+          <t>[315, 183, 307, 376, 120, 144, 229]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3781,24 +3781,24 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[7.970109311195637, 8.81868443009245, 9.487989346232082, 9.697984492837733, 10.247235834939254, 10.367366168670268, 10.45758144176589]</t>
+          <t>[8.011272358787389, 8.778596812813909, 9.491227139749693, 9.741067805732461, 10.294747994208027, 10.300564420930648, 10.513540843996568]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[315, 183, 307, 376, 144, 120, 301]</t>
+          <t>[315, 183, 307, 376, 120, 144, 229]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[7.970109311195637, 8.81868443009245, 9.487989346232082, 9.697984492837733, 10.247235834939254, 10.367366168670268, 10.45758144176589]</t>
+          <t>[8.011272358787389, 8.778596812813909, 9.491227139749693, 9.741067805732461, 10.294747994208027, 10.300564420930648, 10.513540843996568]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>5</v>
       </c>
       <c r="V37" t="n">
-        <v>10.30730100180476</v>
+        <v>10.29765620756934</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3807,7 +3807,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[2.0595777589125084, 2.470121963689844, 2.4775467682463317, 2.631350314281238, 2.6543304586524754, 2.678523259022948, 2.6857784375510936]</t>
+          <t>[2.0338156690452918, 2.4257698021926983, 2.4745583632763717, 2.6171505465327924, 2.6270741538432563, 2.6372047158748737, 2.660701366213219]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -3879,14 +3879,14 @@
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[2.0595777589125084, 2.470121963689844, 2.4775467682463317, 2.631350314281238, 2.6543304586524754, 2.678523259022948, 2.6857784375510936]</t>
+          <t>[2.0338156690452918, 2.4257698021926983, 2.4745583632763717, 2.6171505465327924, 2.6270741538432563, 2.6372047158748737, 2.660701366213219]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>5</v>
       </c>
       <c r="V38" t="n">
-        <v>2.666426858837712</v>
+        <v>2.632139434859066</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3895,7 +3895,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[3.557625350738778, 3.953323110304135, 4.0635704075040175, 4.128655834989297, 4.542309567538028, 4.599781186996982, 4.900592874385804]</t>
+          <t>[3.515026945406233, 3.9287738301846247, 4.055989443506983, 4.108240615867811, 4.440177233186981, 4.575264711584817, 4.839053210948347]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -3967,14 +3967,14 @@
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[3.557625350738778, 3.953323110304135, 4.0635704075040175, 4.128655834989297, 4.542309567538028, 4.599781186996982, 4.900592874385804]</t>
+          <t>[3.515026945406233, 3.9287738301846247, 4.055989443506983, 4.108240615867811, 4.440177233186981, 4.575264711584817, 4.839053210948347]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>5</v>
       </c>
       <c r="V39" t="n">
-        <v>4.571045377267499</v>
+        <v>4.507720972385901</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3983,7 +3983,7 @@
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[275, 13, 380, 176, 406, 199, 322]</t>
+          <t>[275, 13, 380, 176, 406, 199, 293]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -4045,24 +4045,24 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[2.2094273298350102, 2.3320928130091376, 2.537235424836236, 2.655841435874285, 2.7334545145529843, 2.742764323292123, 2.9815078786136446]</t>
+          <t>[2.2069952976190614, 2.323640708805968, 2.5194611980910713, 2.6694610793709495, 2.7016859928836787, 2.7097322674722566, 2.988692480625419]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[275, 13, 380, 176, 406, 199, 322]</t>
+          <t>[275, 13, 380, 176, 406, 199, 293]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[2.2094273298350102, 2.3320928130091376, 2.537235424836236, 2.655841435874285, 2.7334545145529843, 2.742764323292123, 2.9815078786136446]</t>
+          <t>[2.2069952976190614, 2.323640708805968, 2.5194611980910713, 2.6694610793709495, 2.7016859928836787, 2.7097322674722566, 2.988692480625419]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>5</v>
       </c>
       <c r="V40" t="n">
-        <v>2.738109418922556</v>
+        <v>2.705709130177969</v>
       </c>
       <c r="W40" t="n">
         <v>2</v>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.5304734523670132, 1.7326034367217977, 1.7696529857839516, 1.8243839984433874, 2.1333189912695474, 2.1929483000623398, 2.2467338398103216]</t>
+          <t>[1.515099958923875, 1.685523825685292, 1.765605485790851, 1.813909582241616, 2.113171195573568, 2.1814430418409794, 2.242844272599654]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4147,14 +4147,14 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[1.7326034367217977, 1.7696529857839516, 1.8243839984433874, 2.1929483000623398, 2.2467338398103216, 2.5247819453677782, 2.7659329678437286]</t>
+          <t>[1.685523825685292, 1.765605485790851, 1.813909582241616, 2.1814430418409794, 2.242844272599654, 2.504231056771755, 2.738206845645612]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.163133645665944</v>
+        <v>2.147307118707273</v>
       </c>
       <c r="W41" t="n">
         <v>1</v>
@@ -4167,7 +4167,7 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.545536</t>
         </is>
       </c>
     </row>
@@ -4219,7 +4219,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[189, 414, 226, 293, 265, 326, 322]</t>
+          <t>[189, 414, 226, 293, 265, 326, 4]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4229,24 +4229,24 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[2.5568056453094883, 2.650895212047311, 2.708030206451099, 2.776643065373437, 2.7904440988146844, 2.822856787449748, 2.86350793245493]</t>
+          <t>[2.5555200986448656, 2.6486549077930084, 2.6801530113347503, 2.766486613240332, 2.807810501327566, 2.8473962851248915, 2.8586283015973093]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[189, 414, 226, 293, 265, 326, 322]</t>
+          <t>[189, 414, 226, 293, 265, 326, 4]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[2.5568056453094883, 2.650895212047311, 2.708030206451099, 2.776643065373437, 2.7904440988146844, 2.822856787449748, 2.86350793245493]</t>
+          <t>[2.5555200986448656, 2.6486549077930084, 2.6801530113347503, 2.766486613240332, 2.807810501327566, 2.8473962851248915, 2.8586283015973093]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>5</v>
       </c>
       <c r="V42" t="n">
-        <v>2.806650443132218</v>
+        <v>2.827603393226227</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -4255,7 +4255,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.302425281281973, 2.990966243904793, 3.187517687861069, 3.3633184169579966, 3.5171635572353814, 3.6372806064434196, 3.7976178297834875]</t>
+          <t>[2.2843410289769843, 2.918904223151804, 3.1481712976114307, 3.3091444898460995, 3.4503605395495582, 3.586893054362658, 3.7740646219926415]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
@@ -4327,14 +4327,14 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[2.302425281281973, 2.990966243904793, 3.187517687861069, 3.3633184169579966, 3.5171635572353814, 3.6372806064434196, 3.7976178297834875]</t>
+          <t>[2.2843410289769843, 2.918904223151804, 3.1481712976114307, 3.3091444898460995, 3.4503605395495582, 3.586893054362658, 3.7740646219926415]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>5</v>
       </c>
       <c r="V43" t="n">
-        <v>3.577222081839406</v>
+        <v>3.518626796956113</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4343,7 +4343,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[404, 371, 4, 22, 293, 145, 199]</t>
+          <t>[404, 371, 4, 22, 293, 199, 145]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4405,24 +4405,24 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[2.65203366063777, 2.7143663407083762, 3.1627196749111355, 3.4692065258819227, 3.5136777473506613, 3.7596520024579445, 3.7695678416911074]</t>
+          <t>[2.6399891560835282, 2.722052394237777, 3.157614919198768, 3.4599573881448165, 3.4952820216074834, 3.7874379982129374, 3.804431537829601]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[404, 371, 4, 22, 293, 145, 199]</t>
+          <t>[404, 371, 4, 22, 293, 199, 145]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[2.65203366063777, 2.7143663407083762, 3.1627196749111355, 3.4692065258819227, 3.5136777473506613, 3.7596520024579445, 3.7695678416911074]</t>
+          <t>[2.6399891560835282, 2.722052394237777, 3.157614919198768, 3.4599573881448165, 3.4952820216074834, 3.7874379982129374, 3.804431537829601]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>5</v>
       </c>
       <c r="V44" t="n">
-        <v>3.636664874904302</v>
+        <v>3.641360009910209</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4431,7 +4431,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[293, 189, 138, 191, 275, 252, 199]</t>
+          <t>[293, 189, 138, 191, 199, 275, 252]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
@@ -4493,24 +4493,24 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[2.4028131501002403, 2.5209786671406755, 2.591434277932599, 2.8788891473655625, 3.02952102376525, 3.0392130394776733, 3.048661854833155]</t>
+          <t>[2.4013176287517943, 2.508714545099015, 2.5640436343254946, 2.866897470631677, 2.9970795721826593, 3.0066329603914883, 3.056469081606872]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[293, 189, 138, 191, 275, 252, 199]</t>
+          <t>[293, 189, 138, 191, 199, 275, 252]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[2.4028131501002403, 2.5209786671406755, 2.591434277932599, 2.8788891473655625, 3.02952102376525, 3.0392130394776733, 3.048661854833155]</t>
+          <t>[2.4013176287517943, 2.508714545099015, 2.5640436343254946, 2.866897470631677, 2.9970795721826593, 3.0066329603914883, 3.056469081606872]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>3.034367031621462</v>
+        <v>3.001856266287075</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4519,7 +4519,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[404, 307, 408, 376, 348, 148, 421]</t>
+          <t>[404, 307, 376, 408, 421, 148, 315]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -4581,24 +4581,24 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[5.757658345298413, 5.917388560155394, 6.157750752850491, 6.20383756619893, 6.226209255186127, 6.24048780010369, 6.336004247476432]</t>
+          <t>[5.837270454612615, 6.001157000903432, 6.191113182270528, 6.2130955607153036, 6.2220725136897785, 6.2576646873408555, 6.302499379923842]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[404, 307, 408, 376, 348, 148, 421]</t>
+          <t>[404, 307, 376, 408, 421, 148, 315]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[5.757658345298413, 5.917388560155394, 6.157750752850491, 6.20383756619893, 6.226209255186127, 6.24048780010369, 6.336004247476432]</t>
+          <t>[5.837270454612615, 6.001157000903432, 6.191113182270528, 6.2130955607153036, 6.2220725136897785, 6.2576646873408555, 6.302499379923842]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>6.233348527644912</v>
+        <v>6.239868600515315</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4607,7 +4607,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[3.544186365191703, 3.6182333988812903, 3.6521486294168994, 3.653132795761692, 3.8795975463657135, 3.9882778582004503, 4.090109389101193]</t>
+          <t>[3.5385389239613123, 3.6062042276748167, 3.6504132659717365, 3.661373226310168, 3.8603272075837807, 3.989055185556743, 4.091483060085454]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4679,14 +4679,14 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[3.544186365191703, 3.6182333988812903, 3.6521486294168994, 3.653132795761692, 3.8795975463657135, 3.9882778582004503, 4.090109389101193]</t>
+          <t>[3.5385389239613123, 3.6062042276748167, 3.6504132659717365, 3.661373226310168, 3.8603272075837807, 3.989055185556743, 4.091483060085454]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>5</v>
       </c>
       <c r="V47" t="n">
-        <v>3.933937702283083</v>
+        <v>3.924691196570265</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4695,7 +4695,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[165, 193, 411, 234, 312, 75, 214]</t>
+          <t>[165, 193, 411, 234, 75, 312, 214]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -4757,24 +4757,24 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.1595772266062365, 3.2727112791564945, 3.6052228735613143, 3.6129668545650424, 3.8129497025792305, 3.81882229547761, 3.8752188429623033]</t>
+          <t>[3.090290254727743, 3.199539939657031, 3.509553958765516, 3.5788679779373354, 3.713671349863856, 3.7359639297331637, 3.777084872784164]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[165, 193, 411, 234, 312, 75, 214]</t>
+          <t>[165, 193, 411, 234, 75, 312, 214]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[3.1595772266062365, 3.2727112791564945, 3.6052228735613143, 3.6129668545650424, 3.8129497025792305, 3.81882229547761, 3.8752188429623033]</t>
+          <t>[3.090290254727743, 3.199539939657031, 3.509553958765516, 3.5788679779373354, 3.713671349863856, 3.7359639297331637, 3.777084872784164]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>5</v>
       </c>
       <c r="V48" t="n">
-        <v>3.815885999028422</v>
+        <v>3.724817639798509</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4783,7 +4783,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[0.9723422043635904, 1.2607969710081375, 1.5646070997228427, 1.620011225986818, 1.7640822807158227, 1.779903505008677, 1.868570134970659]</t>
+          <t>[0.9633061518468646, 1.237737421459724, 1.5443745135301405, 1.616445907005438, 1.724459274604321, 1.7390410137413674, 1.8538456792352458]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -4855,14 +4855,14 @@
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[0.9723422043635904, 1.2607969710081375, 1.5646070997228427, 1.620011225986818, 1.7640822807158227, 1.779903505008677, 1.868570134970659]</t>
+          <t>[0.9633061518468646, 1.237737421459724, 1.5443745135301405, 1.616445907005438, 1.724459274604321, 1.7390410137413674, 1.8538456792352458]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>5</v>
       </c>
       <c r="V49" t="n">
-        <v>1.77199289286225</v>
+        <v>1.731750144172845</v>
       </c>
       <c r="W49" t="n">
         <v>1</v>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[2.479149506762133, 2.5085145459805758, 2.6386773956753715, 2.6800631567211832, 2.732163483037294, 2.7385976399836127, 2.8973858242739063]</t>
+          <t>[2.439038424686089, 2.5209351401918454, 2.6310863304021668, 2.642987233185497, 2.711470871316716, 2.7226715268870163, 2.870031649334815]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -4947,14 +4947,14 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[2.479149506762133, 2.5085145459805758, 2.6386773956753715, 2.6800631567211832, 2.732163483037294, 2.7385976399836127, 2.8973858242739063]</t>
+          <t>[2.439038424686089, 2.5209351401918454, 2.6310863304021668, 2.642987233185497, 2.711470871316716, 2.7226715268870163, 2.870031649334815]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>5</v>
       </c>
       <c r="V50" t="n">
-        <v>2.735380561510453</v>
+        <v>2.717071199101866</v>
       </c>
       <c r="W50" t="n">
         <v>2</v>
@@ -4967,7 +4967,7 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[293, 189, 454, 252, 289, 380, 4]</t>
+          <t>[293, 189, 454, 289, 252, 380, 4]</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -5029,24 +5029,24 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[2.9099893113647575, 2.93117050849652, 3.050337348856697, 3.1149148950095684, 3.1474172171963164, 3.1643454012673558, 3.2007210431227326]</t>
+          <t>[2.901255610235111, 2.938528696536184, 3.0508355675429852, 3.1138232146219345, 3.1235132539873502, 3.1444280903239017, 3.1935444617518596]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[293, 189, 454, 252, 289, 380, 4]</t>
+          <t>[293, 189, 454, 289, 252, 380, 4]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[2.9099893113647575, 2.93117050849652, 3.050337348856697, 3.1149148950095684, 3.1474172171963164, 3.1643454012673558, 3.2007210431227326]</t>
+          <t>[2.901255610235111, 2.938528696536184, 3.0508355675429852, 3.1138232146219345, 3.1235132539873502, 3.1444280903239017, 3.1935444617518596]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>5</v>
       </c>
       <c r="V51" t="n">
-        <v>3.155881309231837</v>
+        <v>3.133970672155628</v>
       </c>
       <c r="W51" t="n">
         <v>1</v>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[283, 248, 229, 29, 110, 275, 384]</t>
+          <t>[283, 248, 29, 229, 110, 275, 384]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
@@ -5121,24 +5121,24 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[2.2370031045327274, 2.714629248729754, 2.8383687174451606, 2.8945152247338095, 2.990966243904793, 3.381989300986346, 3.4359566733252294]</t>
+          <t>[2.1899646328330844, 2.6890733096174606, 2.836378175587199, 2.857339317369182, 2.918904223151804, 3.338639663993809, 3.421356319018333]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[283, 248, 229, 29, 110, 275, 384]</t>
+          <t>[283, 248, 29, 229, 110, 275, 384]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[2.2370031045327274, 2.714629248729754, 2.8383687174451606, 2.8945152247338095, 2.990966243904793, 3.381989300986346, 3.4359566733252294]</t>
+          <t>[2.1899646328330844, 2.6890733096174606, 2.836378175587199, 2.857339317369182, 2.918904223151804, 3.338639663993809, 3.421356319018333]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>5</v>
       </c>
       <c r="V52" t="n">
-        <v>3.186477772445565</v>
+        <v>3.128771943572805</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5147,7 +5147,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5199,7 +5199,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[293, 189, 199, 380, 326, 191, 119]</t>
+          <t>[293, 189, 199, 380, 191, 326, 119]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5209,24 +5209,24 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[1.733671930953707, 1.7633388427474124, 2.2249644898262013, 2.297824304566893, 2.472335780477156, 2.4951924932449288, 2.591434277932599]</t>
+          <t>[1.7389561753118656, 1.7618813126877897, 2.2144084200226977, 2.249330457200027, 2.464025525406949, 2.4821414350697744, 2.5640436343254946]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[293, 189, 199, 380, 326, 191, 119]</t>
+          <t>[293, 189, 199, 380, 191, 326, 119]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[1.733671930953707, 1.7633388427474124, 2.2249644898262013, 2.297824304566893, 2.472335780477156, 2.4951924932449288, 2.591434277932599]</t>
+          <t>[1.7389561753118656, 1.7618813126877897, 2.2144084200226977, 2.249330457200027, 2.464025525406949, 2.4821414350697744, 2.5640436343254946]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>5</v>
       </c>
       <c r="V53" t="n">
-        <v>2.483764136861041</v>
+        <v>2.473083480238361</v>
       </c>
       <c r="W53" t="n">
         <v>1</v>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5291,34 +5291,34 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[389, 151, 251, 390, 133, 180, 355]</t>
+          <t>[389, 151, 251, 133, 390, 180, 355]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 1, 0, 1, 0]</t>
+          <t>[0, 1, 1, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[3.1205132503739983, 3.2025442857419937, 3.281794160273833, 3.447450265981621, 3.459791388381473, 3.489422116257107, 3.5547583089550594]</t>
+          <t>[3.0764096927485456, 3.1824348085443255, 3.254767387885641, 3.375833787202108, 3.4062290263947177, 3.430726110528485, 3.4874055265036037]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[151, 251, 390, 180, 85, 0, 292]</t>
+          <t>[151, 251, 390, 180, 292, 85, 0]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[3.2025442857419937, 3.281794160273833, 3.447450265981621, 3.489422116257107, 3.576768077081443, 3.60499076979355, 3.6430780548113435]</t>
+          <t>[3.1824348085443255, 3.254767387885641, 3.4062290263947177, 3.430726110528485, 3.5612172140862866, 3.590749176994458, 3.6045192166431455]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>5</v>
       </c>
       <c r="V54" t="n">
-        <v>3.47460675231929</v>
+        <v>3.418477568461602</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5327,7 +5327,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5389,24 +5389,24 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[1.6898822880556004, 1.9750377981712108, 2.0150947264693073, 2.052523101297462, 2.1357832535793735, 2.302217753454202, 2.3605060236981217]</t>
+          <t>[1.6474742962421363, 1.930188333191758, 1.9618688324714997, 2.006732056521176, 2.115753575721158, 2.3151418898663256, 2.3463003506377937]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[281, 26, 56, 234, 444, 411, 310]</t>
+          <t>[281, 26, 56, 234, 444, 411, 257]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[1.6898822880556004, 1.9750377981712108, 2.0150947264693073, 2.052523101297462, 2.302217753454202, 2.3605060236981217, 2.4299517342027843]</t>
+          <t>[1.6474742962421363, 1.930188333191758, 1.9618688324714997, 2.006732056521176, 2.3151418898663256, 2.3463003506377937, 2.371130483814093]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>5</v>
       </c>
       <c r="V55" t="n">
-        <v>2.219000503516788</v>
+        <v>2.215447732793741</v>
       </c>
       <c r="W55" t="n">
         <v>1</v>
@@ -5419,7 +5419,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[4.123515360330789, 4.369293842116486, 5.191504297962849, 5.210524611411814, 5.274304440602663, 5.582945365172096, 5.905683272003211]</t>
+          <t>[4.080187646384942, 4.374676937501428, 5.193001137015148, 5.230841078676721, 5.273119783009189, 5.569545551331011, 5.909568062015627]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -5491,14 +5491,14 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[4.123515360330789, 4.369293842116486, 5.191504297962849, 5.210524611411814, 5.274304440602663, 5.582945365172096, 5.905683272003211]</t>
+          <t>[4.080187646384942, 4.374676937501428, 5.193001137015148, 5.230841078676721, 5.273119783009189, 5.569545551331011, 5.909568062015627]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>5</v>
       </c>
       <c r="V56" t="n">
-        <v>5.428624902887382</v>
+        <v>5.421332667170107</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5507,7 +5507,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5524,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
         <v>7</v>
@@ -5545,7 +5545,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L57" t="n">
         <v>0</v>
@@ -5555,7 +5555,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[2.851233450292801, 3.2162637666317098, 3.238167577573275, 3.263161739345972, 3.441665071254224, 3.508809668471002, 3.591095021241461]</t>
+          <t>[2.793744949723425, 3.227932584671303, 3.252377457783913, 3.264859787072586, 3.470181573358165, 3.5071306765634196, 3.607485287675402]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -5579,27 +5579,23 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[2.851233450292801, 3.2162637666317098, 3.238167577573275, 3.263161739345972, 3.441665071254224, 3.508809668471002, 3.591095021241461]</t>
+          <t>[2.793744949723425, 3.227932584671303, 3.252377457783913, 3.264859787072586, 3.470181573358165, 3.5071306765634196, 3.607485287675402]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>5</v>
       </c>
       <c r="V57" t="n">
-        <v>3.475237369862612</v>
+        <v>3.488656124960793</v>
       </c>
       <c r="W57" t="n">
-        <v>2</v>
-      </c>
-      <c r="X57" t="n">
-        <v>0.516137324287291</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5657,7 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[3.672234457200769, 3.7865539297361814, 4.138528209729705, 4.224744658126401, 4.236248202240845, 4.301663254529924, 4.470861524139071]</t>
+          <t>[3.696224860848932, 3.8188713410954698, 4.168530305981262, 4.221793080125736, 4.2240023249533305, 4.323738301235328, 4.5612929961650375]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
@@ -5671,14 +5667,14 @@
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[3.672234457200769, 3.7865539297361814, 4.138528209729705, 4.224744658126401, 4.470861524139071, 4.495384139816737, 4.571145150719306]</t>
+          <t>[3.696224860848932, 3.8188713410954698, 4.168530305981262, 4.221793080125736, 4.5612929961650375, 4.571178598278884, 4.658435881881565]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>5</v>
       </c>
       <c r="V58" t="n">
-        <v>4.268955728385384</v>
+        <v>4.273870313094329</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -5687,7 +5683,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5749,7 +5745,7 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[6.24048780010369, 6.675513777741164, 6.719747670341445, 7.191004795030073, 7.470976779865416, 7.865763064136227, 8.132212886219241]</t>
+          <t>[6.2576646873408555, 6.700834842917232, 6.782664721176714, 7.21938304956131, 7.473069514835227, 7.895198807436658, 8.212507198795977]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
@@ -5759,14 +5755,14 @@
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[6.24048780010369, 6.675513777741164, 6.719747670341445, 7.191004795030073, 7.470976779865416, 7.865763064136227, 8.132212886219241]</t>
+          <t>[6.2576646873408555, 6.700834842917232, 6.782664721176714, 7.21938304956131, 7.473069514835227, 7.895198807436658, 8.212507198795977]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>5</v>
       </c>
       <c r="V59" t="n">
-        <v>7.668369922000824</v>
+        <v>7.684134161135942</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5775,7 +5771,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5827,7 +5823,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[354, 43, 54, 52, 127, 399, 346]</t>
+          <t>[354, 54, 43, 52, 127, 399, 346]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5837,33 +5833,37 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[1.8215270132982444, 2.2478567989907954, 2.2653300216954055, 2.268066870539045, 2.40191028476437, 2.4184272741879567, 2.538730634914809]</t>
+          <t>[1.8281652078425155, 2.216078288743794, 2.227797501717776, 2.2477196115159104, 2.370804233549151, 2.376345491328125, 2.487376967719695]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>[354, 43, 54, 52, 127, 346, 85]</t>
+          <t>[354, 54, 43, 52, 127, 346, 85]</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[1.8215270132982444, 2.2478567989907954, 2.2653300216954055, 2.268066870539045, 2.40191028476437, 2.538730634914809, 2.550595263708687]</t>
+          <t>[1.8281652078425155, 2.216078288743794, 2.227797501717776, 2.2477196115159104, 2.370804233549151, 2.487376967719695, 2.4941190635670174]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>5</v>
       </c>
       <c r="V60" t="n">
-        <v>2.410168779476165</v>
+        <v>2.373574862438637</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
-      </c>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.516137324287291</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>52</v>
+      </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -5915,7 +5915,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[318, 410, 286, 9, 256, 191, 299]</t>
+          <t>[318, 410, 286, 9, 191, 256, 299]</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5925,37 +5925,33 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[2.0831757314155177, 2.5710118433475033, 2.6954669098244164, 2.7093103953730244, 2.879480293581504, 2.8990714634103596, 2.9231745403137843]</t>
+          <t>[2.0427206889471012, 2.576473435986309, 2.662741338393658, 2.7111537317423613, 2.8110226445054414, 2.81583827202403, 2.8621767243178557]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[318, 410, 286, 9, 256, 191, 299]</t>
+          <t>[318, 410, 286, 9, 191, 256, 299]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[2.0831757314155177, 2.5710118433475033, 2.6954669098244164, 2.7093103953730244, 2.879480293581504, 2.8990714634103596, 2.9231745403137843]</t>
+          <t>[2.0427206889471012, 2.576473435986309, 2.662741338393658, 2.7111537317423613, 2.8110226445054414, 2.81583827202403, 2.8621767243178557]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>5</v>
       </c>
       <c r="V61" t="n">
-        <v>2.889275878495932</v>
+        <v>2.813430458264738</v>
       </c>
       <c r="W61" t="n">
-        <v>2</v>
-      </c>
-      <c r="X61" t="n">
-        <v>0.5675420211814656</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>410</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6007,7 +6003,7 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[333, 367, 141, 187, 138, 293, 318]</t>
+          <t>[333, 367, 187, 141, 138, 293, 318]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -6017,24 +6013,24 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[4.509987513165588, 4.550172591993667, 4.748473089722549, 4.846841521404285, 4.955189689749624, 5.116418228453058, 5.18207642491881]</t>
+          <t>[4.524587744584182, 4.591574661999808, 4.850814771349192, 4.856156715654671, 4.993336896160189, 5.142199665371047, 5.282523685382891]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[333, 367, 141, 187, 138, 293, 318]</t>
+          <t>[333, 367, 187, 141, 138, 293, 318]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[4.509987513165588, 4.550172591993667, 4.748473089722549, 4.846841521404285, 4.955189689749624, 5.116418228453058, 5.18207642491881]</t>
+          <t>[4.524587744584182, 4.591574661999808, 4.850814771349192, 4.856156715654671, 4.993336896160189, 5.142199665371047, 5.282523685382891]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>5</v>
       </c>
       <c r="V62" t="n">
-        <v>5.035803959101341</v>
+        <v>5.067768280765618</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -6043,7 +6039,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6101,7 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[1.848501882688808, 2.1038794714695626, 2.5287668016574374, 2.6225946539615212, 2.7178058803242955, 2.8678892124940263, 3.026471892532133]</t>
+          <t>[1.8172647416676604, 2.1002014391772463, 2.4480523609308515, 2.60574986988603, 2.6990648257876955, 2.7754335014505402, 2.981581612042089]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
@@ -6115,27 +6111,27 @@
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[1.848501882688808, 2.1038794714695626, 2.5287668016574374, 2.6225946539615212, 2.7178058803242955, 2.8678892124940263, 3.026471892532133]</t>
+          <t>[1.8172647416676604, 2.1002014391772463, 2.4480523609308515, 2.60574986988603, 2.6990648257876955, 2.7754335014505402, 2.981581612042089]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>2.792847546409162</v>
+        <v>2.737249163619119</v>
       </c>
       <c r="W63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X63" t="n">
-        <v>0.5726206851751187</v>
+        <v>0.5675420211814656</v>
       </c>
       <c r="Y63" t="n">
-        <v>75</v>
+        <v>435</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6173,7 +6169,7 @@
         <v>0</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -6197,7 +6193,7 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[3.6372806064434196, 3.765599343026889, 3.8574845453329, 3.900659965203231, 3.981282068625797, 4.224268651439499, 4.239844137976773]</t>
+          <t>[3.586893054362658, 3.75922028358123, 3.8558823365699944, 3.8596428133407836, 3.972282332393845, 4.159771680593149, 4.2134851291992454]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
@@ -6207,14 +6203,14 @@
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[3.6372806064434196, 3.765599343026889, 3.8574845453329, 3.900659965203231, 3.981282068625797, 4.224268651439499, 4.239844137976773]</t>
+          <t>[3.586893054362658, 3.75922028358123, 3.8558823365699944, 3.8596428133407836, 3.972282332393845, 4.159771680593149, 4.2134851291992454]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>5</v>
       </c>
       <c r="V64" t="n">
-        <v>4.102775360032648</v>
+        <v>4.066027006493496</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
@@ -6223,7 +6219,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6271,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[106, 384, 226, 199, 275, 406, 289]</t>
+          <t>[384, 106, 226, 199, 275, 406, 289]</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -6285,33 +6281,37 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[2.655841435874285, 2.686581827781382, 2.726715044820693, 2.8169059180302005, 2.8998937375458516, 2.941481464447787, 3.072711719265034]</t>
+          <t>[2.6672681954688615, 2.6694610793709495, 2.6754722777728412, 2.76589946624518, 2.883096477382847, 2.9221818580572028, 3.0379035425028422]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>[106, 384, 226, 199, 275, 406, 289]</t>
+          <t>[384, 106, 226, 199, 275, 406, 289]</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[2.655841435874285, 2.686581827781382, 2.726715044820693, 2.8169059180302005, 2.8998937375458516, 2.941481464447787, 3.072711719265034]</t>
+          <t>[2.6672681954688615, 2.6694610793709495, 2.6754722777728412, 2.76589946624518, 2.883096477382847, 2.9221818580572028, 3.0379035425028422]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>5</v>
       </c>
       <c r="V65" t="n">
-        <v>2.920687600996823</v>
+        <v>2.902639167720028</v>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
-      </c>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.5726206851751187</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>199</v>
+      </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[2.297944482234128, 2.362101002328255, 2.708438413465225, 2.842180739734866, 2.8683422571479165, 2.9277163346249964, 2.990821199496471]</t>
+          <t>[2.2940865306424123, 2.329938598520939, 2.6351228608739774, 2.7998173678586866, 2.814737459792641, 2.9243470899074913, 2.9408679639581368]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
@@ -6383,14 +6383,14 @@
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[2.297944482234128, 2.362101002328255, 2.708438413465225, 2.842180739734866, 2.8683422571479165, 2.9277163346249964, 2.990821199496471]</t>
+          <t>[2.2940865306424123, 2.329938598520939, 2.6351228608739774, 2.7998173678586866, 2.814737459792641, 2.9243470899074913, 2.9408679639581368]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>5</v>
       </c>
       <c r="V66" t="n">
-        <v>2.898029295886458</v>
+        <v>2.869542274850065</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -6399,7 +6399,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[127, 68, 326, 33, 380, 52, 256]</t>
+          <t>[127, 326, 68, 33, 52, 380, 256]</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -6461,37 +6461,33 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[1.7640822807158227, 1.8978892818894413, 1.9193498143097234, 1.9243839234839204, 2.1771783094021733, 2.2039298934225657, 2.2555193710553483]</t>
+          <t>[1.724459274604321, 1.872530151176036, 1.8747551665825926, 1.913658698925176, 2.148877355472633, 2.1693228305512124, 2.2277671529487213]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>[127, 68, 326, 33, 380, 52, 256]</t>
+          <t>[127, 326, 68, 33, 52, 380, 256]</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[1.7640822807158227, 1.8978892818894413, 1.9193498143097234, 1.9243839234839204, 2.1771783094021733, 2.2039298934225657, 2.2555193710553483]</t>
+          <t>[1.724459274604321, 1.872530151176036, 1.8747551665825926, 1.913658698925176, 2.148877355472633, 2.1693228305512124, 2.2277671529487213]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>5</v>
       </c>
       <c r="V67" t="n">
-        <v>2.190554101412372</v>
+        <v>2.159100093011925</v>
       </c>
       <c r="W67" t="n">
-        <v>2</v>
-      </c>
-      <c r="X67" t="n">
-        <v>0.4939889027981886</v>
-      </c>
-      <c r="Y67" t="n">
-        <v>33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6549,7 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[1.667438754636939, 2.011816264460342, 2.021396855848305, 2.0540449274113177, 2.0559053164395307, 2.0767452077186963, 2.1392595526772102]</t>
+          <t>[1.659748939575825, 2.0026348821941675, 2.027727150355256, 2.0399433857260436, 2.055190813939131, 2.0709106013083574, 2.096673469188333]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
@@ -6563,27 +6559,27 @@
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[1.667438754636939, 2.011816264460342, 2.021396855848305, 2.0540449274113177, 2.0559053164395307, 2.0767452077186963, 2.2383979899536257]</t>
+          <t>[1.659748939575825, 2.0026348821941675, 2.027727150355256, 2.0399433857260436, 2.055190813939131, 2.0709106013083574, 2.2149840943589574]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>5</v>
       </c>
       <c r="V68" t="n">
-        <v>2.066325262079114</v>
+        <v>2.063050707623743</v>
       </c>
       <c r="W68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X68" t="n">
-        <v>0.4031272813482388</v>
+        <v>0.4939889027981886</v>
       </c>
       <c r="Y68" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6641,7 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[4.64529155327363, 5.3376029133679905, 5.4228673569539145, 6.042963287189543, 6.07200929109563, 6.25442258365654, 6.327003018173193]</t>
+          <t>[4.593589562150623, 5.32410327203428, 5.456267355638028, 6.055178702632744, 6.064526873477462, 6.139945778005903, 6.264719098802813]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
@@ -6655,14 +6651,14 @@
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[4.64529155327363, 5.3376029133679905, 5.4228673569539145, 6.042963287189543, 6.07200929109563, 6.25442258365654, 6.327003018173193]</t>
+          <t>[4.593589562150623, 5.32410327203428, 5.456267355638028, 6.055178702632744, 6.064526873477462, 6.139945778005903, 6.264719098802813]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>5</v>
       </c>
       <c r="V69" t="n">
-        <v>6.163215937376087</v>
+        <v>6.102236325741683</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6671,7 +6667,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6723,7 +6719,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[257, 290, 40, 265, 7, 75, 180]</t>
+          <t>[257, 290, 40, 265, 7, 75, 26]</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -6733,37 +6729,37 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[2.1885430398920276, 2.3848623492776775, 2.398000683869676, 2.5540557116311433, 2.6468644415375087, 2.7538642632604504, 2.779244195890426]</t>
+          <t>[2.176353112960088, 2.35067345472234, 2.3973995622991464, 2.5558539449139475, 2.615651068202276, 2.7376300038100236, 2.7453637853694217]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>[257, 290, 40, 265, 7, 75, 180]</t>
+          <t>[257, 290, 40, 265, 7, 75, 26]</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[2.1885430398920276, 2.3848623492776775, 2.398000683869676, 2.5540557116311433, 2.6468644415375087, 2.7538642632604504, 2.779244195890426]</t>
+          <t>[2.176353112960088, 2.35067345472234, 2.3973995622991464, 2.5558539449139475, 2.615651068202276, 2.7376300038100236, 2.7453637853694217]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>5</v>
       </c>
       <c r="V70" t="n">
-        <v>2.70036435239898</v>
+        <v>2.67664053600615</v>
       </c>
       <c r="W70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>0.5230014453398339</v>
+        <v>0.4031272813482388</v>
       </c>
       <c r="Y70" t="n">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6821,7 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[2.64998551824568, 3.2578403280734483, 3.458072326181131, 3.505426920957152, 3.5255560992314194, 3.7722298512977233, 3.778952557607264]</t>
+          <t>[2.6719237370249393, 3.294444129248115, 3.4612494521222574, 3.515843147432157, 3.5252505527520883, 3.8002235938708893, 3.803008803414392]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
@@ -6835,14 +6831,14 @@
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[2.64998551824568, 3.2578403280734483, 3.458072326181131, 3.505426920957152, 3.5255560992314194, 3.7722298512977233, 3.778952557607264]</t>
+          <t>[2.6719237370249393, 3.294444129248115, 3.4612494521222574, 3.515843147432157, 3.5252505527520883, 3.8002235938708893, 3.803008803414392]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>5</v>
       </c>
       <c r="V71" t="n">
-        <v>3.648892975264573</v>
+        <v>3.662737073311489</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6851,7 +6847,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6909,7 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[1.7633388427474124, 1.8058755617023643, 1.8846991176131964, 2.201209881772181, 2.3041974816697364, 2.3374854797465576, 2.409556481926439]</t>
+          <t>[1.7618813126877897, 1.811887476268225, 1.8911879213919967, 2.1524557272719527, 2.302552713555384, 2.3316603325152525, 2.364383479771745]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
@@ -6923,23 +6919,27 @@
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[1.7633388427474124, 1.8058755617023643, 1.8846991176131964, 2.201209881772181, 2.3041974816697364, 2.3374854797465576, 2.409556481926439]</t>
+          <t>[1.7618813126877897, 1.811887476268225, 1.8911879213919967, 2.1524557272719527, 2.302552713555384, 2.3316603325152525, 2.364383479771745]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>5</v>
       </c>
       <c r="V72" t="n">
-        <v>2.320841480708145</v>
+        <v>2.317106523035317</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
-      </c>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.5230014453398339</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>252</v>
+      </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[1.6305188189698676, 1.8105677369042057, 2.201209881772181, 2.335949785633183, 2.3781890140446564, 2.391558614617985, 2.4512123943601756]</t>
+          <t>[1.5984589744955302, 1.809561279163081, 2.1524557272719527, 2.2907905195005527, 2.3408802630598715, 2.410044320298522, 2.4142299410007286]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
@@ -7011,27 +7011,23 @@
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[1.6305188189698676, 1.8105677369042057, 2.201209881772181, 2.335949785633183, 2.3781890140446564, 2.391558614617985, 2.4512123943601756]</t>
+          <t>[1.5984589744955302, 1.809561279163081, 2.1524557272719527, 2.2907905195005527, 2.3408802630598715, 2.410044320298522, 2.4142299410007286]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>5</v>
       </c>
       <c r="V73" t="n">
-        <v>2.38487381433132</v>
+        <v>2.375462291679196</v>
       </c>
       <c r="W73" t="n">
-        <v>3</v>
-      </c>
-      <c r="X73" t="n">
-        <v>0.4593020287295597</v>
-      </c>
-      <c r="Y73" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.547080</t>
         </is>
       </c>
     </row>
@@ -7083,7 +7079,7 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[214, 444, 373, 281, 411, 234, 165]</t>
+          <t>[214, 444, 281, 373, 165, 56, 411]</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
@@ -7093,33 +7089,37 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[2.2887559902688452, 2.595817578542097, 2.9988621017379917, 3.0009786682743798, 3.190969960489973, 3.1979441839106584, 3.198419692660981]</t>
+          <t>[2.2891268327820202, 2.6138478603052184, 3.0154056224282, 3.0199618823625616, 3.1746815948590457, 3.1920716625023946, 3.19484854848462]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>[214, 444, 373, 281, 411, 234, 165]</t>
+          <t>[214, 444, 281, 373, 165, 56, 411]</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[2.2887559902688452, 2.595817578542097, 2.9988621017379917, 3.0009786682743798, 3.190969960489973, 3.1979441839106584, 3.198419692660981]</t>
+          <t>[2.2891268327820202, 2.6138478603052184, 3.0154056224282, 3.0199618823625616, 3.1746815948590457, 3.1920716625023946, 3.19484854848462]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>5</v>
       </c>
       <c r="V74" t="n">
-        <v>3.194457072200315</v>
+        <v>3.183376628680719</v>
       </c>
       <c r="W74" t="n">
-        <v>0</v>
-      </c>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.4593020287295597</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>165</v>
+      </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7181,24 +7181,24 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[1.94894441084046, 2.207628009330976, 2.4392505190535805, 2.6695728119355415, 2.7952015677095123, 2.9027621672875488, 2.9199265236902265]</t>
+          <t>[1.94599568450612, 2.1744554625362147, 2.43591898373703, 2.651281227624812, 2.7798814734389343, 2.923008913485876, 2.9282729266323755]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[8, 53, 369, 58, 191, 318, 340]</t>
+          <t>[8, 53, 58, 369, 191, 318, 340]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[3.351953196909188, 3.4114613158123723, 3.8202431665534426, 3.8468812773425682, 4.045549289951511, 4.194333653677479, 4.234346776903134]</t>
+          <t>[3.2989341957124383, 3.3770781903189473, 3.7692216245763257, 3.783116895960408, 3.9745751528519526, 4.113594524561335, 4.13907583702887]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>5</v>
       </c>
       <c r="V75" t="n">
-        <v>2.848981867498531</v>
+        <v>2.851445193462405</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7207,7 +7207,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[1.9892639749561756, 2.2754410896700126, 2.3029620199431746, 2.399215773544278, 2.4110682366137, 2.5052680863846226, 2.65741255017287]</t>
+          <t>[1.987154902150917, 2.2253073314998137, 2.2565125717679617, 2.3573552359580523, 2.3718149819557155, 2.4389583785655646, 2.6201034468807407]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -7279,27 +7279,23 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[1.9892639749561756, 2.2754410896700126, 2.3029620199431746, 2.399215773544278, 2.4110682366137, 2.5052680863846226, 2.65741255017287]</t>
+          <t>[1.987154902150917, 2.2253073314998137, 2.2565125717679617, 2.3573552359580523, 2.3718149819557155, 2.4389583785655646, 2.6201034468807407]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>5</v>
       </c>
       <c r="V76" t="n">
-        <v>2.45816816149916</v>
+        <v>2.405386680260641</v>
       </c>
       <c r="W76" t="n">
-        <v>1</v>
-      </c>
-      <c r="X76" t="n">
-        <v>0.4515883255430311</v>
-      </c>
-      <c r="Y76" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7361,7 +7357,7 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[2.2249644898262013, 2.3304923918584852, 2.3938394490454384, 2.64998551824568, 2.690440387320325, 2.742764323292123, 2.8169059180302005]</t>
+          <t>[2.2144084200226977, 2.2896602021612398, 2.3609421032636444, 2.6719237370249393, 2.6806324169355524, 2.7097322674722566, 2.76589946624518]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
@@ -7371,27 +7367,27 @@
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[2.2249644898262013, 2.3304923918584852, 2.3938394490454384, 2.64998551824568, 2.690440387320325, 2.742764323292123, 2.8169059180302005]</t>
+          <t>[2.2144084200226977, 2.2896602021612398, 2.3609421032636444, 2.6719237370249393, 2.6806324169355524, 2.7097322674722566, 2.76589946624518]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>5</v>
       </c>
       <c r="V77" t="n">
-        <v>2.716602355306223</v>
+        <v>2.695182342203906</v>
       </c>
       <c r="W77" t="n">
         <v>1</v>
       </c>
       <c r="X77" t="n">
-        <v>0.4900998503939086</v>
+        <v>0.4515883255430311</v>
       </c>
       <c r="Y77" t="n">
-        <v>275</v>
+        <v>406</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7443,7 +7439,7 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[178, 380, 199, 28, 179, 275, 196]</t>
+          <t>[178, 380, 199, 179, 28, 275, 196]</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -7453,33 +7449,37 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[2.9277163346249964, 3.076676218643169, 3.1007010945114835, 3.121095035419461, 3.1438499725356523, 3.2208719140920397, 3.228176444152888]</t>
+          <t>[2.9243470899074913, 2.9688617213525794, 3.056284708088605, 3.0651490166158886, 3.074065098764063, 3.1477427356775736, 3.1994036099435372]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>[178, 380, 199, 28, 179, 275, 196]</t>
+          <t>[178, 380, 199, 179, 28, 275, 196]</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[2.9277163346249964, 3.076676218643169, 3.1007010945114835, 3.121095035419461, 3.1438499725356523, 3.2208719140920397, 3.228176444152888]</t>
+          <t>[2.9243470899074913, 2.9688617213525794, 3.056284708088605, 3.0651490166158886, 3.074065098764063, 3.1477427356775736, 3.1994036099435372]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>5</v>
       </c>
       <c r="V78" t="n">
-        <v>3.182360943313842</v>
+        <v>3.110903917220823</v>
       </c>
       <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.4900998503939086</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>28</v>
+      </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.288340</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7531,7 +7531,7 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[72, 261, 75, 338, 406, 184, 179]</t>
+          <t>[72, 261, 75, 338, 406, 184, 429]</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -7541,37 +7541,33 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[2.597533854023624, 2.849939783969677, 2.935082468018792, 3.054758097183179, 3.0676483826870364, 3.20289642690665, 3.214554689167544]</t>
+          <t>[2.5933775359630986, 2.8296096370593338, 2.858809287497672, 3.037854788478617, 3.092969008061628, 3.172174807985624, 3.2101247116759475]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[72, 261, 75, 338, 406, 184, 179]</t>
+          <t>[72, 261, 75, 338, 406, 184, 429]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[2.597533854023624, 2.849939783969677, 2.935082468018792, 3.054758097183179, 3.0676483826870364, 3.20289642690665, 3.214554689167544]</t>
+          <t>[2.5933775359630986, 2.8296096370593338, 2.858809287497672, 3.037854788478617, 3.092969008061628, 3.172174807985624, 3.2101247116759475]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>5</v>
       </c>
       <c r="V79" t="n">
-        <v>3.135272404796843</v>
+        <v>3.132571908023625</v>
       </c>
       <c r="W79" t="n">
-        <v>1</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0.4895566329146183</v>
-      </c>
-      <c r="Y79" t="n">
-        <v>338</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.298680</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7606,13 +7602,13 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
       <c r="L80" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.5916727785823274</v>
       </c>
       <c r="M80" t="inlineStr"/>
       <c r="N80" t="b">
@@ -7623,34 +7619,34 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[126, 219, 46, 171, 269, 147, 4]</t>
+          <t>[126, 219, 46, 171, 269, 430, 147]</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[8.680874651133257, 8.889385679565505, 9.337006666018029, 9.485366112561996, 9.837832049551201, 9.936896006657975, 9.949964504647543]</t>
+          <t>[8.726669830868763, 8.981642840634224, 9.320944161688937, 9.504306472493013, 9.908739050333487, 9.958108925206318, 10.030110794344973]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>[219, 4, 10, 377, 373, 223, 109]</t>
+          <t>[219, 4, 10, 377, 373, 223, 387]</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>[8.889385679565505, 9.949964504647543, 10.050608779263456, 10.204584147800405, 10.352875643567065, 10.358444240462848, 10.361761281440256]</t>
+          <t>[8.981642840634224, 10.08067376951322, 10.17296340325933, 10.325890111530274, 10.423462006134182, 10.496372461605757, 10.50725897348455]</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>5</v>
       </c>
       <c r="V80" t="n">
-        <v>9.887364028104589</v>
+        <v>9.933423987769903</v>
       </c>
       <c r="W80" t="n">
         <v>0</v>
@@ -7659,7 +7655,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.298680</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7721,7 +7717,7 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[1.6718731394141257, 2.032544988713641, 2.102429252028176, 2.275039474373751, 2.3396336597806853, 2.357506022902266, 2.444286498290176]</t>
+          <t>[1.6584586195299866, 2.0166640556907165, 2.0701462533509787, 2.266472525848531, 2.3189675364359386, 2.3647403578597617, 2.384873956549452]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
@@ -7731,27 +7727,27 @@
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[1.6718731394141257, 2.032544988713641, 2.102429252028176, 2.275039474373751, 2.3396336597806853, 2.357506022902266, 2.444286498290176]</t>
+          <t>[1.6584586195299866, 2.0166640556907165, 2.0701462533509787, 2.266472525848531, 2.3189675364359386, 2.3647403578597617, 2.384873956549452]</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>5</v>
       </c>
       <c r="V81" t="n">
-        <v>2.348569841341476</v>
+        <v>2.34185394714785</v>
       </c>
       <c r="W81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X81" t="n">
-        <v>0.5860033669621664</v>
+        <v>0.4895566329146183</v>
       </c>
       <c r="Y81" t="n">
-        <v>26</v>
+        <v>281</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.298680</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7803,7 +7799,7 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[193, 444, 295, 373, 212, 332, 281]</t>
+          <t>[193, 444, 295, 373, 212, 332, 7]</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -7813,33 +7809,37 @@
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[2.2887559902688452, 2.5998956990393967, 2.968802023574506, 2.9965458650930676, 3.1813946839501286, 3.2164742804279536, 3.232096823040698]</t>
+          <t>[2.2891268327820202, 2.602342564424982, 2.885449256545693, 2.9803204589797256, 3.168595358405742, 3.2029053940702688, 3.2086332945208027]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>[193, 444, 373, 212, 281, 7, 230]</t>
+          <t>[193, 444, 373, 212, 7, 281, 230]</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>[2.2887559902688452, 2.5998956990393967, 2.9965458650930676, 3.1813946839501286, 3.232096823040698, 3.24550464648059, 3.2853392279694917]</t>
+          <t>[2.2891268327820202, 2.602342564424982, 2.9803204589797256, 3.168595358405742, 3.2086332945208027, 3.2305418777446433, 3.2810324684337937]</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>5</v>
       </c>
       <c r="V82" t="n">
-        <v>3.198934482189042</v>
+        <v>3.185750376238005</v>
       </c>
       <c r="W82" t="n">
-        <v>0</v>
-      </c>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.5860033669621664</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>444</v>
+      </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[1.477377402808388, 1.678252616071861, 1.8630450255070765, 2.040849158335958, 2.056711953190268, 2.069420903811582, 2.121278113486863]</t>
+          <t>[1.4364166271172045, 1.6606599130251627, 1.8442757553189213, 2.027046328302632, 2.038724549762466, 2.054498344177245, 2.093908532458414]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
@@ -7911,27 +7911,23 @@
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[2.040849158335958, 2.194576707133189, 2.258306223233254, 2.3009270347620885, 2.4879548023804134, 2.498364701400248, 2.607007375157973]</t>
+          <t>[2.027046328302632, 2.1696157523707833, 2.2533703383398436, 2.272833636113052, 2.480449496085853, 2.5023603917982506, 2.5596463500921316]</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>5</v>
       </c>
       <c r="V83" t="n">
-        <v>2.063066428500925</v>
+        <v>2.046611446969855</v>
       </c>
       <c r="W83" t="n">
-        <v>1</v>
-      </c>
-      <c r="X83" t="n">
-        <v>0.4484319876554852</v>
-      </c>
-      <c r="Y83" t="n">
-        <v>407</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.550127</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7979,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[4, 109, 404, 22, 377, 116, 454]</t>
+          <t>[4, 404, 109, 22, 377, 116, 454]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
@@ -7993,24 +7989,24 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[3.6852232011571036, 3.906091515671273, 3.941199833797052, 4.110584697201126, 4.191753256150303, 4.281082075091201, 4.37183116688259]</t>
+          <t>[3.725102041240041, 3.9471698879627617, 3.9644299691961624, 4.132609143175008, 4.231134782681766, 4.282604237090407, 4.416006345983249]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>[4, 109, 404, 22, 377, 116, 454]</t>
+          <t>[4, 404, 109, 22, 377, 116, 454]</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>[3.6852232011571036, 3.906091515671273, 3.941199833797052, 4.110584697201126, 4.191753256150303, 4.281082075091201, 4.37183116688259]</t>
+          <t>[3.725102041240041, 3.9471698879627617, 3.9644299691961624, 4.132609143175008, 4.231134782681766, 4.282604237090407, 4.416006345983249]</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>5</v>
       </c>
       <c r="V84" t="n">
-        <v>4.236417665620753</v>
+        <v>4.256869509886089</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
@@ -8019,7 +8015,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.551932</t>
         </is>
       </c>
     </row>
@@ -8081,7 +8077,7 @@
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[3.116358204088593, 3.415897905794119, 4.003873937794977, 4.328437254716264, 4.336090995925301, 4.425881865109157, 4.582835632415076]</t>
+          <t>[3.066123965080756, 3.4235685936300424, 3.9811329690789856, 4.2392708750856345, 4.3432374528261155, 4.413321854548041, 4.4862031453953035]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
@@ -8091,14 +8087,14 @@
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[3.116358204088593, 3.415897905794119, 4.003873937794977, 4.328437254716264, 4.336090995925301, 4.425881865109157, 4.582835632415076]</t>
+          <t>[3.066123965080756, 3.4235685936300424, 3.9811329690789856, 4.2392708750856345, 4.3432374528261155, 4.413321854548041, 4.4862031453953035]</t>
         </is>
       </c>
       <c r="U85" t="n">
         <v>5</v>
       </c>
       <c r="V85" t="n">
-        <v>4.380986430517236</v>
+        <v>4.378279653687085</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
@@ -8107,7 +8103,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.552935</t>
         </is>
       </c>
     </row>
@@ -8159,7 +8155,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[234, 96, 443, 281, 40, 242, 416]</t>
+          <t>[234, 96, 443, 40, 281, 416, 242]</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -8169,33 +8165,37 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[2.496217407966042, 2.631350314281238, 2.787475906235682, 2.9016966124161883, 2.913647253371507, 3.126042010283934, 3.1277683513673145]</t>
+          <t>[2.4564642087131467, 2.6171505465327924, 2.7794038363171616, 2.8540992359421, 2.88936658351659, 3.079560605973068, 3.0928490214908533]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>[234, 96, 443, 281, 40, 217, 435]</t>
+          <t>[234, 96, 443, 40, 281, 217, 435]</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>[2.496217407966042, 2.631350314281238, 2.787475906235682, 2.9016966124161883, 2.913647253371507, 3.1508626853239265, 3.1836541808077365]</t>
+          <t>[2.4564642087131467, 2.6171505465327924, 2.7794038363171616, 2.8540992359421, 2.88936658351659, 3.1157946956637965, 3.169521493909636]</t>
         </is>
       </c>
       <c r="U86" t="n">
         <v>5</v>
       </c>
       <c r="V86" t="n">
-        <v>3.019844631827722</v>
+        <v>2.984463594744829</v>
       </c>
       <c r="W86" t="n">
-        <v>0</v>
-      </c>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.4484319876554852</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>443</v>
+      </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.552935</t>
         </is>
       </c>
     </row>
@@ -8233,7 +8233,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="K87" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L87" t="n">
         <v>0.9852281360342515</v>
@@ -8247,7 +8247,7 @@
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[308, 147, 330, 173, 318, 117, 367]</t>
+          <t>[308, 330, 147, 173, 318, 117, 367]</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[1.8414736283239441, 2.9631706533036675, 2.969575820487378, 2.9949467475888922, 3.0220948114629764, 3.2478543528067862, 3.280075204160453]</t>
+          <t>[1.822320811505181, 2.9273318748239023, 2.9341729231675058, 2.9925921596462874, 3.0353243261071055, 3.3002385764809503, 3.3157148618476007]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
@@ -8267,14 +8267,14 @@
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[1.8414736283239441, 3.0220948114629764, 3.280075204160453, 3.3121314726082987, 3.584295240467135, 3.597338225881947, 3.6426106538551024]</t>
+          <t>[1.822320811505181, 3.0353243261071055, 3.3157148618476007, 3.362688613002476, 3.550068583086257, 3.615339382110782, 3.6226638986108104]</t>
         </is>
       </c>
       <c r="U87" t="n">
         <v>5</v>
       </c>
       <c r="V87" t="n">
-        <v>3.134974582134881</v>
+        <v>3.167781451294028</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8283,7 +8283,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.552935</t>
         </is>
       </c>
     </row>
@@ -8335,7 +8335,7 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[435, 338, 109, 61, 165, 176, 326]</t>
+          <t>[435, 338, 176, 109, 165, 61, 326]</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -8345,24 +8345,24 @@
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[2.200582939692614, 2.6714292698523256, 2.708030206451099, 2.7120131521090984, 2.7178058803242955, 2.726715044820693, 3.0111749243059016]</t>
+          <t>[2.2007466535486677, 2.5933143588793333, 2.6754722777728412, 2.6801530113347503, 2.6990648257876955, 2.7210077042056517, 3.0168295739194]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>[435, 338, 109, 61, 165, 176, 326]</t>
+          <t>[435, 338, 176, 109, 165, 61, 326]</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[2.200582939692614, 2.6714292698523256, 2.708030206451099, 2.7120131521090984, 2.7178058803242955, 2.726715044820693, 3.0111749243059016]</t>
+          <t>[2.2007466535486677, 2.5933143588793333, 2.6754722777728412, 2.6801530113347503, 2.6990648257876955, 2.7210077042056517, 3.0168295739194]</t>
         </is>
       </c>
       <c r="U88" t="n">
         <v>5</v>
       </c>
       <c r="V88" t="n">
-        <v>2.722260462572494</v>
+        <v>2.710036264996674</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8371,7 +8371,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8433,7 +8433,7 @@
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[2.7815756438190626, 2.8383687174451606, 3.0265313252148056, 3.0967052708747462, 3.66064747458428, 3.7976178297834875, 3.850414054981954]</t>
+          <t>[2.7178930727731276, 2.857339317369182, 3.0063135003162067, 3.0817125996666146, 3.641748399930838, 3.7740646219926415, 3.801422151273341]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
@@ -8443,14 +8443,14 @@
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[2.7815756438190626, 2.8383687174451606, 3.0265313252148056, 3.0967052708747462, 3.66064747458428, 3.7976178297834875, 3.850414054981954]</t>
+          <t>[2.7178930727731276, 2.857339317369182, 3.0063135003162067, 3.0817125996666146, 3.641748399930838, 3.7740646219926415, 3.801422151273341]</t>
         </is>
       </c>
       <c r="U89" t="n">
         <v>5</v>
       </c>
       <c r="V89" t="n">
-        <v>3.729132652183889</v>
+        <v>3.707906510961747</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -8459,7 +8459,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[160, 343, 310, 296, 241, 212, 271]</t>
+          <t>[160, 343, 310, 241, 296, 212, 238]</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
@@ -8521,37 +8521,33 @@
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[1.8441562574398978, 2.6547850906731503, 2.7783450149936533, 2.787638451670907, 2.8079798048205435, 2.8416887938311772, 2.9903783903784102]</t>
+          <t>[1.8161435209128844, 2.572951280354981, 2.70174527031097, 2.7439823220327524, 2.74405069637368, 2.7698099802280804, 2.9110804877119683]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>[310, 212, 142, 316, 26, 214, 281]</t>
+          <t>[310, 212, 142, 316, 26, 281, 214]</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[2.7783450149936533, 2.8416887938311772, 2.9917870226445498, 3.2011213048154263, 3.240293544992658, 3.2853392279694917, 3.3423872118404336]</t>
+          <t>[2.70174527031097, 2.7698099802280804, 2.974280809934055, 3.085100769061318, 3.157935440060794, 3.2794245160993407, 3.2810324684337937]</t>
         </is>
       </c>
       <c r="U90" t="n">
         <v>5</v>
       </c>
       <c r="V90" t="n">
-        <v>2.824834299325861</v>
+        <v>2.756930338300881</v>
       </c>
       <c r="W90" t="n">
-        <v>4</v>
-      </c>
-      <c r="X90" t="n">
-        <v>0.4033175657855713</v>
-      </c>
-      <c r="Y90" t="n">
-        <v>296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8609,7 @@
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[1.9698901590662081, 2.021396855848305, 2.0563899149754703, 2.0831810648263547, 2.2567852684403893, 2.328200933886324, 2.3607370699449293]</t>
+          <t>[1.940644063352931, 2.027727150355256, 2.047054571223379, 2.0629223410606765, 2.2594163591561656, 2.316617501768835, 2.3484326453889133]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
@@ -8623,27 +8619,27 @@
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[1.9698901590662081, 2.021396855848305, 2.0563899149754703, 2.0831810648263547, 2.2567852684403893, 2.328200933886324, 2.3607370699449293]</t>
+          <t>[1.940644063352931, 2.027727150355256, 2.047054571223379, 2.0629223410606765, 2.2594163591561656, 2.316617501768835, 2.3484326453889133]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>5</v>
       </c>
       <c r="V91" t="n">
-        <v>2.292493101163357</v>
+        <v>2.288016930462501</v>
       </c>
       <c r="W91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X91" t="n">
-        <v>0.4150692512012257</v>
+        <v>0.4033175657855713</v>
       </c>
       <c r="Y91" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8695,7 +8691,7 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[165, 281, 142, 443, 26, 212, 222]</t>
+          <t>[165, 281, 142, 443, 26, 290, 222]</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
@@ -8705,37 +8701,37 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[1.848501882688808, 1.9440062444117026, 2.052523101297462, 2.323570886424139, 2.4419613743348907, 2.489750887024762, 2.496217407966042]</t>
+          <t>[1.8172647416676604, 1.8775679658259805, 2.006732056521176, 2.298416376303103, 2.382169267222335, 2.43618023445163, 2.4564642087131467]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>[165, 281, 142, 443, 26, 212, 222]</t>
+          <t>[165, 281, 142, 443, 26, 290, 222]</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[1.848501882688808, 1.9440062444117026, 2.052523101297462, 2.323570886424139, 2.4419613743348907, 2.489750887024762, 2.496217407966042]</t>
+          <t>[1.8172647416676604, 1.8775679658259805, 2.006732056521176, 2.298416376303103, 2.382169267222335, 2.43618023445163, 2.4564642087131467]</t>
         </is>
       </c>
       <c r="U92" t="n">
         <v>5</v>
       </c>
       <c r="V92" t="n">
-        <v>2.465856130679827</v>
+        <v>2.409174750836981</v>
       </c>
       <c r="W92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X92" t="n">
-        <v>0.5144008398418366</v>
+        <v>0.4150692512012257</v>
       </c>
       <c r="Y92" t="n">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8787,7 +8783,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[165, 72, 234, 3, 435, 96, 75]</t>
+          <t>[165, 72, 234, 3, 96, 435, 75]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -8797,24 +8793,24 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[3.332066621035605, 3.748886187718041, 3.7557373366501787, 3.886853187140267, 3.8913781571303323, 3.9275554413811284, 3.9396751291567096]</t>
+          <t>[3.3374355074970845, 3.701935042014829, 3.7481823167384434, 3.806517999246313, 3.849022703402154, 3.859902711800501, 3.9111350171374495]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>[165, 72, 234, 3, 435, 96, 75]</t>
+          <t>[165, 72, 234, 3, 96, 435, 75]</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[3.332066621035605, 3.748886187718041, 3.7557373366501787, 3.886853187140267, 3.8913781571303323, 3.9275554413811284, 3.9396751291567096]</t>
+          <t>[3.3374355074970845, 3.701935042014829, 3.7481823167384434, 3.806517999246313, 3.849022703402154, 3.859902711800501, 3.9111350171374495]</t>
         </is>
       </c>
       <c r="U93" t="n">
         <v>5</v>
       </c>
       <c r="V93" t="n">
-        <v>3.909466799255731</v>
+        <v>3.854462707601329</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
@@ -8823,7 +8819,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8881,7 @@
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[2.7902908032825997, 2.995993808202668, 3.141758092919779, 3.2020953883457817, 3.316867612444911, 3.3410445237388484, 3.565225343699398]</t>
+          <t>[2.789082271218368, 2.9661940505001168, 3.1301450425247093, 3.2052993594551302, 3.295556087020955, 3.3211881565814103, 3.53422315800671]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
@@ -8895,27 +8891,27 @@
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[2.7902908032825997, 2.995993808202668, 3.141758092919779, 3.2020953883457817, 3.316867612444911, 3.3410445237388484, 3.565225343699398]</t>
+          <t>[2.789082271218368, 2.9661940505001168, 3.1301450425247093, 3.2052993594551302, 3.295556087020955, 3.3211881565814103, 3.53422315800671]</t>
         </is>
       </c>
       <c r="U94" t="n">
         <v>5</v>
       </c>
       <c r="V94" t="n">
-        <v>3.328956068091879</v>
+        <v>3.308372121801181</v>
       </c>
       <c r="W94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X94" t="n">
-        <v>0.450783082786869</v>
+        <v>0.5144008398418366</v>
       </c>
       <c r="Y94" t="n">
-        <v>312</v>
+        <v>444</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -8967,7 +8963,7 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>[312, 75, 130, 214, 212, 429, 444]</t>
+          <t>[75, 312, 130, 214, 429, 212, 444]</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
@@ -8977,24 +8973,24 @@
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[3.308619870535644, 3.3120997094870868, 3.685668735129835, 3.720710996358685, 3.869086454389172, 3.8759569935672014, 3.9580443386389996]</t>
+          <t>[3.3034987848332404, 3.3222629614985153, 3.676879593617669, 3.717888635675265, 3.7964027601261017, 3.874074854432998, 3.9653675509153525]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>[312, 75, 130, 214, 212, 429, 444]</t>
+          <t>[75, 312, 130, 214, 429, 212, 444]</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[3.308619870535644, 3.3120997094870868, 3.685668735129835, 3.720710996358685, 3.869086454389172, 3.8759569935672014, 3.9580443386389996]</t>
+          <t>[3.3034987848332404, 3.3222629614985153, 3.676879593617669, 3.717888635675265, 3.7964027601261017, 3.874074854432998, 3.9653675509153525]</t>
         </is>
       </c>
       <c r="U95" t="n">
         <v>5</v>
       </c>
       <c r="V95" t="n">
-        <v>3.872521723978185</v>
+        <v>3.835238807279549</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -9003,7 +8999,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9061,7 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[3.097456889933094, 4.074367636258424, 4.171725586294477, 4.231233384646575, 4.397198198903601, 4.525027688996685, 4.60977587218822]</t>
+          <t>[3.1204163692632787, 4.01527379889379, 4.123375179059191, 4.24355106422139, 4.356155693098791, 4.446957117092585, 4.571186481251257]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
@@ -9075,14 +9071,14 @@
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>[3.097456889933094, 4.074367636258424, 4.171725586294477, 4.231233384646575, 4.397198198903601, 4.525027688996685, 4.60977587218822]</t>
+          <t>[3.1204163692632787, 4.01527379889379, 4.123375179059191, 4.24355106422139, 4.356155693098791, 4.446957117092585, 4.571186481251257]</t>
         </is>
       </c>
       <c r="U96" t="n">
         <v>5</v>
       </c>
       <c r="V96" t="n">
-        <v>4.461112943950146</v>
+        <v>4.401556405095688</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -9091,7 +9087,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.299195</t>
+          <t>2025-11-16T17:30:06.553933</t>
         </is>
       </c>
     </row>
@@ -9143,7 +9139,7 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>[136, 300, 229, 176, 307, 252, 384]</t>
+          <t>[136, 229, 300, 176, 307, 252, 384]</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
@@ -9153,33 +9149,37 @@
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[2.714629248729754, 2.748606008480969, 2.7815756438190626, 3.114294976783791, 3.1344347163919384, 3.368295459770358, 3.409140167508339]</t>
+          <t>[2.6890733096174606, 2.7178930727731276, 2.7392714302523378, 3.097335070304976, 3.1467643223760198, 3.321261654961356, 3.3984472094361102]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>[136, 300, 229, 176, 307, 252, 384]</t>
+          <t>[136, 229, 300, 176, 307, 252, 384]</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>[2.714629248729754, 2.748606008480969, 2.7815756438190626, 3.114294976783791, 3.1344347163919384, 3.368295459770358, 3.409140167508339]</t>
+          <t>[2.6890733096174606, 2.7178930727731276, 2.7392714302523378, 3.097335070304976, 3.1467643223760198, 3.321261654961356, 3.3984472094361102]</t>
         </is>
       </c>
       <c r="U97" t="n">
         <v>5</v>
       </c>
       <c r="V97" t="n">
-        <v>3.251365088081146</v>
+        <v>3.234012988668693</v>
       </c>
       <c r="W97" t="n">
-        <v>0</v>
-      </c>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.450783082786869</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>136</v>
+      </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.301740</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9231,47 +9231,43 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>[440, 85, 220, 143, 355, 227, 287]</t>
+          <t>[440, 220, 85, 143, 227, 355, 287]</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[1.4669785295688205, 1.6154574269230801, 1.6267541787539306, 1.627303177973151, 1.6979137763654473, 1.6986192047262907, 1.8235673155924452]</t>
+          <t>[1.474649004597185, 1.5947139066809344, 1.6007341186336639, 1.632676356172198, 1.6758923738118738, 1.683343439901625, 1.8045408698290064]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>[85, 346, 292, 0, 8, 390, 53]</t>
+          <t>[85, 346, 292, 0, 8, 390, 369]</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>[1.6154574269230801, 1.9883620670694755, 2.201663748769545, 2.409289440775398, 2.487335313954363, 2.4923879396140136, 2.5151943154102794]</t>
+          <t>[1.6007341186336639, 1.9252787709557644, 2.1296562934590284, 2.3734437316518306, 2.4366300955261844, 2.4497963107953, 2.482588308831714]</t>
         </is>
       </c>
       <c r="U98" t="n">
         <v>5</v>
       </c>
       <c r="V98" t="n">
-        <v>1.69826649054587</v>
+        <v>1.67961790685675</v>
       </c>
       <c r="W98" t="n">
-        <v>3</v>
-      </c>
-      <c r="X98" t="n">
-        <v>0.4087207543508868</v>
-      </c>
-      <c r="Y98" t="n">
-        <v>440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.301740</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9329,7 @@
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[1.8058755617023643, 2.2035316839178454, 2.6685591218368314, 2.6811776106888483, 2.6888438548586824, 2.7550908391039197, 2.791844006500297]</t>
+          <t>[1.811887476268225, 2.187189724186373, 2.6361496535132587, 2.65307282681392, 2.664940045738432, 2.7844540525869275, 2.7883586895781116]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
@@ -9343,23 +9339,27 @@
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>[1.8058755617023643, 2.2035316839178454, 2.6685591218368314, 2.6811776106888483, 2.6888438548586824, 2.7550908391039197, 2.791844006500297]</t>
+          <t>[1.811887476268225, 2.187189724186373, 2.6361496535132587, 2.65307282681392, 2.664940045738432, 2.7844540525869275, 2.7883586895781116]</t>
         </is>
       </c>
       <c r="U99" t="n">
         <v>5</v>
       </c>
       <c r="V99" t="n">
-        <v>2.721967346981298</v>
+        <v>2.724697049162678</v>
       </c>
       <c r="W99" t="n">
-        <v>0</v>
-      </c>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.4087207543508868</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>189</v>
+      </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.301740</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9411,7 +9411,7 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[326, 127, 286, 54, 52, 179, 68]</t>
+          <t>[326, 127, 286, 54, 52, 179, 383]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
@@ -9421,24 +9421,24 @@
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[1.5345235447243, 1.620011225986818, 2.0201167052413616, 2.026782422980298, 2.16845510684933, 2.2555193710553483, 2.342705135600747]</t>
+          <t>[1.5159710246019913, 1.616445907005438, 1.9947137477651509, 2.0132179689273477, 2.164637618360603, 2.2277671529487213, 2.325052180409635]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>[326, 127, 286, 54, 52, 179, 68]</t>
+          <t>[326, 127, 286, 54, 52, 179, 383]</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>[1.5345235447243, 1.620011225986818, 2.0201167052413616, 2.026782422980298, 2.16845510684933, 2.2555193710553483, 2.342705135600747]</t>
+          <t>[1.5159710246019913, 1.616445907005438, 1.9947137477651509, 2.0132179689273477, 2.164637618360603, 2.2277671529487213, 2.325052180409635]</t>
         </is>
       </c>
       <c r="U100" t="n">
         <v>5</v>
       </c>
       <c r="V100" t="n">
-        <v>2.211987238952339</v>
+        <v>2.196202385654664</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -9447,7 +9447,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302289</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[1.535617937656059, 1.7921963438074033, 1.9107453312427236, 1.946797018006952, 2.1885430398920276, 2.1963054609416224, 2.293192476051679]</t>
+          <t>[1.4971499947101103, 1.7557026440991734, 1.9043079053646135, 1.9440862987204108, 2.176353112960088, 2.184959982997238, 2.271467505415025]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
@@ -9519,27 +9519,23 @@
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[1.535617937656059, 1.7921963438074033, 1.9107453312427236, 1.946797018006952, 2.1885430398920276, 2.1963054609416224, 2.293192476051679]</t>
+          <t>[1.4971499947101103, 1.7557026440991734, 1.9043079053646135, 1.9440862987204108, 2.176353112960088, 2.184959982997238, 2.271467505415025]</t>
         </is>
       </c>
       <c r="U101" t="n">
         <v>5</v>
       </c>
       <c r="V101" t="n">
-        <v>2.192424250416826</v>
+        <v>2.180656547978663</v>
       </c>
       <c r="W101" t="n">
-        <v>1</v>
-      </c>
-      <c r="X101" t="n">
-        <v>0.4697331974583459</v>
-      </c>
-      <c r="Y101" t="n">
-        <v>400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302289</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9601,7 +9597,7 @@
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[2.3946698127599197, 2.410900769358166, 2.585239858709401, 2.6928808839567573, 2.7297555188999145, 2.762617584481166, 2.840916441080949]</t>
+          <t>[2.3712300120185947, 2.418297836364345, 2.5746231639630524, 2.6631235728614526, 2.71928146472128, 2.756587680557452, 2.7899721834204696]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
@@ -9611,23 +9607,27 @@
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>[2.3946698127599197, 2.410900769358166, 2.585239858709401, 2.6928808839567573, 2.7297555188999145, 2.762617584481166, 2.840916441080949]</t>
+          <t>[2.3712300120185947, 2.418297836364345, 2.5746231639630524, 2.6631235728614526, 2.71928146472128, 2.756587680557452, 2.7899721834204696]</t>
         </is>
       </c>
       <c r="U102" t="n">
         <v>5</v>
       </c>
       <c r="V102" t="n">
-        <v>2.746186551690541</v>
+        <v>2.737934572639368</v>
       </c>
       <c r="W102" t="n">
-        <v>0</v>
-      </c>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.4697331974583459</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>338</v>
+      </c>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302289</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9689,7 +9689,7 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[1.6288081324453192, 1.7450545804750537, 1.8002119431098504, 1.958289745620822, 2.011207409262653, 2.030969064059249, 2.0621344566082764]</t>
+          <t>[1.6283449396900935, 1.7107383784380887, 1.802196329996907, 1.9364847894260229, 2.0058993801629765, 2.0202726738329906, 2.0374791424123933]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
@@ -9699,14 +9699,14 @@
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[1.6288081324453192, 1.7450545804750537, 1.8002119431098504, 1.958289745620822, 2.011207409262653, 2.030969064059249, 2.0621344566082764]</t>
+          <t>[1.6283449396900935, 1.7107383784380887, 1.802196329996907, 1.9364847894260229, 2.0058993801629765, 2.0202726738329906, 2.0374791424123933]</t>
         </is>
       </c>
       <c r="U103" t="n">
         <v>5</v>
       </c>
       <c r="V103" t="n">
-        <v>2.02108823666095</v>
+        <v>2.013086026997983</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
@@ -9715,7 +9715,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302289</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[3.8595404565224145, 4.076119567511384, 4.969650854314056, 5.114425808008783, 5.4001669214348, 5.423825191633526, 5.508618185134382]</t>
+          <t>[3.8328686604116173, 4.089501311924929, 4.960943916657198, 5.066611146022924, 5.337323305598436, 5.423869463040965, 5.441446421828169]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
@@ -9787,14 +9787,14 @@
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>[3.8595404565224145, 4.076119567511384, 4.969650854314056, 5.114425808008783, 5.4001669214348, 5.423825191633526, 5.508618185134382]</t>
+          <t>[3.8328686604116173, 4.089501311924929, 4.960943916657198, 5.066611146022924, 5.337323305598436, 5.423869463040965, 5.441446421828169]</t>
         </is>
       </c>
       <c r="U104" t="n">
         <v>5</v>
       </c>
       <c r="V104" t="n">
-        <v>5.411996056534164</v>
+        <v>5.3805963843197</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9803,7 +9803,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9855,7 +9855,7 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>[37, 65, 10, 429, 109, 256, 318]</t>
+          <t>[37, 65, 10, 429, 109, 256, 419]</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
@@ -9865,37 +9865,33 @@
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[2.162739195290538, 2.9293370780250605, 3.0617286038231537, 3.100736212662363, 3.1767297702262884, 3.2514926227665035, 3.316354352497486]</t>
+          <t>[2.130650230615123, 2.9590713642436595, 3.0126310594350825, 3.105961908768913, 3.1624001396433328, 3.273132833010985, 3.298225737049504]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>[37, 65, 10, 429, 109, 256, 318]</t>
+          <t>[37, 65, 10, 429, 109, 256, 419]</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>[2.162739195290538, 2.9293370780250605, 3.0617286038231537, 3.100736212662363, 3.1767297702262884, 3.2514926227665035, 3.316354352497486]</t>
+          <t>[2.130650230615123, 2.9590713642436595, 3.0126310594350825, 3.105961908768913, 3.1624001396433328, 3.273132833010985, 3.298225737049504]</t>
         </is>
       </c>
       <c r="U105" t="n">
         <v>5</v>
       </c>
       <c r="V105" t="n">
-        <v>3.214111196496396</v>
+        <v>3.217766486327159</v>
       </c>
       <c r="W105" t="n">
-        <v>2</v>
-      </c>
-      <c r="X105" t="n">
-        <v>0.5632863746438768</v>
-      </c>
-      <c r="Y105" t="n">
-        <v>10</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9953,7 @@
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[2.2094273298350102, 2.33653711423443, 2.573755642323067, 2.6104406778419036, 2.690440387320325, 2.735961786200753, 2.8101604761514434]</t>
+          <t>[2.2069952976190614, 2.33962722190432, 2.508088714222071, 2.5975576703295196, 2.6806324169355524, 2.7113398168462375, 2.764759050633843]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
@@ -9967,27 +9963,27 @@
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[2.2094273298350102, 2.33653711423443, 2.573755642323067, 2.6104406778419036, 2.690440387320325, 2.735961786200753, 2.8101604761514434]</t>
+          <t>[2.2069952976190614, 2.33962722190432, 2.508088714222071, 2.5975576703295196, 2.6806324169355524, 2.7113398168462375, 2.764759050633843]</t>
         </is>
       </c>
       <c r="U106" t="n">
         <v>5</v>
       </c>
       <c r="V106" t="n">
-        <v>2.713201086760538</v>
+        <v>2.695986116890896</v>
       </c>
       <c r="W106" t="n">
         <v>2</v>
       </c>
       <c r="X106" t="n">
-        <v>0.5881046528979208</v>
+        <v>0.5632863746438768</v>
       </c>
       <c r="Y106" t="n">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.554930</t>
         </is>
       </c>
     </row>
@@ -10039,7 +10035,7 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[290, 26, 142, 56, 234, 444, 212]</t>
+          <t>[290, 142, 26, 234, 56, 444, 212]</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
@@ -10049,37 +10045,37 @@
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[1.6630363767043426, 1.674485108981822, 1.6898822880556004, 1.8990962173314132, 1.9440062444117026, 2.15755202394247, 2.275039474373751]</t>
+          <t>[1.6285131182517953, 1.6474742962421363, 1.6669902419188405, 1.8775679658259805, 1.8841727803082975, 2.1491301794645796, 2.266472525848531]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>[290, 26, 142, 56, 234, 444, 212]</t>
+          <t>[290, 142, 26, 234, 56, 444, 212]</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[1.6630363767043426, 1.674485108981822, 1.6898822880556004, 1.8990962173314132, 1.9440062444117026, 2.15755202394247, 2.275039474373751]</t>
+          <t>[1.6285131182517953, 1.6474742962421363, 1.6669902419188405, 1.8775679658259805, 1.8841727803082975, 2.1491301794645796, 2.266472525848531]</t>
         </is>
       </c>
       <c r="U107" t="n">
         <v>5</v>
       </c>
       <c r="V107" t="n">
-        <v>2.050779134177086</v>
+        <v>2.016651479886438</v>
       </c>
       <c r="W107" t="n">
         <v>2</v>
       </c>
       <c r="X107" t="n">
-        <v>0.4834822006297558</v>
+        <v>0.5881046528979208</v>
       </c>
       <c r="Y107" t="n">
-        <v>142</v>
+        <v>234</v>
       </c>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10131,7 +10127,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>[136, 29, 229, 221, 110, 11, 248]</t>
+          <t>[136, 29, 221, 229, 110, 11, 248]</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -10141,33 +10137,37 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[2.2370031045327274, 2.4333799886379515, 3.0967052708747462, 3.116358204088593, 3.187517687861069, 3.3111901526029572, 3.5513766281599546]</t>
+          <t>[2.1899646328330844, 2.4156505904912073, 3.066123965080756, 3.0817125996666146, 3.1481712976114307, 3.2474561829917516, 3.4652526882249206]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>[136, 29, 229, 221, 110, 11, 248]</t>
+          <t>[136, 29, 221, 229, 110, 11, 248]</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>[2.2370031045327274, 2.4333799886379515, 3.0967052708747462, 3.116358204088593, 3.187517687861069, 3.3111901526029572, 3.5513766281599546]</t>
+          <t>[2.1899646328330844, 2.4156505904912073, 3.066123965080756, 3.0817125996666146, 3.1481712976114307, 3.2474561829917516, 3.4652526882249206]</t>
         </is>
       </c>
       <c r="U108" t="n">
         <v>5</v>
       </c>
       <c r="V108" t="n">
-        <v>3.249353920232019</v>
+        <v>3.19781374030159</v>
       </c>
       <c r="W108" t="n">
-        <v>0</v>
-      </c>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.4834822006297558</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>221</v>
+      </c>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10229,7 +10229,7 @@
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[1.708175435285469, 1.9892639749561756, 2.0201167052413616, 2.056850091713293, 2.070162952778432, 2.269311997832656, 2.3078775111179026]</t>
+          <t>[1.6820617250783465, 1.987154902150917, 1.9947137477651509, 2.0471005183269395, 2.0775838272439113, 2.2458317601651467, 2.2928743540670107]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
@@ -10239,14 +10239,14 @@
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[1.708175435285469, 1.9892639749561756, 2.0201167052413616, 2.056850091713293, 2.070162952778432, 2.269311997832656, 2.3078775111179026]</t>
+          <t>[1.6820617250783465, 1.987154902150917, 1.9947137477651509, 2.0471005183269395, 2.0775838272439113, 2.2458317601651467, 2.2928743540670107]</t>
         </is>
       </c>
       <c r="U109" t="n">
         <v>5</v>
       </c>
       <c r="V109" t="n">
-        <v>2.169737475305546</v>
+        <v>2.161707793704529</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10255,7 +10255,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[2.3023950260978787, 2.3547117097945316, 2.3653396147727603, 2.390992825824002, 2.579551186721089, 2.673202346529714, 2.8220469235676053]</t>
+          <t>[2.267020850914736, 2.3261941099422514, 2.34275655227943, 2.3783055091480505, 2.5353693096511702, 2.6501422035999354, 2.81739945127248]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
@@ -10327,27 +10327,23 @@
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>[2.3023950260978787, 2.3547117097945316, 2.3653396147727603, 2.390992825824002, 2.579551186721089, 2.673202346529714, 2.8220469235676053]</t>
+          <t>[2.267020850914736, 2.3261941099422514, 2.34275655227943, 2.3783055091480505, 2.5353693096511702, 2.6501422035999354, 2.81739945127248]</t>
         </is>
       </c>
       <c r="U110" t="n">
         <v>5</v>
       </c>
       <c r="V110" t="n">
-        <v>2.626376766625403</v>
+        <v>2.592755756625552</v>
       </c>
       <c r="W110" t="n">
-        <v>1</v>
-      </c>
-      <c r="X110" t="n">
-        <v>0.4323257428189228</v>
-      </c>
-      <c r="Y110" t="n">
-        <v>429</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10399,7 +10395,7 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>[380, 179, 176, 131, 28, 435, 406]</t>
+          <t>[380, 179, 176, 131, 28, 435, 138]</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
@@ -10409,37 +10405,37 @@
       </c>
       <c r="R111" t="inlineStr">
         <is>
-          <t>[2.0058825934630176, 2.9536508424892647, 3.072711719265034, 3.1474172171963164, 3.2217739850684812, 3.254264793667118, 3.2609286114085965]</t>
+          <t>[1.9762286509681486, 2.8848414249343226, 3.0379035425028422, 3.1138232146219345, 3.1609868702606585, 3.1939686885007226, 3.208675751714197]</t>
         </is>
       </c>
       <c r="S111" t="inlineStr">
         <is>
-          <t>[380, 179, 176, 131, 28, 435, 406]</t>
+          <t>[380, 179, 176, 131, 28, 435, 138]</t>
         </is>
       </c>
       <c r="T111" t="inlineStr">
         <is>
-          <t>[2.0058825934630176, 2.9536508424892647, 3.072711719265034, 3.1474172171963164, 3.2217739850684812, 3.254264793667118, 3.2609286114085965]</t>
+          <t>[1.9762286509681486, 2.8848414249343226, 3.0379035425028422, 3.1138232146219345, 3.1609868702606585, 3.1939686885007226, 3.208675751714197]</t>
         </is>
       </c>
       <c r="U111" t="n">
         <v>5</v>
       </c>
       <c r="V111" t="n">
-        <v>3.238019389367802</v>
+        <v>3.177477779380691</v>
       </c>
       <c r="W111" t="n">
         <v>1</v>
       </c>
       <c r="X111" t="n">
-        <v>0.5049512863264476</v>
+        <v>0.4323257428189228</v>
       </c>
       <c r="Y111" t="n">
-        <v>179</v>
+        <v>380</v>
       </c>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.302798</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10501,7 +10497,7 @@
       </c>
       <c r="R112" t="inlineStr">
         <is>
-          <t>[1.6630363767043426, 1.6658171946004932, 1.7921963438074033, 2.102429252028176, 2.1486323978147066, 2.1933358048781213, 2.3848623492776775]</t>
+          <t>[1.6285131182517953, 1.6428696638620455, 1.7557026440991734, 2.0701462533509787, 2.135367710344745, 2.178873539739254, 2.35067345472234]</t>
         </is>
       </c>
       <c r="S112" t="inlineStr">
@@ -10511,27 +10507,27 @@
       </c>
       <c r="T112" t="inlineStr">
         <is>
-          <t>[1.6630363767043426, 1.6658171946004932, 1.7921963438074033, 2.102429252028176, 2.1486323978147066, 2.1933358048781213, 2.3848623492776775]</t>
+          <t>[1.6285131182517953, 1.6428696638620455, 1.7557026440991734, 2.0701462533509787, 2.135367710344745, 2.178873539739254, 2.35067345472234]</t>
         </is>
       </c>
       <c r="U112" t="n">
         <v>5</v>
       </c>
       <c r="V112" t="n">
-        <v>2.170984101346413</v>
+        <v>2.157120625042</v>
       </c>
       <c r="W112" t="n">
         <v>1</v>
       </c>
       <c r="X112" t="n">
-        <v>0.4062858371373469</v>
+        <v>0.5049512863264476</v>
       </c>
       <c r="Y112" t="n">
-        <v>257</v>
+        <v>26</v>
       </c>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304270</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10583,17 +10579,17 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>[108, 346, 390, 440, 251, 21, 241]</t>
+          <t>[108, 346, 390, 251, 440, 21, 241]</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 1, 0, 0]</t>
+          <t>[1, 1, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R113" t="inlineStr">
         <is>
-          <t>[1.7696529857839516, 1.9802601544000404, 2.0456467658463455, 2.1968490085669323, 2.201663748769545, 2.216276898618413, 2.270517521748884]</t>
+          <t>[1.765605485790851, 1.9674983552056948, 2.0245899952907673, 2.1296562934590284, 2.1571744418881704, 2.196818271797406, 2.236798337099792]</t>
         </is>
       </c>
       <c r="S113" t="inlineStr">
@@ -10603,23 +10599,27 @@
       </c>
       <c r="T113" t="inlineStr">
         <is>
-          <t>[1.7696529857839516, 1.9802601544000404, 2.0456467658463455, 2.201663748769545, 2.3419805807660388, 2.38327559473803, 2.5095126515548705]</t>
+          <t>[1.765605485790851, 1.9674983552056948, 2.0245899952907673, 2.1296562934590284, 2.34153519213283, 2.3487870456446176, 2.491765959842159]</t>
         </is>
       </c>
       <c r="U113" t="n">
         <v>5</v>
       </c>
       <c r="V113" t="n">
-        <v>2.208970323693979</v>
+        <v>2.176996356842788</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
-      </c>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.4062858371373469</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>390</v>
+      </c>
       <c r="Z113" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304270</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10671,7 +10671,7 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>[138, 189, 191, 199, 119, 318, 22]</t>
+          <t>[138, 189, 199, 119, 191, 318, 22]</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
@@ -10681,24 +10681,24 @@
       </c>
       <c r="R114" t="inlineStr">
         <is>
-          <t>[1.733671930953707, 1.8846991176131964, 2.391558614617985, 2.3938394490454384, 2.4028131501002403, 2.490864322038817, 2.5694857961436006]</t>
+          <t>[1.7389561753118656, 1.8911879213919967, 2.3609421032636444, 2.4013176287517943, 2.410044320298522, 2.4776592110418547, 2.5738416897770966]</t>
         </is>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>[138, 189, 191, 199, 119, 318, 22]</t>
+          <t>[138, 189, 199, 119, 191, 318, 22]</t>
         </is>
       </c>
       <c r="T114" t="inlineStr">
         <is>
-          <t>[1.733671930953707, 1.8846991176131964, 2.391558614617985, 2.3938394490454384, 2.4028131501002403, 2.490864322038817, 2.5694857961436006]</t>
+          <t>[1.7389561753118656, 1.8911879213919967, 2.3609421032636444, 2.4013176287517943, 2.410044320298522, 2.4776592110418547, 2.5738416897770966]</t>
         </is>
       </c>
       <c r="U114" t="n">
         <v>5</v>
       </c>
       <c r="V114" t="n">
-        <v>2.446838736069527</v>
+        <v>2.443851765670186</v>
       </c>
       <c r="W114" t="n">
         <v>0</v>
@@ -10707,7 +10707,7 @@
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10759,34 +10759,34 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>[146, 351, 421, 411, 237, 56, 276]</t>
+          <t>[146, 351, 421, 411, 237, 276, 56]</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>[4.224744658126401, 5.130362529559383, 5.232733238261394, 5.3829344890537145, 5.523474889406975, 5.948928574129447, 6.000308222346203]</t>
+          <t>[4.221793080125736, 5.1518918201187835, 5.246202631677154, 5.502312932507776, 5.6295335883285835, 6.0772000332100635, 6.0845822403172525]</t>
         </is>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>[146, 351, 421, 411, 237, 56, 193]</t>
+          <t>[146, 351, 421, 411, 237, 56, 333]</t>
         </is>
       </c>
       <c r="T115" t="inlineStr">
         <is>
-          <t>[4.224744658126401, 5.130362529559383, 5.232733238261394, 5.3829344890537145, 5.523474889406975, 5.948928574129447, 6.079581441788871]</t>
+          <t>[4.221793080125736, 5.1518918201187835, 5.246202631677154, 5.502312932507776, 5.6295335883285835, 6.0845822403172525, 6.1190667905918295]</t>
         </is>
       </c>
       <c r="U115" t="n">
         <v>5</v>
       </c>
       <c r="V115" t="n">
-        <v>5.736201731768211</v>
+        <v>5.853366810769325</v>
       </c>
       <c r="W115" t="n">
         <v>0</v>
@@ -10795,7 +10795,7 @@
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="R116" t="inlineStr">
         <is>
-          <t>[1.8105677369042057, 2.0149336391281962, 2.397937341362828, 2.4066583410973905, 2.4590676816063763, 2.5734715569734705, 2.6685591218368314]</t>
+          <t>[1.809561279163081, 2.0064142370998694, 2.3801137845638065, 2.3834950484214814, 2.449333092061449, 2.56074660062297, 2.6361496535132587]</t>
         </is>
       </c>
       <c r="S116" t="inlineStr">
@@ -10867,27 +10867,23 @@
       </c>
       <c r="T116" t="inlineStr">
         <is>
-          <t>[1.8105677369042057, 2.0149336391281962, 2.397937341362828, 2.4066583410973905, 2.4590676816063763, 2.5734715569734705, 2.6685591218368314]</t>
+          <t>[1.809561279163081, 2.0064142370998694, 2.3801137845638065, 2.3834950484214814, 2.449333092061449, 2.56074660062297, 2.6361496535132587]</t>
         </is>
       </c>
       <c r="U116" t="n">
         <v>5</v>
       </c>
       <c r="V116" t="n">
-        <v>2.516269619289923</v>
+        <v>2.505039846342211</v>
       </c>
       <c r="W116" t="n">
-        <v>2</v>
-      </c>
-      <c r="X116" t="n">
-        <v>0.444853861892112</v>
-      </c>
-      <c r="Y116" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -10949,7 +10945,7 @@
       </c>
       <c r="R117" t="inlineStr">
         <is>
-          <t>[2.748606008480969, 3.0489595830612037, 3.2683843849671614, 3.288971756358116, 3.333181171244266, 3.400305836961324, 3.5359132412355323]</t>
+          <t>[2.7392714302523378, 3.037535564367475, 3.2587928048319994, 3.2835125030754764, 3.3376652303993324, 3.39434520509405, 3.548505980155838]</t>
         </is>
       </c>
       <c r="S117" t="inlineStr">
@@ -10959,23 +10955,27 @@
       </c>
       <c r="T117" t="inlineStr">
         <is>
-          <t>[2.748606008480969, 3.0489595830612037, 3.2683843849671614, 3.288971756358116, 3.333181171244266, 3.400305836961324, 3.5359132412355323]</t>
+          <t>[2.7392714302523378, 3.037535564367475, 3.2587928048319994, 3.2835125030754764, 3.3376652303993324, 3.39434520509405, 3.548505980155838]</t>
         </is>
       </c>
       <c r="U117" t="n">
         <v>5</v>
       </c>
       <c r="V117" t="n">
-        <v>3.366743504102796</v>
+        <v>3.366005217746693</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
-      </c>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.444853861892112</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>131</v>
+      </c>
       <c r="Z117" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11027,7 +11027,7 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>[283, 29, 221, 11, 229, 136, 337]</t>
+          <t>[283, 29, 221, 229, 11, 136, 337]</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
@@ -11037,24 +11037,24 @@
       </c>
       <c r="R118" t="inlineStr">
         <is>
-          <t>[3.7238642625402156, 4.314055597075984, 4.336090995925301, 4.387181881053332, 4.423211900302053, 4.432481248371573, 4.442527320713916]</t>
+          <t>[3.7377253630902425, 4.294956773471503, 4.3432374528261155, 4.365571433374416, 4.374031652073877, 4.410770667321199, 4.42697170349427]</t>
         </is>
       </c>
       <c r="S118" t="inlineStr">
         <is>
-          <t>[283, 29, 221, 11, 229, 136, 337]</t>
+          <t>[283, 29, 221, 229, 11, 136, 337]</t>
         </is>
       </c>
       <c r="T118" t="inlineStr">
         <is>
-          <t>[3.7238642625402156, 4.314055597075984, 4.336090995925301, 4.387181881053332, 4.423211900302053, 4.432481248371573, 4.442527320713916]</t>
+          <t>[3.7377253630902425, 4.294956773471503, 4.3432374528261155, 4.365571433374416, 4.374031652073877, 4.410770667321199, 4.42697170349427]</t>
         </is>
       </c>
       <c r="U118" t="n">
         <v>5</v>
       </c>
       <c r="V118" t="n">
-        <v>4.427846574336815</v>
+        <v>4.392401159697535</v>
       </c>
       <c r="W118" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11125,7 +11125,7 @@
       </c>
       <c r="R119" t="inlineStr">
         <is>
-          <t>[3.676002531419391, 4.369293842116486, 4.38104755205823, 4.575614340568599, 4.790521263146641, 4.967806812708843, 5.0770320271570855]</t>
+          <t>[3.6922872251373327, 4.374676937501428, 4.414449667065352, 4.524634528446687, 4.770881930891986, 4.984056503469229, 5.069158007014196]</t>
         </is>
       </c>
       <c r="S119" t="inlineStr">
@@ -11135,14 +11135,14 @@
       </c>
       <c r="T119" t="inlineStr">
         <is>
-          <t>[3.676002531419391, 4.369293842116486, 4.38104755205823, 4.575614340568599, 4.790521263146641, 4.967806812708843, 5.0770320271570855]</t>
+          <t>[3.6922872251373327, 4.374676937501428, 4.414449667065352, 4.524634528446687, 4.770881930891986, 4.984056503469229, 5.069158007014196]</t>
         </is>
       </c>
       <c r="U119" t="n">
         <v>5</v>
       </c>
       <c r="V119" t="n">
-        <v>4.879164037927745</v>
+        <v>4.877469217180606</v>
       </c>
       <c r="W119" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
       <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11213,7 +11213,7 @@
       </c>
       <c r="R120" t="inlineStr">
         <is>
-          <t>[3.1344347163919384, 3.3060703342117903, 3.3881432568497214, 3.752057953628992, 3.850414054981954, 3.8961309861076305, 3.953323110304135]</t>
+          <t>[3.1467643223760198, 3.30098212397505, 3.3783109021013162, 3.7653207786076037, 3.801422151273341, 3.912501164357597, 3.9287738301846247]</t>
         </is>
       </c>
       <c r="S120" t="inlineStr">
@@ -11223,14 +11223,14 @@
       </c>
       <c r="T120" t="inlineStr">
         <is>
-          <t>[3.1344347163919384, 3.3060703342117903, 3.3881432568497214, 3.752057953628992, 3.850414054981954, 3.8961309861076305, 3.953323110304135]</t>
+          <t>[3.1467643223760198, 3.30098212397505, 3.3783109021013162, 3.7653207786076037, 3.801422151273341, 3.912501164357597, 3.9287738301846247]</t>
         </is>
       </c>
       <c r="U120" t="n">
         <v>5</v>
       </c>
       <c r="V120" t="n">
-        <v>3.873272520544798</v>
+        <v>3.856961657815478</v>
       </c>
       <c r="W120" t="n">
         <v>0</v>
@@ -11239,7 +11239,7 @@
       <c r="Y120" t="inlineStr"/>
       <c r="Z120" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11291,7 +11291,7 @@
       </c>
       <c r="P121" t="inlineStr">
         <is>
-          <t>[223, 71, 407, 273, 217, 424, 147]</t>
+          <t>[223, 71, 273, 407, 217, 147, 392]</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -11301,37 +11301,33 @@
       </c>
       <c r="R121" t="inlineStr">
         <is>
-          <t>[1.8414736283239441, 2.5480658257234112, 2.718823020473901, 2.7307055246725205, 2.8015054536035024, 2.8353628228542087, 2.8427031908113385]</t>
+          <t>[1.822320811505181, 2.5592979676712324, 2.747840043110102, 2.7598518021453975, 2.785712707978102, 2.8293243469706018, 2.8361353973814882]</t>
         </is>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>[223, 217, 53, 65, 395, 316, 8]</t>
+          <t>[223, 217, 65, 53, 395, 316, 369]</t>
         </is>
       </c>
       <c r="T121" t="inlineStr">
         <is>
-          <t>[1.8414736283239441, 2.8015054536035024, 3.084922713697352, 3.110520994980193, 3.206012212937696, 3.217313274767037, 3.263362417883113]</t>
+          <t>[1.822320811505181, 2.785712707978102, 3.0959984006840333, 3.136088636147777, 3.193621493620919, 3.2359181276279405, 3.2813414627524993]</t>
         </is>
       </c>
       <c r="U121" t="n">
         <v>5</v>
       </c>
       <c r="V121" t="n">
-        <v>2.818434138228856</v>
+        <v>2.807518527474352</v>
       </c>
       <c r="W121" t="n">
-        <v>2</v>
-      </c>
-      <c r="X121" t="n">
-        <v>0.5383790395385386</v>
-      </c>
-      <c r="Y121" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
       <c r="Z121" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11366,13 +11362,13 @@
         </is>
       </c>
       <c r="J122" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K122" t="n">
         <v>1</v>
       </c>
       <c r="L122" t="n">
-        <v>0.8631205685666311</v>
+        <v>0.9852281360342515</v>
       </c>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="b">
@@ -11383,17 +11379,17 @@
       </c>
       <c r="P122" t="inlineStr">
         <is>
-          <t>[108, 26, 218, 21, 257, 390, 7]</t>
+          <t>[108, 26, 218, 21, 257, 390, 238]</t>
         </is>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 1, 1]</t>
+          <t>[1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R122" t="inlineStr">
         <is>
-          <t>[1.8243839984433874, 1.8841345067835156, 1.9106849439423033, 2.034989640685811, 2.1963054609416224, 2.276258210305603, 2.332365171639115]</t>
+          <t>[1.813909582241616, 1.8833452828746837, 1.891479587744499, 2.0239465266210717, 2.184959982997238, 2.2199004763028856, 2.327751566590337]</t>
         </is>
       </c>
       <c r="S122" t="inlineStr">
@@ -11403,27 +11399,27 @@
       </c>
       <c r="T122" t="inlineStr">
         <is>
-          <t>[1.8243839984433874, 1.8841345067835156, 2.1963054609416224, 2.276258210305603, 2.332365171639115, 2.357506022902266, 2.4299517342027843]</t>
+          <t>[1.813909582241616, 1.8833452828746837, 2.184959982997238, 2.2199004763028856, 2.3602939881336575, 2.3647403578597617, 2.428099931065786]</t>
         </is>
       </c>
       <c r="U122" t="n">
         <v>5</v>
       </c>
       <c r="V122" t="n">
-        <v>2.236281835623613</v>
+        <v>2.202430229650062</v>
       </c>
       <c r="W122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X122" t="n">
-        <v>0.4918497783931735</v>
+        <v>0.5383790395385386</v>
       </c>
       <c r="Y122" t="n">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="Z122" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11475,7 +11471,7 @@
       </c>
       <c r="P123" t="inlineStr">
         <is>
-          <t>[130, 444, 411, 237, 75, 281, 393]</t>
+          <t>[444, 130, 411, 237, 75, 281, 393]</t>
         </is>
       </c>
       <c r="Q123" t="inlineStr">
@@ -11485,37 +11481,37 @@
       </c>
       <c r="R123" t="inlineStr">
         <is>
-          <t>[2.5085145459805758, 2.5150535356838755, 2.7269067150841004, 2.7902908032825997, 2.9045260092769194, 3.159020612134048, 3.1864536479667893]</t>
+          <t>[2.5036671229279195, 2.5209351401918454, 2.718189740731887, 2.789082271218368, 2.892523065659518, 3.1786739094085483, 3.1857047236878424]</t>
         </is>
       </c>
       <c r="S123" t="inlineStr">
         <is>
-          <t>[130, 444, 411, 237, 75, 281, 393]</t>
+          <t>[444, 130, 411, 237, 75, 281, 393]</t>
         </is>
       </c>
       <c r="T123" t="inlineStr">
         <is>
-          <t>[2.5085145459805758, 2.5150535356838755, 2.7269067150841004, 2.7902908032825997, 2.9045260092769194, 3.159020612134048, 3.1864536479667893]</t>
+          <t>[2.5036671229279195, 2.5209351401918454, 2.718189740731887, 2.789082271218368, 2.892523065659518, 3.1786739094085483, 3.1857047236878424]</t>
         </is>
       </c>
       <c r="U123" t="n">
         <v>5</v>
       </c>
       <c r="V123" t="n">
-        <v>3.031773310705485</v>
+        <v>3.035598487534032</v>
       </c>
       <c r="W123" t="n">
         <v>1</v>
       </c>
       <c r="X123" t="n">
-        <v>0.4648690042010548</v>
+        <v>0.4918497783931735</v>
       </c>
       <c r="Y123" t="n">
         <v>411</v>
       </c>
       <c r="Z123" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11567,47 +11563,47 @@
       </c>
       <c r="P124" t="inlineStr">
         <is>
-          <t>[295, 7, 96, 276, 373, 416, 56]</t>
+          <t>[295, 7, 276, 96, 373, 416, 56]</t>
         </is>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 1, 0, 1]</t>
+          <t>[0, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>[2.8205377836750802, 2.9144043816612855, 2.935247133415381, 2.970149716906166, 3.0536850040205357, 3.0727660534782473, 3.1395188326644345]</t>
+          <t>[2.814024726814873, 2.909693231311979, 2.9640106893016305, 2.9724950094516798, 2.998835110409494, 3.0685592507223984, 3.155086365847956]</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>[7, 96, 373, 56, 40, 212, 217]</t>
+          <t>[7, 96, 373, 56, 40, 212, 308]</t>
         </is>
       </c>
       <c r="T124" t="inlineStr">
         <is>
-          <t>[2.9144043816612855, 2.935247133415381, 3.0536850040205357, 3.1395188326644345, 3.2157845363529147, 3.3084800534101246, 3.36129678722332]</t>
+          <t>[2.909693231311979, 2.9724950094516798, 2.998835110409494, 3.155086365847956, 3.235320309915437, 3.318772076499869, 3.3719937393276878]</t>
         </is>
       </c>
       <c r="U124" t="n">
         <v>5</v>
       </c>
       <c r="V124" t="n">
-        <v>3.063225528749391</v>
+        <v>3.033697180565947</v>
       </c>
       <c r="W124" t="n">
         <v>1</v>
       </c>
       <c r="X124" t="n">
-        <v>0.4633844010312556</v>
+        <v>0.4648690042010548</v>
       </c>
       <c r="Y124" t="n">
-        <v>295</v>
+        <v>276</v>
       </c>
       <c r="Z124" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11659,7 +11655,7 @@
       </c>
       <c r="P125" t="inlineStr">
         <is>
-          <t>[144, 221, 307, 408, 301, 183, 229]</t>
+          <t>[144, 221, 307, 408, 183, 301, 229]</t>
         </is>
       </c>
       <c r="Q125" t="inlineStr">
@@ -11669,24 +11665,24 @@
       </c>
       <c r="R125" t="inlineStr">
         <is>
-          <t>[5.210524611411814, 5.8766805227690515, 5.971273757158126, 6.002161545248949, 6.232621953535704, 6.25442258365654, 6.314571993313499]</t>
+          <t>[5.230841078676721, 5.892136228245093, 5.917431948488682, 5.984759593126337, 6.139945778005903, 6.283577160767712, 6.300291817204171]</t>
         </is>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>[144, 221, 307, 408, 301, 183, 229]</t>
+          <t>[144, 221, 307, 408, 183, 301, 229]</t>
         </is>
       </c>
       <c r="T125" t="inlineStr">
         <is>
-          <t>[5.210524611411814, 5.8766805227690515, 5.971273757158126, 6.002161545248949, 6.232621953535704, 6.25442258365654, 6.314571993313499]</t>
+          <t>[5.230841078676721, 5.892136228245093, 5.917431948488682, 5.984759593126337, 6.139945778005903, 6.283577160767712, 6.300291817204171]</t>
         </is>
       </c>
       <c r="U125" t="n">
         <v>5</v>
       </c>
       <c r="V125" t="n">
-        <v>6.24352226859612</v>
+        <v>6.211761469386812</v>
       </c>
       <c r="W125" t="n">
         <v>0</v>
@@ -11695,7 +11691,7 @@
       <c r="Y125" t="inlineStr"/>
       <c r="Z125" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11747,47 +11743,47 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>[238, 304, 36, 94, 7, 212, 160]</t>
+          <t>[238, 304, 36, 94, 7, 160, 212]</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R126" t="inlineStr">
         <is>
-          <t>[1.8659608004394097, 2.3674282673433034, 2.4646682536987226, 2.4684993267020987, 2.5356530714661942, 2.6683477391889063, 2.686961394462986]</t>
+          <t>[1.8777531635250488, 2.3512094380515562, 2.417024586721254, 2.451284835488171, 2.5443468244217162, 2.6341000184214303, 2.6391349003667837]</t>
         </is>
       </c>
       <c r="S126" t="inlineStr">
         <is>
-          <t>[7, 212, 310, 61, 369, 233, 217]</t>
+          <t>[7, 212, 61, 310, 369, 233, 217]</t>
         </is>
       </c>
       <c r="T126" t="inlineStr">
         <is>
-          <t>[2.5356530714661942, 2.6683477391889063, 2.831522876221223, 2.8542193632613846, 2.856508411270401, 3.049145788083247, 3.05131368699452]</t>
+          <t>[2.5443468244217162, 2.6391349003667837, 2.7983435847912856, 2.834270899876412, 2.8624682568517157, 3.031462807655142, 3.0615351557912724]</t>
         </is>
       </c>
       <c r="U126" t="n">
         <v>5</v>
       </c>
       <c r="V126" t="n">
-        <v>2.602000405327551</v>
+        <v>2.589223421421573</v>
       </c>
       <c r="W126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X126" t="n">
-        <v>0.4508327298139478</v>
+        <v>0.4633844010312556</v>
       </c>
       <c r="Y126" t="n">
-        <v>304</v>
+        <v>238</v>
       </c>
       <c r="Z126" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11849,7 +11845,7 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>[1.6305188189698676, 2.0149336391281962, 2.0831757314155177, 2.490864322038817, 2.517392927930352, 2.5776744885650538, 2.631840892705954]</t>
+          <t>[1.5984589744955302, 2.0064142370998694, 2.0427206889471012, 2.4776592110418547, 2.4855316276717967, 2.5669162169193607, 2.5805485505162116]</t>
         </is>
       </c>
       <c r="S127" t="inlineStr">
@@ -11859,23 +11855,27 @@
       </c>
       <c r="T127" t="inlineStr">
         <is>
-          <t>[1.6305188189698676, 2.0149336391281962, 2.0831757314155177, 2.490864322038817, 2.517392927930352, 2.5776744885650538, 2.631840892705954]</t>
+          <t>[1.5984589744955302, 2.0064142370998694, 2.0427206889471012, 2.4776592110418547, 2.4855316276717967, 2.5669162169193607, 2.5805485505162116]</t>
         </is>
       </c>
       <c r="U127" t="n">
         <v>5</v>
       </c>
       <c r="V127" t="n">
-        <v>2.547533708247702</v>
+        <v>2.52622392229558</v>
       </c>
       <c r="W127" t="n">
-        <v>0</v>
-      </c>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.4508327298139478</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>299</v>
+      </c>
       <c r="Z127" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="R128" t="inlineStr">
         <is>
-          <t>[1.919141429763599, 2.222511823594812, 2.33653711423443, 2.6058173319388733, 2.6545228002335115, 2.6888438548586824, 2.733634481483445]</t>
+          <t>[1.9087359940122899, 2.198631300101858, 2.33962722190432, 2.5974335392644283, 2.634799681522896, 2.664940045738432, 2.723368885802747]</t>
         </is>
       </c>
       <c r="S128" t="inlineStr">
@@ -11947,27 +11947,23 @@
       </c>
       <c r="T128" t="inlineStr">
         <is>
-          <t>[1.919141429763599, 2.222511823594812, 2.33653711423443, 2.6058173319388733, 2.6545228002335115, 2.6888438548586824, 2.733634481483445]</t>
+          <t>[1.9087359940122899, 2.198631300101858, 2.33962722190432, 2.5974335392644283, 2.634799681522896, 2.664940045738432, 2.723368885802747]</t>
         </is>
       </c>
       <c r="U128" t="n">
         <v>5</v>
       </c>
       <c r="V128" t="n">
-        <v>2.671683327546092</v>
+        <v>2.649869863630665</v>
       </c>
       <c r="W128" t="n">
-        <v>1</v>
-      </c>
-      <c r="X128" t="n">
-        <v>0.439768480817761</v>
-      </c>
-      <c r="Y128" t="n">
-        <v>275</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
       <c r="Z128" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12029,7 +12025,7 @@
       </c>
       <c r="R129" t="inlineStr">
         <is>
-          <t>[1.5345235447243, 1.5646070997228427, 1.6288081324453192, 1.6687594684598144, 1.764209992329337, 1.85531063689279, 1.9193498143097234]</t>
+          <t>[1.5159710246019913, 1.5443745135301405, 1.6283449396900935, 1.6570583234495286, 1.7507726902234724, 1.8060679757622107, 1.872530151176036]</t>
         </is>
       </c>
       <c r="S129" t="inlineStr">
@@ -12039,27 +12035,27 @@
       </c>
       <c r="T129" t="inlineStr">
         <is>
-          <t>[1.5345235447243, 1.5646070997228427, 1.6288081324453192, 1.6687594684598144, 1.764209992329337, 1.85531063689279, 1.9193498143097234]</t>
+          <t>[1.5159710246019913, 1.5443745135301405, 1.6283449396900935, 1.6570583234495286, 1.7507726902234724, 1.8060679757622107, 1.872530151176036]</t>
         </is>
       </c>
       <c r="U129" t="n">
         <v>5</v>
       </c>
       <c r="V129" t="n">
-        <v>1.809760314611062</v>
+        <v>1.778420332992843</v>
       </c>
       <c r="W129" t="n">
         <v>1</v>
       </c>
       <c r="X129" t="n">
-        <v>0.521406849537337</v>
+        <v>0.439768480817761</v>
       </c>
       <c r="Y129" t="n">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="Z129" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12117,7 @@
       </c>
       <c r="R130" t="inlineStr">
         <is>
-          <t>[2.056850091713293, 2.08700840358509, 2.2206399488644264, 2.222511823594812, 2.279334859325676, 2.362101002328255, 2.5736068486694323]</t>
+          <t>[2.0471005183269395, 2.075202970855305, 2.1858707569341678, 2.198631300101858, 2.2774625742839087, 2.329938598520939, 2.5419916527303137]</t>
         </is>
       </c>
       <c r="S130" t="inlineStr">
@@ -12131,27 +12127,27 @@
       </c>
       <c r="T130" t="inlineStr">
         <is>
-          <t>[2.056850091713293, 2.08700840358509, 2.2206399488644264, 2.222511823594812, 2.279334859325676, 2.362101002328255, 2.5736068486694323]</t>
+          <t>[2.0471005183269395, 2.075202970855305, 2.1858707569341678, 2.198631300101858, 2.2774625742839087, 2.329938598520939, 2.5419916527303137]</t>
         </is>
       </c>
       <c r="U130" t="n">
         <v>5</v>
       </c>
       <c r="V130" t="n">
-        <v>2.320717930826962</v>
+        <v>2.303700586402419</v>
       </c>
       <c r="W130" t="n">
         <v>1</v>
       </c>
       <c r="X130" t="n">
-        <v>0.4461787651244298</v>
+        <v>0.521406849537337</v>
       </c>
       <c r="Y130" t="n">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="Z130" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12203,7 +12199,7 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>[351, 257, 261, 184, 75, 400, 7]</t>
+          <t>[351, 257, 261, 184, 75, 7, 400]</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
@@ -12213,33 +12209,37 @@
       </c>
       <c r="R131" t="inlineStr">
         <is>
-          <t>[2.350873563812525, 2.6587554962671467, 2.840916441080949, 2.8622335289610445, 3.036511207307828, 3.120595361227587, 3.138008324570281]</t>
+          <t>[2.3695673080280106, 2.671599474611978, 2.7899721834204696, 2.8735696907266326, 3.0339457782297417, 3.1075721777203915, 3.128073870070282]</t>
         </is>
       </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>[351, 257, 261, 184, 75, 400, 7]</t>
+          <t>[351, 257, 261, 184, 75, 7, 400]</t>
         </is>
       </c>
       <c r="T131" t="inlineStr">
         <is>
-          <t>[2.350873563812525, 2.6587554962671467, 2.840916441080949, 2.8622335289610445, 3.036511207307828, 3.120595361227587, 3.138008324570281]</t>
+          <t>[2.3695673080280106, 2.671599474611978, 2.7899721834204696, 2.8735696907266326, 3.0339457782297417, 3.1075721777203915, 3.128073870070282]</t>
         </is>
       </c>
       <c r="U131" t="n">
         <v>5</v>
       </c>
       <c r="V131" t="n">
-        <v>3.078553284267707</v>
+        <v>3.070758977975066</v>
       </c>
       <c r="W131" t="n">
-        <v>0</v>
-      </c>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.4461787651244298</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>75</v>
+      </c>
       <c r="Z131" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12291,7 +12291,7 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>[429, 288, 37, 419, 338, 270, 261]</t>
+          <t>[429, 288, 37, 419, 338, 270, 245]</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
@@ -12301,24 +12301,24 @@
       </c>
       <c r="R132" t="inlineStr">
         <is>
-          <t>[2.703627392858631, 3.311320636871952, 3.4652797777424835, 3.546715984469209, 3.9650421642937634, 4.003848441626229, 4.059760089651423]</t>
+          <t>[2.743665197724159, 3.3079800242770534, 3.4654607944535707, 3.5367843553230305, 4.000647316520587, 4.049704478181361, 4.066259023044599]</t>
         </is>
       </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>[429, 288, 37, 419, 338, 270, 261]</t>
+          <t>[429, 288, 37, 419, 338, 270, 245]</t>
         </is>
       </c>
       <c r="T132" t="inlineStr">
         <is>
-          <t>[2.703627392858631, 3.311320636871952, 3.4652797777424835, 3.546715984469209, 3.9650421642937634, 4.003848441626229, 4.059760089651423]</t>
+          <t>[2.743665197724159, 3.3079800242770534, 3.4654607944535707, 3.5367843553230305, 4.000647316520587, 4.049704478181361, 4.066259023044599]</t>
         </is>
       </c>
       <c r="U132" t="n">
         <v>5</v>
       </c>
       <c r="V132" t="n">
-        <v>3.984445302959996</v>
+        <v>4.025175897350973</v>
       </c>
       <c r="W132" t="n">
         <v>0</v>
@@ -12327,7 +12327,7 @@
       <c r="Y132" t="inlineStr"/>
       <c r="Z132" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12379,7 +12379,7 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>[106, 176, 301, 322, 408, 414, 92]</t>
+          <t>[176, 106, 301, 408, 322, 414, 92]</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
@@ -12389,24 +12389,24 @@
       </c>
       <c r="R133" t="inlineStr">
         <is>
-          <t>[4.391841668895344, 4.414254339942083, 4.442527320713916, 4.496027096851154, 4.520442059321248, 4.618488736271755, 4.698104291024648]</t>
+          <t>[4.400061627804354, 4.409472636861847, 4.42697170349427, 4.509896137444361, 4.55150485084004, 4.611134272990886, 4.686463068590627]</t>
         </is>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>[106, 176, 301, 322, 408, 414, 92]</t>
+          <t>[176, 106, 301, 408, 322, 414, 92]</t>
         </is>
       </c>
       <c r="T133" t="inlineStr">
         <is>
-          <t>[4.391841668895344, 4.414254339942083, 4.442527320713916, 4.496027096851154, 4.520442059321248, 4.618488736271755, 4.698104291024648]</t>
+          <t>[4.400061627804354, 4.409472636861847, 4.42697170349427, 4.509896137444361, 4.55150485084004, 4.611134272990886, 4.686463068590627]</t>
         </is>
       </c>
       <c r="U133" t="n">
         <v>5</v>
       </c>
       <c r="V133" t="n">
-        <v>4.569465397796503</v>
+        <v>4.581319561915464</v>
       </c>
       <c r="W133" t="n">
         <v>0</v>
@@ -12415,7 +12415,7 @@
       <c r="Y133" t="inlineStr"/>
       <c r="Z133" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12467,7 +12467,7 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>[261, 322, 275, 429, 226, 326, 68]</t>
+          <t>[261, 226, 322, 275, 429, 326, 68]</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
@@ -12477,37 +12477,33 @@
       </c>
       <c r="R134" t="inlineStr">
         <is>
-          <t>[2.585239858709401, 2.6058173319388733, 2.6104406778419036, 2.6559478692715595, 2.6714292698523256, 2.747136218741036, 2.8968886189187963]</t>
+          <t>[2.5746231639630524, 2.5933143588793333, 2.5974335392644283, 2.5975576703295196, 2.6505414981390487, 2.742028521696383, 2.9065295548559864]</t>
         </is>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>[261, 322, 275, 429, 226, 326, 68]</t>
+          <t>[261, 226, 322, 275, 429, 326, 68]</t>
         </is>
       </c>
       <c r="T134" t="inlineStr">
         <is>
-          <t>[2.585239858709401, 2.6058173319388733, 2.6104406778419036, 2.6559478692715595, 2.6714292698523256, 2.747136218741036, 2.8968886189187963]</t>
+          <t>[2.5746231639630524, 2.5933143588793333, 2.5974335392644283, 2.5975576703295196, 2.6505414981390487, 2.742028521696383, 2.9065295548559864]</t>
         </is>
       </c>
       <c r="U134" t="n">
         <v>5</v>
       </c>
       <c r="V134" t="n">
-        <v>2.709282744296684</v>
+        <v>2.696285009917715</v>
       </c>
       <c r="W134" t="n">
-        <v>3</v>
-      </c>
-      <c r="X134" t="n">
-        <v>0.4690142496053366</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
       <c r="Z134" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12559,17 +12555,17 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>[383, 0, 424, 53, 346, 85, 15]</t>
+          <t>[383, 0, 424, 53, 346, 15, 85]</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>[1.3449273993353017, 1.7498819676919577, 1.8948628912010141, 2.139386587082235, 2.163010752965032, 2.2947406095613156, 2.3155295458542313]</t>
+          <t>[1.3336976868679422, 1.7371051505744004, 1.8824985888476677, 2.122507382938432, 2.131688797366688, 2.2695654073902123, 2.2712391689354843]</t>
         </is>
       </c>
       <c r="S135" t="inlineStr">
@@ -12579,27 +12575,27 @@
       </c>
       <c r="T135" t="inlineStr">
         <is>
-          <t>[1.3449273993353017, 1.7498819676919577, 2.139386587082235, 2.163010752965032, 2.2947406095613156, 2.3563292171853045, 2.56701333315243]</t>
+          <t>[1.3336976868679422, 1.7371051505744004, 2.122507382938432, 2.131688797366688, 2.2712391689354843, 2.308882629797307, 2.5193654759850412]</t>
         </is>
       </c>
       <c r="U135" t="n">
         <v>5</v>
       </c>
       <c r="V135" t="n">
-        <v>2.228875681263173</v>
+        <v>2.20062710237845</v>
       </c>
       <c r="W135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X135" t="n">
-        <v>0.4321616102834998</v>
+        <v>0.4690142496053366</v>
       </c>
       <c r="Y135" t="n">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="Z135" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12651,7 +12647,7 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>[246, 106, 351, 13, 226, 176, 165]</t>
+          <t>[351, 106, 246, 13, 226, 165, 176]</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
@@ -12661,24 +12657,24 @@
       </c>
       <c r="R136" t="inlineStr">
         <is>
-          <t>[4.231233384646575, 4.241099114769839, 4.258950303883568, 4.407008402649176, 4.474842447394814, 4.54878727526034, 4.572070153725517]</t>
+          <t>[4.184574132396815, 4.235262360936645, 4.24355106422139, 4.410035697395683, 4.444400967437647, 4.521839060008699, 4.544385285318956]</t>
         </is>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>[246, 106, 351, 13, 226, 176, 165]</t>
+          <t>[351, 106, 246, 13, 226, 165, 176]</t>
         </is>
       </c>
       <c r="T136" t="inlineStr">
         <is>
-          <t>[4.231233384646575, 4.241099114769839, 4.258950303883568, 4.407008402649176, 4.474842447394814, 4.54878727526034, 4.572070153725517]</t>
+          <t>[4.184574132396815, 4.235262360936645, 4.24355106422139, 4.410035697395683, 4.444400967437647, 4.521839060008699, 4.544385285318956]</t>
         </is>
       </c>
       <c r="U136" t="n">
         <v>5</v>
       </c>
       <c r="V136" t="n">
-        <v>4.511814861327578</v>
+        <v>4.483120013723175</v>
       </c>
       <c r="W136" t="n">
         <v>0</v>
@@ -12687,7 +12683,7 @@
       <c r="Y136" t="inlineStr"/>
       <c r="Z136" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12739,43 +12735,47 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>[53, 8, 58, 0, 439, 85, 292]</t>
+          <t>[53, 8, 58, 0, 85, 251, 439]</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 0, 1, 1]</t>
+          <t>[1, 1, 1, 1, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R137" t="inlineStr">
         <is>
-          <t>[1.6315741965896122, 1.698529618200424, 1.7361737406084488, 1.811673638171613, 1.921132657840475, 1.9620286457585652, 1.9802601544000404]</t>
+          <t>[1.6277526211727256, 1.6937331146490724, 1.7237475343115642, 1.7876944248241793, 1.9077942585112764, 1.9252787709557644, 1.9259824581049907]</t>
         </is>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>[53, 8, 58, 0, 85, 292, 251]</t>
+          <t>[53, 8, 58, 0, 85, 251, 292]</t>
         </is>
       </c>
       <c r="T137" t="inlineStr">
         <is>
-          <t>[1.6315741965896122, 1.698529618200424, 1.7361737406084488, 1.811673638171613, 1.9620286457585652, 1.9802601544000404, 1.9883620670694755]</t>
+          <t>[1.6277526211727256, 1.6937331146490724, 1.7237475343115642, 1.7876944248241793, 1.9077942585112764, 1.9252787709557644, 1.9674983552056948]</t>
         </is>
       </c>
       <c r="U137" t="n">
         <v>5</v>
       </c>
       <c r="V137" t="n">
-        <v>1.94158065179952</v>
+        <v>1.916536514733521</v>
       </c>
       <c r="W137" t="n">
-        <v>0</v>
-      </c>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.4321616102834998</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>8</v>
+      </c>
       <c r="Z137" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="R138" t="inlineStr">
         <is>
-          <t>[3.5566412958413447, 3.676002531419391, 3.7161585215318844, 3.8961309861076305, 4.123515360330789, 4.128655834989297, 4.15841577077639]</t>
+          <t>[3.544389472466058, 3.6922872251373327, 3.7181345165907573, 3.912501164357597, 4.080187646384942, 4.108240615867811, 4.173518078697056]</t>
         </is>
       </c>
       <c r="S138" t="inlineStr">
@@ -12847,14 +12847,14 @@
       </c>
       <c r="T138" t="inlineStr">
         <is>
-          <t>[3.5566412958413447, 3.676002531419391, 3.7161585215318844, 3.8961309861076305, 4.123515360330789, 4.128655834989297, 4.15841577077639]</t>
+          <t>[3.544389472466058, 3.6922872251373327, 3.7181345165907573, 3.912501164357597, 4.080187646384942, 4.108240615867811, 4.173518078697056]</t>
         </is>
       </c>
       <c r="U138" t="n">
         <v>5</v>
       </c>
       <c r="V138" t="n">
-        <v>4.126085597660043</v>
+        <v>4.094214131126376</v>
       </c>
       <c r="W138" t="n">
         <v>0</v>
@@ -12863,7 +12863,7 @@
       <c r="Y138" t="inlineStr"/>
       <c r="Z138" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -12915,7 +12915,7 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>[333, 75, 184, 7, 13, 261, 226]</t>
+          <t>[333, 75, 184, 13, 7, 261, 226]</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
@@ -12925,24 +12925,24 @@
       </c>
       <c r="R139" t="inlineStr">
         <is>
-          <t>[2.350873563812525, 3.144511525060474, 3.4141130500104473, 3.4727260573899756, 3.513489949867865, 3.5934929580422534, 3.6213585245055766]</t>
+          <t>[2.3695673080280106, 3.1821317813750953, 3.471051261120471, 3.47530324537976, 3.476616328803096, 3.592135234050622, 3.610507552586365]</t>
         </is>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>[333, 75, 184, 7, 13, 261, 226]</t>
+          <t>[333, 75, 184, 13, 7, 261, 226]</t>
         </is>
       </c>
       <c r="T139" t="inlineStr">
         <is>
-          <t>[2.350873563812525, 3.144511525060474, 3.4141130500104473, 3.4727260573899756, 3.513489949867865, 3.5934929580422534, 3.6213585245055766]</t>
+          <t>[2.3695673080280106, 3.1821317813750953, 3.471051261120471, 3.47530324537976, 3.476616328803096, 3.592135234050622, 3.610507552586365]</t>
         </is>
       </c>
       <c r="U139" t="n">
         <v>5</v>
       </c>
       <c r="V139" t="n">
-        <v>3.553491453955059</v>
+        <v>3.534375781426859</v>
       </c>
       <c r="W139" t="n">
         <v>0</v>
@@ -12951,7 +12951,7 @@
       <c r="Y139" t="inlineStr"/>
       <c r="Z139" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13013,7 +13013,7 @@
       </c>
       <c r="R140" t="inlineStr">
         <is>
-          <t>[1.4168868984212089, 1.477044471046879, 1.8215270132982444, 1.8860815976480336, 1.9765949362807422, 2.1432195563100964, 2.25235340741433]</t>
+          <t>[1.3816367933710194, 1.4513183296469023, 1.8281652078425155, 1.8853561659186515, 1.9357085547947468, 2.1144379628287404, 2.2368349094677984]</t>
         </is>
       </c>
       <c r="S140" t="inlineStr">
@@ -13023,14 +13023,14 @@
       </c>
       <c r="T140" t="inlineStr">
         <is>
-          <t>[1.4168868984212089, 1.477044471046879, 1.8215270132982444, 1.8860815976480336, 1.9765949362807422, 2.25235340741433, 2.283667629636019]</t>
+          <t>[1.3816367933710194, 1.4513183296469023, 1.8281652078425155, 1.8853561659186515, 1.9357085547947468, 2.2368349094677984, 2.2454778233534576]</t>
         </is>
       </c>
       <c r="U140" t="n">
         <v>5</v>
       </c>
       <c r="V140" t="n">
-        <v>2.059907246295419</v>
+        <v>2.025073258811744</v>
       </c>
       <c r="W140" t="n">
         <v>0</v>
@@ -13039,7 +13039,7 @@
       <c r="Y140" t="inlineStr"/>
       <c r="Z140" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="R141" t="inlineStr">
         <is>
-          <t>[3.579593808397553, 3.915555249504402, 4.091924866929286, 4.15656755637685, 4.2021381782789256, 4.506229919637869, 4.593880903401335]</t>
+          <t>[3.526979348269113, 3.8594220196449616, 3.998616274857327, 4.066129713766484, 4.070408564000849, 4.463897619359282, 4.568244391621437]</t>
         </is>
       </c>
       <c r="S141" t="inlineStr">
@@ -13111,14 +13111,14 @@
       </c>
       <c r="T141" t="inlineStr">
         <is>
-          <t>[3.579593808397553, 3.915555249504402, 4.091924866929286, 4.15656755637685, 4.2021381782789256, 4.506229919637869, 4.593880903401335]</t>
+          <t>[3.526979348269113, 3.8594220196449616, 3.998616274857327, 4.066129713766484, 4.070408564000849, 4.463897619359282, 4.568244391621437]</t>
         </is>
       </c>
       <c r="U141" t="n">
         <v>5</v>
       </c>
       <c r="V141" t="n">
-        <v>4.354184048958397</v>
+        <v>4.267153091680065</v>
       </c>
       <c r="W141" t="n">
         <v>0</v>
@@ -13127,7 +13127,7 @@
       <c r="Y141" t="inlineStr"/>
       <c r="Z141" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13179,7 +13179,7 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>[117, 173, 379, 15, 174, 264, 134]</t>
+          <t>[117, 173, 379, 15, 174, 264, 86]</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="R142" t="inlineStr">
         <is>
-          <t>[2.6444812795817785, 2.7848811362815775, 2.8464707562204694, 2.945840880099669, 3.073408078141377, 3.163874074355031, 3.223470771580853]</t>
+          <t>[2.676816160367984, 2.781322533314566, 2.8608168267021536, 2.9720905352501363, 3.0050994910903044, 3.1743214900002923, 3.233754441643728]</t>
         </is>
       </c>
       <c r="S142" t="inlineStr">
@@ -13199,14 +13199,14 @@
       </c>
       <c r="T142" t="inlineStr">
         <is>
-          <t>[3.280075204160453, 3.313946831827158, 3.3695247688036027, 3.4512816487696023, 3.562257272207213, 3.6872539531183115, 3.846259090003457]</t>
+          <t>[3.3157148618476007, 3.3655310129741864, 3.4297521972304703, 3.4972950684441786, 3.5844331513823424, 3.6845862214502967, 3.866538677478155]</t>
         </is>
       </c>
       <c r="U142" t="n">
         <v>5</v>
       </c>
       <c r="V142" t="n">
-        <v>3.118641076248204</v>
+        <v>3.089710490545298</v>
       </c>
       <c r="W142" t="n">
         <v>0</v>
@@ -13215,7 +13215,7 @@
       <c r="Y142" t="inlineStr"/>
       <c r="Z142" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13267,17 +13267,17 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>[393, 362, 312, 237, 444, 137, 3]</t>
+          <t>[393, 362, 312, 237, 137, 444, 3]</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 0, 1]</t>
+          <t>[1, 1, 1, 1, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R143" t="inlineStr">
         <is>
-          <t>[5.185992378329325, 5.207473514648507, 5.984587191827759, 6.4108719067949, 6.511285125660442, 6.5483128279830325, 6.782200784863446]</t>
+          <t>[5.137012988606497, 5.214976693673757, 5.98448556290261, 6.4296259187194025, 6.491262988741556, 6.526564056199752, 6.729169362013024]</t>
         </is>
       </c>
       <c r="S143" t="inlineStr">
@@ -13287,14 +13287,14 @@
       </c>
       <c r="T143" t="inlineStr">
         <is>
-          <t>[5.185992378329325, 5.207473514648507, 5.984587191827759, 6.4108719067949, 6.511285125660442, 6.782200784863446, 6.847841537273911]</t>
+          <t>[5.137012988606497, 5.214976693673757, 5.98448556290261, 6.4296259187194025, 6.526564056199752, 6.729169362013024, 6.870993542798057]</t>
         </is>
       </c>
       <c r="U143" t="n">
         <v>5</v>
       </c>
       <c r="V143" t="n">
-        <v>6.529798976821739</v>
+        <v>6.508913522470654</v>
       </c>
       <c r="W143" t="n">
         <v>0</v>
@@ -13303,7 +13303,7 @@
       <c r="Y143" t="inlineStr"/>
       <c r="Z143" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13355,7 +13355,7 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>[287, 422, 201, 379, 433, 440, 366]</t>
+          <t>[287, 422, 201, 379, 433, 440, 198]</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>[1.6299239032180273, 1.6544934894745646, 1.6838482670534547, 1.7401876328709582, 1.839523189107106, 1.8629930512320096, 1.878579770818424]</t>
+          <t>[1.6233605435653444, 1.6488401516733548, 1.6858770828011698, 1.7178422685262376, 1.789027433963359, 1.829271434344354, 1.888624262043479]</t>
         </is>
       </c>
       <c r="S144" t="inlineStr">
@@ -13375,27 +13375,23 @@
       </c>
       <c r="T144" t="inlineStr">
         <is>
-          <t>[2.264542520854602, 2.3419805807660388, 2.3949698335092435, 2.5192814549657885, 2.664664754473854, 2.7475895164721664, 2.8544852687672195]</t>
+          <t>[2.2243959370243576, 2.34153519213283, 2.3655160562495974, 2.482588308831714, 2.6315151756902964, 2.687094328386513, 2.778598624063319]</t>
         </is>
       </c>
       <c r="U144" t="n">
         <v>5</v>
       </c>
       <c r="V144" t="n">
-        <v>1.851258120169558</v>
+        <v>1.809149434153856</v>
       </c>
       <c r="W144" t="n">
-        <v>2</v>
-      </c>
-      <c r="X144" t="n">
-        <v>0.4807672342116082</v>
-      </c>
-      <c r="Y144" t="n">
-        <v>287</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
       <c r="Z144" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13457,7 +13453,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>[2.7143663407083762, 3.521786705659905, 3.8101063198847687, 3.989000498579981, 4.15409706561649, 4.2608925647088745, 4.338092111142706]</t>
+          <t>[2.722052394237777, 3.53018837163626, 3.796047888393294, 4.010069273867322, 4.1924985271322335, 4.282571957769303, 4.310645832081768]</t>
         </is>
       </c>
       <c r="S145" t="inlineStr">
@@ -13467,14 +13463,14 @@
       </c>
       <c r="T145" t="inlineStr">
         <is>
-          <t>[2.7143663407083762, 3.521786705659905, 3.8101063198847687, 3.989000498579981, 4.15409706561649, 4.2608925647088745, 4.338092111142706]</t>
+          <t>[2.722052394237777, 3.53018837163626, 3.796047888393294, 4.010069273867322, 4.1924985271322335, 4.282571957769303, 4.310645832081768]</t>
         </is>
       </c>
       <c r="U145" t="n">
         <v>5</v>
       </c>
       <c r="V145" t="n">
-        <v>4.207494815162683</v>
+        <v>4.237535242450768</v>
       </c>
       <c r="W145" t="n">
         <v>0</v>
@@ -13483,7 +13479,7 @@
       <c r="Y145" t="inlineStr"/>
       <c r="Z145" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13535,7 +13531,7 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>[214, 193, 444, 314, 387, 435, 3]</t>
+          <t>[214, 314, 444, 193, 387, 435, 3]</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
@@ -13545,37 +13541,37 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>[2.9965458650930676, 2.9988621017379917, 3.0105375242879995, 3.0536850040205357, 3.286109883171958, 3.4090003423572677, 3.610796201059299]</t>
+          <t>[2.9803204589797256, 2.998835110409494, 3.011315701081069, 3.0199618823625616, 3.2686080406421563, 3.386404652325872, 3.599180297589507]</t>
         </is>
       </c>
       <c r="S146" t="inlineStr">
         <is>
-          <t>[214, 193, 444, 314, 387, 435, 3]</t>
+          <t>[214, 314, 444, 193, 387, 435, 3]</t>
         </is>
       </c>
       <c r="T146" t="inlineStr">
         <is>
-          <t>[2.9965458650930676, 2.9988621017379917, 3.0105375242879995, 3.0536850040205357, 3.286109883171958, 3.4090003423572677, 3.610796201059299]</t>
+          <t>[2.9803204589797256, 2.998835110409494, 3.011315701081069, 3.0199618823625616, 3.2686080406421563, 3.386404652325872, 3.599180297589507]</t>
         </is>
       </c>
       <c r="U146" t="n">
         <v>5</v>
       </c>
       <c r="V146" t="n">
-        <v>3.347555112764614</v>
+        <v>3.327506346484016</v>
       </c>
       <c r="W146" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X146" t="n">
-        <v>0.4455870325083883</v>
+        <v>0.4807672342116082</v>
       </c>
       <c r="Y146" t="n">
         <v>214</v>
       </c>
       <c r="Z146" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13627,7 +13623,7 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>[120, 421, 315, 144, 408, 183, 307]</t>
+          <t>[120, 421, 315, 144, 183, 408, 307]</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
@@ -13637,24 +13633,24 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>[6.20383756619893, 6.904838967967099, 7.504356331598453, 8.094346290086023, 8.391814166396912, 8.405780638192912, 8.519952300114879]</t>
+          <t>[6.191113182270528, 6.875797106361606, 7.649847025578125, 8.314476360726692, 8.604190388018335, 8.61952815659844, 8.695727654414608]</t>
         </is>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>[120, 421, 315, 144, 408, 183, 307]</t>
+          <t>[120, 421, 315, 144, 183, 408, 307]</t>
         </is>
       </c>
       <c r="T147" t="inlineStr">
         <is>
-          <t>[6.20383756619893, 6.904838967967099, 7.504356331598453, 8.094346290086023, 8.391814166396912, 8.405780638192912, 8.519952300114879]</t>
+          <t>[6.191113182270528, 6.875797106361606, 7.649847025578125, 8.314476360726692, 8.604190388018335, 8.61952815659844, 8.695727654414608]</t>
         </is>
       </c>
       <c r="U147" t="n">
         <v>5</v>
       </c>
       <c r="V147" t="n">
-        <v>8.398797402294914</v>
+        <v>8.61185927230839</v>
       </c>
       <c r="W147" t="n">
         <v>0</v>
@@ -13663,7 +13659,7 @@
       <c r="Y147" t="inlineStr"/>
       <c r="Z147" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13715,7 +13711,7 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>[252, 189, 4, 293, 109, 454, 22]</t>
+          <t>[252, 189, 4, 293, 109, 22, 454]</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
@@ -13725,33 +13721,37 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>[2.2035316839178454, 2.55461085610104, 2.5912818920290106, 2.787923218845572, 2.8746998400003605, 2.9243225062684286, 2.9552109263836535]</t>
+          <t>[2.187189724186373, 2.566483767770155, 2.583415344195387, 2.8158245006885774, 2.863432096873746, 2.922403153971119, 2.9419587329166768]</t>
         </is>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>[252, 189, 4, 293, 109, 454, 22]</t>
+          <t>[252, 189, 4, 293, 109, 22, 454]</t>
         </is>
       </c>
       <c r="T148" t="inlineStr">
         <is>
-          <t>[2.2035316839178454, 2.55461085610104, 2.5912818920290106, 2.787923218845572, 2.8746998400003605, 2.9243225062684286, 2.9552109263836535]</t>
+          <t>[2.187189724186373, 2.566483767770155, 2.583415344195387, 2.8158245006885774, 2.863432096873746, 2.922403153971119, 2.9419587329166768]</t>
         </is>
       </c>
       <c r="U148" t="n">
         <v>5</v>
       </c>
       <c r="V148" t="n">
-        <v>2.899511173134393</v>
+        <v>2.892917625422433</v>
       </c>
       <c r="W148" t="n">
-        <v>0</v>
-      </c>
-      <c r="X148" t="inlineStr"/>
-      <c r="Y148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.4455870325083883</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>252</v>
+      </c>
       <c r="Z148" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13803,7 +13803,7 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>[289, 179, 138, 189, 28, 406, 106]</t>
+          <t>[289, 179, 138, 189, 28, 406, 275]</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
@@ -13813,37 +13813,33 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>[2.0058825934630176, 2.1771783094021733, 2.297824304566893, 2.409556481926439, 2.41600873534404, 2.4786242632912927, 2.537235424836236]</t>
+          <t>[1.9762286509681486, 2.1693228305512124, 2.249330457200027, 2.364383479771745, 2.4065642135011847, 2.4681624327601157, 2.508088714222071]</t>
         </is>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>[289, 179, 138, 189, 28, 406, 106]</t>
+          <t>[289, 179, 138, 189, 28, 406, 275]</t>
         </is>
       </c>
       <c r="T149" t="inlineStr">
         <is>
-          <t>[2.0058825934630176, 2.1771783094021733, 2.297824304566893, 2.409556481926439, 2.41600873534404, 2.4786242632912927, 2.537235424836236]</t>
+          <t>[1.9762286509681486, 2.1693228305512124, 2.249330457200027, 2.364383479771745, 2.4065642135011847, 2.4681624327601157, 2.508088714222071]</t>
         </is>
       </c>
       <c r="U149" t="n">
         <v>5</v>
       </c>
       <c r="V149" t="n">
-        <v>2.447316499317669</v>
+        <v>2.437363323130648</v>
       </c>
       <c r="W149" t="n">
-        <v>1</v>
-      </c>
-      <c r="X149" t="n">
-        <v>0.5943424190778207</v>
-      </c>
-      <c r="Y149" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
       <c r="Z149" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13905,7 +13901,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>[4.007368799840382, 4.069057837604113, 4.076119567511384, 5.351353610017731, 5.412644994510418, 5.536480899737516, 5.619586360954262]</t>
+          <t>[3.970625492894839, 4.05267837850917, 4.089501311924929, 5.345538742179648, 5.34629258365347, 5.4745005247549265, 5.547712819898796]</t>
         </is>
       </c>
       <c r="S150" t="inlineStr">
@@ -13915,14 +13911,14 @@
       </c>
       <c r="T150" t="inlineStr">
         <is>
-          <t>[4.007368799840382, 4.069057837604113, 4.076119567511384, 5.351353610017731, 5.412644994510418, 5.536480899737516, 5.619586360954262]</t>
+          <t>[3.970625492894839, 4.05267837850917, 4.089501311924929, 5.345538742179648, 5.34629258365347, 5.4745005247549265, 5.547712819898796]</t>
         </is>
       </c>
       <c r="U150" t="n">
         <v>5</v>
       </c>
       <c r="V150" t="n">
-        <v>5.474562947123968</v>
+        <v>5.410396554204198</v>
       </c>
       <c r="W150" t="n">
         <v>0</v>
@@ -13931,7 +13927,7 @@
       <c r="Y150" t="inlineStr"/>
       <c r="Z150" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -13993,7 +13989,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>[1.3449273993353017, 1.6344785919627771, 2.247933021064974, 2.28084252320504, 2.3472563038121232, 2.347743755018359, 2.41014299253512]</t>
+          <t>[1.3336976868679422, 1.6020222028860338, 2.215637128975518, 2.2391543846505546, 2.325052180409635, 2.332682320722102, 2.3808166414193184]</t>
         </is>
       </c>
       <c r="S151" t="inlineStr">
@@ -14003,27 +13999,27 @@
       </c>
       <c r="T151" t="inlineStr">
         <is>
-          <t>[1.3449273993353017, 1.6344785919627771, 2.247933021064974, 2.28084252320504, 2.3472563038121232, 2.41014299253512, 2.4308055596336704]</t>
+          <t>[1.3336976868679422, 1.6020222028860338, 2.215637128975518, 2.2391543846505546, 2.325052180409635, 2.3808166414193184, 2.4232868251331636]</t>
         </is>
       </c>
       <c r="U151" t="n">
         <v>5</v>
       </c>
       <c r="V151" t="n">
-        <v>2.347500029415241</v>
+        <v>2.32886725056587</v>
       </c>
       <c r="W151" t="n">
         <v>1</v>
       </c>
       <c r="X151" t="n">
-        <v>0.4041168988591605</v>
+        <v>0.5943424190778207</v>
       </c>
       <c r="Y151" t="n">
-        <v>346</v>
+        <v>256</v>
       </c>
       <c r="Z151" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14075,7 +14071,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>[176, 300, 248, 406, 136, 199, 106]</t>
+          <t>[176, 300, 248, 406, 136, 106, 199]</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
@@ -14085,37 +14081,37 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>[2.686581827781382, 3.0489595830612037, 3.409140167508339, 3.4257115617956004, 3.4359566733252294, 3.503192257151577, 3.5050985492469438]</t>
+          <t>[2.6672681954688615, 3.037535564367475, 3.3984472094361102, 3.401866561927619, 3.421356319018333, 3.485259899426408, 3.4962630882346493]</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>[176, 300, 248, 406, 136, 199, 106]</t>
+          <t>[176, 300, 248, 406, 136, 106, 199]</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
         <is>
-          <t>[2.686581827781382, 3.0489595830612037, 3.409140167508339, 3.4257115617956004, 3.4359566733252294, 3.503192257151577, 3.5050985492469438]</t>
+          <t>[2.6672681954688615, 3.037535564367475, 3.3984472094361102, 3.401866561927619, 3.421356319018333, 3.485259899426408, 3.4962630882346493]</t>
         </is>
       </c>
       <c r="U152" t="n">
         <v>5</v>
       </c>
       <c r="V152" t="n">
-        <v>3.469574465238404</v>
+        <v>3.453308109222371</v>
       </c>
       <c r="W152" t="n">
         <v>1</v>
       </c>
       <c r="X152" t="n">
-        <v>0.5995480970097884</v>
+        <v>0.4041168988591605</v>
       </c>
       <c r="Y152" t="n">
-        <v>176</v>
+        <v>248</v>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14150,13 +14146,13 @@
         </is>
       </c>
       <c r="J153" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="K153" t="n">
         <v>0.4285714285714285</v>
       </c>
       <c r="L153" t="n">
-        <v>0.5916727785823274</v>
+        <v>0</v>
       </c>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="b">
@@ -14167,34 +14163,34 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>[373, 3, 435, 122, 72, 314, 74]</t>
+          <t>[373, 3, 435, 72, 122, 314, 444]</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 1, 1, 1, 0]</t>
+          <t>[1, 1, 1, 1, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>[3.286109883171958, 3.332091419225388, 3.449550655112634, 3.6521486294168994, 3.6952570141118093, 3.8415517810619693, 3.875761305764974]</t>
+          <t>[3.2686080406421563, 3.2910378456039164, 3.4579617679803984, 3.646702883402676, 3.6504132659717365, 3.8122633131912274, 3.868046448454668]</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>[373, 3, 435, 122, 72, 314, 444]</t>
+          <t>[373, 3, 435, 72, 122, 314, 444]</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
         <is>
-          <t>[3.286109883171958, 3.332091419225388, 3.449550655112634, 3.6521486294168994, 3.6952570141118093, 3.8415517810619693, 3.882770167041346]</t>
+          <t>[3.2686080406421563, 3.2910378456039164, 3.4579617679803984, 3.646702883402676, 3.6504132659717365, 3.8122633131912274, 3.868046448454668]</t>
         </is>
       </c>
       <c r="U153" t="n">
         <v>5</v>
       </c>
       <c r="V153" t="n">
-        <v>3.76840439758689</v>
+        <v>3.731338289581484</v>
       </c>
       <c r="W153" t="n">
         <v>0</v>
@@ -14203,7 +14199,7 @@
       <c r="Y153" t="inlineStr"/>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14255,17 +14251,17 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>[108, 292, 439, 346, 21, 310, 94]</t>
+          <t>[108, 292, 21, 439, 346, 310, 66]</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 1, 0]</t>
+          <t>[1, 1, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>[1.7326034367217977, 2.0456467658463455, 2.1444172112571662, 2.1704347723184507, 2.171741619069564, 2.276258210305603, 2.4003534497765795]</t>
+          <t>[1.685523825685292, 2.0245899952907673, 2.098711509470145, 2.15084755848875, 2.1566538706573226, 2.2199004763028856, 2.403738338588027]</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
@@ -14275,23 +14271,27 @@
       </c>
       <c r="T154" t="inlineStr">
         <is>
-          <t>[1.7326034367217977, 2.0456467658463455, 2.1704347723184507, 2.276258210305603, 2.4923879396140136, 2.5415843325365732, 2.653547868573615]</t>
+          <t>[1.685523825685292, 2.0245899952907673, 2.1566538706573226, 2.2199004763028856, 2.4497963107953, 2.514721229565331, 2.6222478515916956]</t>
         </is>
       </c>
       <c r="U154" t="n">
         <v>5</v>
       </c>
       <c r="V154" t="n">
-        <v>2.223999914687584</v>
+        <v>2.188277173480105</v>
       </c>
       <c r="W154" t="n">
-        <v>0</v>
-      </c>
-      <c r="X154" t="inlineStr"/>
-      <c r="Y154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0.5995480970097884</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>108</v>
+      </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14343,7 +14343,7 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>[312, 3, 130, 444, 75, 245, 72]</t>
+          <t>[312, 3, 130, 444, 75, 235, 72]</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
@@ -14353,24 +14353,24 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>[3.1864536479667893, 3.8460649967251483, 4.234029754348673, 4.329359341229491, 4.601298630697561, 4.6518622244452095, 4.669018733615785]</t>
+          <t>[3.1857047236878424, 3.8637273702683914, 4.304820269306517, 4.320679038066859, 4.616303939951946, 4.62219999311853, 4.634234486951123]</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>[312, 3, 130, 444, 75, 245, 72]</t>
+          <t>[312, 3, 130, 444, 75, 235, 72]</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
         <is>
-          <t>[3.1864536479667893, 3.8460649967251483, 4.234029754348673, 4.329359341229491, 4.601298630697561, 4.6518622244452095, 4.669018733615785]</t>
+          <t>[3.1857047236878424, 3.8637273702683914, 4.304820269306517, 4.320679038066859, 4.616303939951946, 4.62219999311853, 4.634234486951123]</t>
         </is>
       </c>
       <c r="U155" t="n">
         <v>5</v>
       </c>
       <c r="V155" t="n">
-        <v>4.626580427571384</v>
+        <v>4.619251966535237</v>
       </c>
       <c r="W155" t="n">
         <v>0</v>
@@ -14379,7 +14379,7 @@
       <c r="Y155" t="inlineStr"/>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14441,7 +14441,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>[1.4618866466804645, 1.7951075182895444, 1.85531063689279, 1.9095543059333429, 1.958289745620822, 1.9976752468141468, 2.040849158335958]</t>
+          <t>[1.453487278631919, 1.7663076815325351, 1.8060679757622107, 1.8544918493066473, 1.9364847894260229, 1.9667457025371717, 2.027046328302632]</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
@@ -14451,27 +14451,23 @@
       </c>
       <c r="T156" t="inlineStr">
         <is>
-          <t>[1.4618866466804645, 1.7951075182895444, 1.85531063689279, 1.9095543059333429, 1.958289745620822, 1.9976752468141468, 2.040849158335958]</t>
+          <t>[1.453487278631919, 1.7663076815325351, 1.8060679757622107, 1.8544918493066473, 1.9364847894260229, 1.9667457025371717, 2.027046328302632]</t>
         </is>
       </c>
       <c r="U156" t="n">
         <v>5</v>
       </c>
       <c r="V156" t="n">
-        <v>1.977982496217485</v>
+        <v>1.951615245981597</v>
       </c>
       <c r="W156" t="n">
-        <v>2</v>
-      </c>
-      <c r="X156" t="n">
-        <v>0.4628711962152653</v>
-      </c>
-      <c r="Y156" t="n">
-        <v>61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14523,7 +14519,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>[257, 108, 26, 310, 142, 21, 7]</t>
+          <t>[257, 108, 26, 142, 310, 21, 7]</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
@@ -14533,37 +14529,37 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>[1.9107453312427236, 2.1929483000623398, 2.264731533246333, 2.754264534905854, 2.759268809892818, 2.840248247179222, 2.9032649485921014]</t>
+          <t>[1.9043079053646135, 2.1814430418409794, 2.2538423189827514, 2.7229504156063546, 2.755359022238742, 2.818576955432572, 2.925831115555649]</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>[257, 108, 26, 310, 142, 7, 290]</t>
+          <t>[257, 108, 26, 142, 310, 7, 290]</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>[1.9107453312427236, 2.1929483000623398, 2.264731533246333, 2.754264534905854, 2.759268809892818, 2.9032649485921014, 2.984358202129294]</t>
+          <t>[1.9043079053646135, 2.1814430418409794, 2.2538423189827514, 2.7229504156063546, 2.755359022238742, 2.925831115555649, 2.9698137515199923]</t>
         </is>
       </c>
       <c r="U157" t="n">
         <v>5</v>
       </c>
       <c r="V157" t="n">
-        <v>2.799758528536019</v>
+        <v>2.786967988835658</v>
       </c>
       <c r="W157" t="n">
         <v>2</v>
       </c>
       <c r="X157" t="n">
-        <v>0.4273242662884058</v>
+        <v>0.4628711962152653</v>
       </c>
       <c r="Y157" t="n">
         <v>257</v>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.555978</t>
         </is>
       </c>
     </row>
@@ -14615,7 +14611,7 @@
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>[116, 307, 22, 187, 199, 384, 293]</t>
+          <t>[116, 307, 22, 187, 199, 293, 384]</t>
         </is>
       </c>
       <c r="Q158" t="inlineStr">
@@ -14625,24 +14621,24 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>[2.65203366063777, 3.3060703342117903, 3.4792882624099515, 3.5255560992314194, 3.619638260783952, 3.6757662982911663, 3.7000506972962817]</t>
+          <t>[2.6399891560835282, 3.30098212397505, 3.4568442791284593, 3.5252505527520883, 3.645016849792711, 3.7154151979287198, 3.7403784941801104]</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>[116, 307, 22, 187, 199, 384, 293]</t>
+          <t>[116, 307, 22, 187, 199, 293, 384]</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>[2.65203366063777, 3.3060703342117903, 3.4792882624099515, 3.5255560992314194, 3.619638260783952, 3.6757662982911663, 3.7000506972962817]</t>
+          <t>[2.6399891560835282, 3.30098212397505, 3.4568442791284593, 3.5252505527520883, 3.645016849792711, 3.7154151979287198, 3.7403784941801104]</t>
         </is>
       </c>
       <c r="U158" t="n">
         <v>5</v>
       </c>
       <c r="V158" t="n">
-        <v>3.647702279537562</v>
+        <v>3.680216023860716</v>
       </c>
       <c r="W158" t="n">
         <v>0</v>
@@ -14651,7 +14647,7 @@
       <c r="Y158" t="inlineStr"/>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566016</t>
         </is>
       </c>
     </row>
@@ -14703,7 +14699,7 @@
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>[199, 380, 106, 138, 176, 189, 293]</t>
+          <t>[199, 380, 106, 138, 176, 189, 184]</t>
         </is>
       </c>
       <c r="Q159" t="inlineStr">
@@ -14713,37 +14709,37 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>[2.3304923918584852, 2.4786242632912927, 2.7334545145529843, 2.759332723995276, 2.941481464447787, 2.9708069721172814, 3.05141068830049]</t>
+          <t>[2.2896602021612398, 2.4681624327601157, 2.7016859928836787, 2.765292679414126, 2.9221818580572028, 2.959810264693733, 3.017177867391654]</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>[199, 380, 106, 138, 176, 189, 293]</t>
+          <t>[199, 380, 106, 138, 176, 189, 184]</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>[2.3304923918584852, 2.4786242632912927, 2.7334545145529843, 2.759332723995276, 2.941481464447787, 2.9708069721172814, 3.05141068830049]</t>
+          <t>[2.2896602021612398, 2.4681624327601157, 2.7016859928836787, 2.765292679414126, 2.9221818580572028, 2.959810264693733, 3.017177867391654]</t>
         </is>
       </c>
       <c r="U159" t="n">
         <v>5</v>
       </c>
       <c r="V159" t="n">
-        <v>2.956144218282534</v>
+        <v>2.940996061375469</v>
       </c>
       <c r="W159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X159" t="n">
-        <v>0.585663712517545</v>
+        <v>0.4273242662884058</v>
       </c>
       <c r="Y159" t="n">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -14805,7 +14801,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>[3.097456889933094, 4.520442059321248, 4.715165622156025, 4.846886811877678, 5.049949014141096, 5.0598884233432475, 5.25721292381606]</t>
+          <t>[3.1204163692632787, 4.509896137444361, 4.706860730580516, 4.827974861814682, 5.024056911722131, 5.075129701184012, 5.230413509027639]</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
@@ -14815,14 +14811,14 @@
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>[3.097456889933094, 4.520442059321248, 4.715165622156025, 4.846886811877678, 5.049949014141096, 5.0598884233432475, 5.25721292381606]</t>
+          <t>[3.1204163692632787, 4.509896137444361, 4.706860730580516, 4.827974861814682, 5.024056911722131, 5.075129701184012, 5.230413509027639]</t>
         </is>
       </c>
       <c r="U160" t="n">
         <v>5</v>
       </c>
       <c r="V160" t="n">
-        <v>5.054918718742176</v>
+        <v>5.049593306453074</v>
       </c>
       <c r="W160" t="n">
         <v>0</v>
@@ -14831,7 +14827,7 @@
       <c r="Y160" t="inlineStr"/>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -14893,7 +14889,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>[2.5710118433475033, 2.807735849345418, 3.1113769478280875, 3.129387482160214, 3.2404732611261777, 3.3911883257431636, 3.437564978915356]</t>
+          <t>[2.576473435986309, 2.819881934836556, 3.0926080249499845, 3.1229260477499916, 3.1891336185084733, 3.3566310453043995, 3.4774202493044912]</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
@@ -14903,27 +14899,27 @@
       </c>
       <c r="T161" t="inlineStr">
         <is>
-          <t>[2.5710118433475033, 2.807735849345418, 3.1113769478280875, 3.129387482160214, 3.2404732611261777, 3.3911883257431636, 3.571444872815951]</t>
+          <t>[2.576473435986309, 2.819881934836556, 3.0926080249499845, 3.1229260477499916, 3.1891336185084733, 3.3566310453043995, 3.529285873279595]</t>
         </is>
       </c>
       <c r="U161" t="n">
         <v>5</v>
       </c>
       <c r="V161" t="n">
-        <v>3.315830793434672</v>
+        <v>3.272882331906437</v>
       </c>
       <c r="W161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X161" t="n">
-        <v>0.4645101528477201</v>
+        <v>0.585663712517545</v>
       </c>
       <c r="Y161" t="n">
-        <v>318</v>
+        <v>9</v>
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -14985,7 +14981,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>[2.3572214839325825, 2.3605060236981217, 2.479149506762133, 2.4901779725616207, 2.7269067150841004, 2.7589878701914508, 2.8578174732024952]</t>
+          <t>[2.3416120972600427, 2.3463003506377937, 2.439038424686089, 2.4861773809648584, 2.718189740731887, 2.7261367669723784, 2.811119134813987]</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
@@ -14995,27 +14991,27 @@
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>[2.3572214839325825, 2.3605060236981217, 2.479149506762133, 2.4901779725616207, 2.7269067150841004, 2.7589878701914508, 2.8578174732024952]</t>
+          <t>[2.3416120972600427, 2.3463003506377937, 2.439038424686089, 2.4861773809648584, 2.718189740731887, 2.7261367669723784, 2.811119134813987]</t>
         </is>
       </c>
       <c r="U162" t="n">
         <v>5</v>
       </c>
       <c r="V162" t="n">
-        <v>2.742947292637776</v>
+        <v>2.722163253852132</v>
       </c>
       <c r="W162" t="n">
         <v>1</v>
       </c>
       <c r="X162" t="n">
-        <v>0.5193700315892974</v>
+        <v>0.4645101528477201</v>
       </c>
       <c r="Y162" t="n">
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15077,7 +15073,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>[4.750498101706468, 5.179606939335628, 5.32944870640309, 5.580526400477295, 5.5986074483906085, 5.653842507326086, 5.73243962907982]</t>
+          <t>[4.702040438385543, 5.154541358008507, 5.381235404901508, 5.487892667653265, 5.550959198647193, 5.605114904271417, 5.683228326822348]</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
@@ -15087,14 +15083,14 @@
       </c>
       <c r="T163" t="inlineStr">
         <is>
-          <t>[4.750498101706468, 5.580526400477295, 5.5986074483906085, 5.653842507326086, 5.738798396560598, 5.884171405741566, 6.005416595067287]</t>
+          <t>[4.702040438385543, 5.487892667653265, 5.550959198647193, 5.605114904271417, 5.697866065223707, 5.830076879023111, 5.89552092857488]</t>
         </is>
       </c>
       <c r="U163" t="n">
         <v>5</v>
       </c>
       <c r="V163" t="n">
-        <v>5.626224977858347</v>
+        <v>5.578037051459305</v>
       </c>
       <c r="W163" t="n">
         <v>0</v>
@@ -15103,7 +15099,7 @@
       <c r="Y163" t="inlineStr"/>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15155,7 +15151,7 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>[109, 13, 265, 322, 326, 226, 106]</t>
+          <t>[109, 13, 322, 265, 326, 226, 106]</t>
         </is>
       </c>
       <c r="Q164" t="inlineStr">
@@ -15165,37 +15161,37 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>[2.650895212047311, 2.890516592120071, 2.915342180022309, 2.9201395797287004, 2.9403092102390054, 3.187951143658421, 3.22512373872354]</t>
+          <t>[2.6486549077930084, 2.8872214333538895, 2.9366337854004785, 2.938318448975265, 2.9644745910823436, 3.183479236856319, 3.206947824378838]</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>[109, 13, 265, 322, 326, 226, 106]</t>
+          <t>[109, 13, 322, 265, 326, 226, 106]</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
         <is>
-          <t>[2.650895212047311, 2.890516592120071, 2.915342180022309, 2.9201395797287004, 2.9403092102390054, 3.187951143658421, 3.22512373872354]</t>
+          <t>[2.6486549077930084, 2.8872214333538895, 2.9366337854004785, 2.938318448975265, 2.9644745910823436, 3.183479236856319, 3.206947824378838]</t>
         </is>
       </c>
       <c r="U164" t="n">
         <v>5</v>
       </c>
       <c r="V164" t="n">
-        <v>3.064130176948714</v>
+        <v>3.07397691396933</v>
       </c>
       <c r="W164" t="n">
         <v>1</v>
       </c>
       <c r="X164" t="n">
-        <v>0.4582458280396084</v>
+        <v>0.5193700315892974</v>
       </c>
       <c r="Y164" t="n">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15247,7 +15243,7 @@
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>[329, 288, 286, 256, 68, 429, 178]</t>
+          <t>[329, 288, 286, 256, 429, 68, 178]</t>
         </is>
       </c>
       <c r="Q165" t="inlineStr">
@@ -15257,37 +15253,37 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>[2.279334859325676, 2.3547117097945316, 2.382455060231196, 2.5181914311373457, 2.7488346241839032, 2.7657205490133214, 2.8683422571479165]</t>
+          <t>[2.2774625742839087, 2.3261941099422514, 2.3908857153420353, 2.488136382903158, 2.710364258980262, 2.7358587760024573, 2.814737459792641]</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>[329, 288, 286, 256, 68, 429, 178]</t>
+          <t>[329, 288, 286, 256, 429, 68, 178]</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
         <is>
-          <t>[2.279334859325676, 2.3547117097945316, 2.382455060231196, 2.5181914311373457, 2.7488346241839032, 2.7657205490133214, 2.8683422571479165]</t>
+          <t>[2.2774625742839087, 2.3261941099422514, 2.3908857153420353, 2.488136382903158, 2.710364258980262, 2.7358587760024573, 2.814737459792641]</t>
         </is>
       </c>
       <c r="U165" t="n">
         <v>5</v>
       </c>
       <c r="V165" t="n">
-        <v>2.757277586598613</v>
+        <v>2.723111517491359</v>
       </c>
       <c r="W165" t="n">
         <v>1</v>
       </c>
       <c r="X165" t="n">
-        <v>0.4592547011408165</v>
+        <v>0.4582458280396084</v>
       </c>
       <c r="Y165" t="n">
         <v>329</v>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15339,34 +15335,34 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>[294, 351, 31, 146, 122, 373, 74]</t>
+          <t>[294, 351, 31, 146, 122, 74, 373]</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 1, 1, 0]</t>
+          <t>[1, 1, 0, 1, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>[5.232733238261394, 5.28509042047986, 5.396962222155711, 5.433329391822329, 5.445024894489111, 5.8497769303268115, 5.883322223033615]</t>
+          <t>[5.246202631677154, 5.337319366975441, 5.385764596593271, 5.46724758532173, 5.623504596400475, 5.979356539954651, 5.989285278433341]</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>[294, 351, 146, 122, 373, 193, 314]</t>
+          <t>[294, 351, 146, 122, 373, 314, 193]</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
         <is>
-          <t>[5.232733238261394, 5.28509042047986, 5.433329391822329, 5.445024894489111, 5.8497769303268115, 5.928534281592863, 5.94850768125695]</t>
+          <t>[5.246202631677154, 5.337319366975441, 5.46724758532173, 5.623504596400475, 5.989285278433341, 6.048744843903783, 6.068811053156354]</t>
         </is>
       </c>
       <c r="U166" t="n">
         <v>5</v>
       </c>
       <c r="V166" t="n">
-        <v>5.647400912407962</v>
+        <v>5.801430568177564</v>
       </c>
       <c r="W166" t="n">
         <v>0</v>
@@ -15375,7 +15371,7 @@
       <c r="Y166" t="inlineStr"/>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15427,7 +15423,7 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>[288, 127, 338, 54, 336, 261, 256]</t>
+          <t>[288, 127, 338, 54, 419, 261, 336]</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
@@ -15437,33 +15433,37 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>[2.3023950260978787, 2.6272616870506322, 2.6559478692715595, 2.6733740568021274, 2.703627392858631, 2.7297555188999145, 2.7591447300363003]</t>
+          <t>[2.267020850914736, 2.6442560604291643, 2.6505414981390487, 2.677809531822241, 2.710364258980262, 2.71928146472128, 2.743665197724159]</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>[288, 127, 338, 54, 336, 261, 256]</t>
+          <t>[288, 127, 338, 54, 419, 261, 336]</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
         <is>
-          <t>[2.3023950260978787, 2.6272616870506322, 2.6559478692715595, 2.6733740568021274, 2.703627392858631, 2.7297555188999145, 2.7591447300363003]</t>
+          <t>[2.267020850914736, 2.6442560604291643, 2.6505414981390487, 2.677809531822241, 2.710364258980262, 2.71928146472128, 2.743665197724159]</t>
         </is>
       </c>
       <c r="U167" t="n">
         <v>5</v>
       </c>
       <c r="V167" t="n">
-        <v>2.716691455879274</v>
+        <v>2.714822861850772</v>
       </c>
       <c r="W167" t="n">
-        <v>0</v>
-      </c>
-      <c r="X167" t="inlineStr"/>
-      <c r="Y167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.4592547011408165</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>288</v>
+      </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>[165, 226, 234, 61, 13, 189, 10]</t>
+          <t>[165, 226, 234, 61, 13, 189, 252]</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
@@ -15525,24 +15525,24 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>[2.1038794714695626, 2.200582939692614, 2.543793099961696, 2.5749385666837945, 2.882244642438678, 2.927044420631004, 2.929039241107291]</t>
+          <t>[2.1002014391772463, 2.2007466535486677, 2.5287759207269813, 2.5619462358605056, 2.862776178299, 2.89348312071643, 2.911822856625879]</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>[165, 226, 234, 61, 13, 189, 10]</t>
+          <t>[165, 226, 234, 61, 13, 189, 252]</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
         <is>
-          <t>[2.1038794714695626, 2.200582939692614, 2.543793099961696, 2.5749385666837945, 2.882244642438678, 2.927044420631004, 2.929039241107291]</t>
+          <t>[2.1002014391772463, 2.2007466535486677, 2.5287759207269813, 2.5619462358605056, 2.862776178299, 2.89348312071643, 2.911822856625879]</t>
         </is>
       </c>
       <c r="U168" t="n">
         <v>5</v>
       </c>
       <c r="V168" t="n">
-        <v>2.90464453153484</v>
+        <v>2.878129649507715</v>
       </c>
       <c r="W168" t="n">
         <v>0</v>
@@ -15551,7 +15551,7 @@
       <c r="Y168" t="inlineStr"/>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15613,7 +15613,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>[2.276474474342357, 2.323570886424139, 2.3310427547453743, 2.470121963689844, 2.513126806550782, 2.526565482884812, 2.5690923135911876]</t>
+          <t>[2.23893627909378, 2.298416376303103, 2.3181961578400303, 2.4257698021926983, 2.4706624058046924, 2.4947474635995066, 2.522702297471163]</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
@@ -15623,27 +15623,23 @@
       </c>
       <c r="T169" t="inlineStr">
         <is>
-          <t>[2.276474474342357, 2.323570886424139, 2.3310427547453743, 2.470121963689844, 2.513126806550782, 2.526565482884812, 2.5690923135911876]</t>
+          <t>[2.23893627909378, 2.298416376303103, 2.3181961578400303, 2.4257698021926983, 2.4706624058046924, 2.4947474635995066, 2.522702297471163]</t>
         </is>
       </c>
       <c r="U169" t="n">
         <v>5</v>
       </c>
       <c r="V169" t="n">
-        <v>2.519846144717796</v>
+        <v>2.482704934702099</v>
       </c>
       <c r="W169" t="n">
-        <v>1</v>
-      </c>
-      <c r="X169" t="n">
-        <v>0.5327003538216112</v>
-      </c>
-      <c r="Y169" t="n">
-        <v>265</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.566145</t>
         </is>
       </c>
     </row>
@@ -15695,7 +15691,7 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>[281, 142, 56, 411, 416, 312, 193]</t>
+          <t>[281, 142, 56, 411, 416, 312, 214]</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
@@ -15705,37 +15701,37 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>[2.15755202394247, 2.302217753454202, 2.3904305084190476, 2.4901779725616207, 2.511896054470054, 2.5150535356838755, 2.595817578542097]</t>
+          <t>[2.1491301794645796, 2.3151418898663256, 2.3547760202436314, 2.4861773809648584, 2.5014527690512818, 2.5036671229279195, 2.602342564424982]</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>[281, 142, 56, 411, 312, 193, 214]</t>
+          <t>[281, 142, 56, 411, 312, 214, 193]</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>[2.15755202394247, 2.302217753454202, 2.3904305084190476, 2.4901779725616207, 2.5150535356838755, 2.595817578542097, 2.5998956990393967]</t>
+          <t>[2.1491301794645796, 2.3151418898663256, 2.3547760202436314, 2.4861773809648584, 2.5036671229279195, 2.602342564424982, 2.6138478603052184]</t>
         </is>
       </c>
       <c r="U170" t="n">
         <v>5</v>
       </c>
       <c r="V170" t="n">
-        <v>2.513474795076966</v>
+        <v>2.5025599459896</v>
       </c>
       <c r="W170" t="n">
         <v>1</v>
       </c>
       <c r="X170" t="n">
-        <v>0.5144584938341676</v>
+        <v>0.5327003538216112</v>
       </c>
       <c r="Y170" t="n">
-        <v>416</v>
+        <v>281</v>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.568318</t>
         </is>
       </c>
     </row>
@@ -15797,7 +15793,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>[2.3041974816697364, 2.4096620826019093, 2.8036407497275087, 2.851233450292801, 2.9243225062684286, 2.948381679288023, 3.0232339033981654]</t>
+          <t>[2.302552713555384, 2.3912638222094187, 2.788495939090478, 2.793744949723425, 2.9419587329166768, 2.969211514288655, 3.0268635250104827]</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
@@ -15807,23 +15803,27 @@
       </c>
       <c r="T171" t="inlineStr">
         <is>
-          <t>[2.3041974816697364, 2.4096620826019093, 2.8036407497275087, 2.851233450292801, 2.9243225062684286, 2.948381679288023, 3.0232339033981654]</t>
+          <t>[2.302552713555384, 2.3912638222094187, 2.788495939090478, 2.793744949723425, 2.9419587329166768, 2.969211514288655, 3.0268635250104827]</t>
         </is>
       </c>
       <c r="U171" t="n">
         <v>5</v>
       </c>
       <c r="V171" t="n">
-        <v>2.936352092778225</v>
+        <v>2.955585123602666</v>
       </c>
       <c r="W171" t="n">
-        <v>0</v>
-      </c>
-      <c r="X171" t="inlineStr"/>
-      <c r="Y171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0.5144584938341676</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>377</v>
+      </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>2025-11-16T15:35:26.304952</t>
+          <t>2025-11-16T17:30:06.569111</t>
         </is>
       </c>
     </row>
